--- a/4조/최종문서/OWL_요구사항명세서(ver.2).xlsx
+++ b/4조/최종문서/OWL_요구사항명세서(ver.2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="274">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드라이브 화면 전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팀원전체</t>
   </si>
   <si>
@@ -735,14 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  파일을 직접 업로드할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 드래그를 통해 파일을 업로드할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드라이브 화면 전환과 위치 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드라이브 파일과 폴더 검색 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 검색 버튼을 누르면 검색창이 나타난다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,6 +768,346 @@
   </si>
   <si>
     <t xml:space="preserve">파일 업로드 방법과 파일 상세 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  파일을 직접 업로드할 수 있고 드래그로 업로드할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 파일명을 수정하고 파일을 삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 상세정보를 볼 수있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 상세정보에서 이름,파일유형,용량,소유자,생성일을 알 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일과 폴더 검색 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 검색 후 화면은 아이콘 뷰로 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이메일로 멤버 초대 기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이메일을 입력하여 멤버를 초대할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  동시에 여러명을 초대할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초대받은 멤버의 프로젝트 참여 방법 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 해당 이메일로 프로젝트 초대 이메일이 전송된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">드라이브 삭제 정책 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 드라이브에서 폴더 혹은 파일 삭제시 바로 삭제되지 않고 휴지통으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 휴지통에서 파일 혹은 폴더를 영구삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 휴지통에서 파일 혹은 폴더를 복원할 수 있고, 예전 위치로 복원된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 휴지통에서도 화면전환이 가능하여, 아이콘 뷰와 테이블 뷰 중 선택하여 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  초대이메일로 초대받은 프로젝트명과 초대한 사람정보를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 발송된 이메일로 프로젝트에 참여할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 가입회원과 미가입회원을 구분한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 가입회원일 경우, 이미 로그인을 통해 프로젝트에 참여할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 미가입회원일 경우, 회원가입 후 로그인을 하면 프로젝트에 참여할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 초대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정보 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 기간을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 프로젝트 멤버와 프로젝트 매니저의 이름과 이메일, 프로필 사진을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 즐겨찾기 기능과 커스텀 기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 즐겨찾기를 하면 사이드 메뉴에 있는 페이버릿에 프로젝트가 추가된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 프로젝트 색깔을 바꿀 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 프로젝트 즐겨찾기 취소를 하면 페이버릿에서 삭제되고 프로젝트 리스트로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 탈퇴 정책 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 멤버는 바로 탈퇴할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  탈퇴할 프로젝트명을 알럿창에서 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 탈퇴하면 메이화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 생성 기능과 접속 유무 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 채팅할 수 있는 멤버리스트를 볼 수 있고, 현재 접속 중인지를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 채팅방 이름을 설정할 수  있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅방 목록이 제공하는 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 1:1채팅을 할 수 있고, 2인 이상 단체채팅을 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 단체 채팅일 경우 단체 프로필 사진으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 최근 채팅 시간을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  회원이 읽지 않은 대화 수를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 채팅방명을 알 수있고, 가장 최근 대화기록을 미리 볼 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이모티콘을 보낼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 채팅방 제목과 참여인원수를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채팅창 화면과  채팅방내 기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 채팅하는 상대방의 프로필 사진과 이름, 채팅 내용, 채팅 시간을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6. 채팅방에서 나갈 수 있고, 상대방이 나갔음을 알 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알람 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 채팅 내용은 전부 저장이 되고, 나중에도 볼 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 채팅방이 만들어졌을 때 채팅방에 입장했음을 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 아직 보지 않은  알람의 총 개수를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 보지않은 알람의 갯수를 파트별로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 알람을 봤을 때 자동으로 알람의 개수가 수정이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 열람 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. pm이 공지사항 작성 시 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 드라이브에 파일이 업로드 되었을 시 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이슈가 새로 오픈되었을 시 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 이슈의 댓글에서 언급되었을 시 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 이슈가 반려되었을 시 알 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 이슈체크를 제외하고는 알람을 열람 후 삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알람의 상세 기능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 생성시 자동으로 pm이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 매니저 선정 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 프로젝트 매니저는 프로젝트명, 프로젝트 기간, 프로젝트 색깔을 설정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 매니저의 권한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 프로젝트 매니저는 pm 권한을 양도할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  프로젝트 멤버를 퇴출할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 프로젝트 매니저는  탈퇴할 수 없고, 권한을 양도 후 탈퇴해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로젝트 매니저의 멤버관리 권한과 탈퇴  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공지사항을 작성, 수정,삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 칸반보드에서 칼럼을 생성,수정,삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 칸반보드에서 라벨을 생성,수정,삭제할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  칸반보드에서 이슈 작성 시 프로젝트 매니저는 바로 오픈이 되어 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 프로젝트 대시보드에서 멤버별 진행율을 막대차트를 통해 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 승인과 반려 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  이슈 상세 사항을 알 수있으며, 이슈 반려시 반려 사유를 적을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 멤버가 이슈를 작성하면 프로젝트 매니저는 이슈 승인 요청 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이슈가 반려되면 멤버는 이슈 반려 알람으로 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  프로젝트 매니저가 이슈를 승인하면 칸반보드에 이슈가 오픈된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.02.09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +1172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,12 +1182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,17 +1451,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,31 +1466,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,16 +1487,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,7 +1553,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:K408"/>
+  <dimension ref="A3:K487"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B313" workbookViewId="0">
-      <selection activeCell="D327" sqref="A327:XFD327"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="M306" sqref="M306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1559,14 +1880,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1578,33 +1899,35 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="12" t="s">
+        <v>273</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1"/>
     <row r="9" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1616,27 +1939,27 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1650,20 +1973,20 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="34"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="60" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B13" s="34"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
@@ -1676,46 +1999,46 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B14" s="34"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="38" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B15" s="34"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1727,27 +2050,27 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="40" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="38" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1761,7 +2084,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="34"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
@@ -1774,46 +2097,46 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="34"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="38" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="39"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="34"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1825,27 +2148,27 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="40" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="38" t="s">
+      <c r="G25" s="40"/>
+      <c r="H25" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1859,8 +2182,8 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="34"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +2195,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="34"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -1885,46 +2208,46 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="34"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="38" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="34"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="39"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1936,27 +2259,27 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="40" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="38" t="s">
+      <c r="G33" s="40"/>
+      <c r="H33" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="39"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1970,8 +2293,8 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="34"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2306,8 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="34"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6" t="s">
         <v>42</v>
       </c>
@@ -1996,7 +2319,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="34"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="15" t="s">
         <v>5</v>
       </c>
@@ -2009,46 +2332,46 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="34"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="37" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38" t="s">
+      <c r="G38" s="39"/>
+      <c r="H38" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="39"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="34"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="39"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="44"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="10" t="s">
         <v>18</v>
       </c>
@@ -2060,27 +2383,27 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="40" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="38" t="s">
+      <c r="G42" s="40"/>
+      <c r="H42" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2094,8 +2417,8 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="34"/>
-      <c r="C44" s="36"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="6" t="s">
         <v>46</v>
       </c>
@@ -2107,8 +2430,8 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="34"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7" t="s">
         <v>47</v>
       </c>
@@ -2120,7 +2443,7 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="34"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="15" t="s">
         <v>5</v>
       </c>
@@ -2133,46 +2456,46 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="34"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="37" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="38" t="s">
+      <c r="G47" s="39"/>
+      <c r="H47" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="39"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="34"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="39"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="10" t="s">
         <v>43</v>
       </c>
@@ -2184,27 +2507,27 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="40" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="38" t="s">
+      <c r="G51" s="40"/>
+      <c r="H51" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="39"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2218,8 +2541,8 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="34"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="6" t="s">
         <v>50</v>
       </c>
@@ -2231,9 +2554,9 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="34"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="29" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E54" s="4"/>
@@ -2244,7 +2567,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="34"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="15" t="s">
         <v>5</v>
       </c>
@@ -2257,46 +2580,46 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="34"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="37" t="s">
+      <c r="E56" s="43"/>
+      <c r="F56" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="38" t="s">
+      <c r="G56" s="39"/>
+      <c r="H56" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="39"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="34"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="39"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="10" t="s">
         <v>52</v>
       </c>
@@ -2308,27 +2631,27 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="40" t="s">
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="38" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="39"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2342,8 +2665,8 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="34"/>
-      <c r="C62" s="42"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="6" t="s">
         <v>59</v>
       </c>
@@ -2355,8 +2678,8 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="34"/>
-      <c r="C63" s="42"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="6" t="s">
         <v>60</v>
       </c>
@@ -2368,7 +2691,7 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="34"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="15" t="s">
         <v>5</v>
       </c>
@@ -2381,46 +2704,46 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="34"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="37" t="s">
+      <c r="E65" s="43"/>
+      <c r="F65" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="38" t="s">
+      <c r="G65" s="39"/>
+      <c r="H65" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="39"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="34"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="42" t="s">
+      <c r="F66" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="39"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="42"/>
+      <c r="J66" s="43"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="44"/>
+      <c r="C68" s="36"/>
       <c r="D68" s="10" t="s">
         <v>54</v>
       </c>
@@ -2432,24 +2755,24 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="40" t="s">
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="38" t="s">
+      <c r="G69" s="40"/>
+      <c r="H69" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="41"/>
-      <c r="J69" s="39"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -2466,7 +2789,7 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="34"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="15" t="s">
         <v>5</v>
       </c>
@@ -2479,46 +2802,46 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="34"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="37" t="s">
+      <c r="E72" s="43"/>
+      <c r="F72" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="40"/>
-      <c r="H72" s="38" t="s">
+      <c r="G72" s="39"/>
+      <c r="H72" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="39"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="34"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="39"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="44"/>
+      <c r="C75" s="36"/>
       <c r="D75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2530,27 +2853,27 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="40" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="47"/>
-      <c r="H76" s="38" t="s">
+      <c r="G76" s="40"/>
+      <c r="H76" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="39"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2564,8 +2887,8 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="34"/>
-      <c r="C78" s="42"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="6" t="s">
         <v>57</v>
       </c>
@@ -2577,8 +2900,8 @@
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="34"/>
-      <c r="C79" s="42"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="6" t="s">
         <v>58</v>
       </c>
@@ -2590,7 +2913,7 @@
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="34"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="15" t="s">
         <v>5</v>
       </c>
@@ -2603,46 +2926,46 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="34"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="37" t="s">
+      <c r="E81" s="43"/>
+      <c r="F81" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="40"/>
-      <c r="H81" s="38" t="s">
+      <c r="G81" s="39"/>
+      <c r="H81" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="39"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="34"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="42" t="s">
+      <c r="F82" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="42"/>
-      <c r="H82" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="39"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="44"/>
+      <c r="C84" s="36"/>
       <c r="D84" s="10" t="s">
         <v>61</v>
       </c>
@@ -2654,27 +2977,27 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="40" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="47"/>
-      <c r="H85" s="38" t="s">
+      <c r="G85" s="40"/>
+      <c r="H85" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="39"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -2688,8 +3011,8 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="34"/>
-      <c r="C87" s="42"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="48"/>
       <c r="D87" s="6" t="s">
         <v>64</v>
       </c>
@@ -2701,8 +3024,8 @@
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="34"/>
-      <c r="C88" s="42"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="22" t="s">
         <v>65</v>
       </c>
@@ -2714,8 +3037,8 @@
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="34"/>
-      <c r="C89" s="42"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="48"/>
       <c r="D89" s="17" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +3050,7 @@
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="34"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="15" t="s">
         <v>5</v>
       </c>
@@ -2740,46 +3063,46 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="34"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="39"/>
-      <c r="F91" s="37" t="s">
+      <c r="E91" s="43"/>
+      <c r="F91" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="38" t="s">
+      <c r="G91" s="39"/>
+      <c r="H91" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="39"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="43"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="34"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="42" t="s">
+      <c r="F92" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="42"/>
-      <c r="H92" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I92" s="41"/>
-      <c r="J92" s="39"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I92" s="42"/>
+      <c r="J92" s="43"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="44"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="10" t="s">
         <v>61</v>
       </c>
@@ -2791,27 +3114,27 @@
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="40" t="s">
+      <c r="C95" s="36"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="38" t="s">
+      <c r="G95" s="40"/>
+      <c r="H95" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="39"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="43"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2825,8 +3148,8 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="34"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="6" t="s">
         <v>75</v>
       </c>
@@ -2838,8 +3161,8 @@
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="34"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="6" t="s">
         <v>73</v>
       </c>
@@ -2851,8 +3174,8 @@
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="34"/>
-      <c r="C99" s="42"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="6" t="s">
         <v>74</v>
       </c>
@@ -2864,7 +3187,7 @@
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="34"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="15" t="s">
         <v>5</v>
       </c>
@@ -2877,41 +3200,41 @@
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="34"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="39"/>
-      <c r="F101" s="37" t="s">
+      <c r="E101" s="43"/>
+      <c r="F101" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="38" t="s">
+      <c r="G101" s="39"/>
+      <c r="H101" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="41"/>
-      <c r="J101" s="39"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="43"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="34"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="42" t="s">
+      <c r="F102" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="42"/>
-      <c r="H102" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I102" s="41"/>
-      <c r="J102" s="39"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="42"/>
+      <c r="J102" s="43"/>
     </row>
     <row r="103" spans="2:11" s="21" customFormat="1">
       <c r="B103" s="24"/>
@@ -2926,10 +3249,10 @@
       <c r="K103" s="22"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="44"/>
+      <c r="C104" s="36"/>
       <c r="D104" s="10" t="s">
         <v>61</v>
       </c>
@@ -2941,27 +3264,27 @@
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="40" t="s">
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="38" t="s">
+      <c r="G105" s="40"/>
+      <c r="H105" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I105" s="41"/>
-      <c r="J105" s="39"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="43"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -2975,8 +3298,8 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="34"/>
-      <c r="C107" s="42"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="48"/>
       <c r="D107" s="6" t="s">
         <v>69</v>
       </c>
@@ -2988,8 +3311,8 @@
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="34"/>
-      <c r="C108" s="42"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="6" t="s">
         <v>76</v>
       </c>
@@ -3001,8 +3324,8 @@
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="34"/>
-      <c r="C109" s="42"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="6" t="s">
         <v>25</v>
       </c>
@@ -3014,7 +3337,7 @@
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="34"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="15" t="s">
         <v>5</v>
       </c>
@@ -3027,46 +3350,46 @@
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="34"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="D111" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="39"/>
-      <c r="F111" s="37" t="s">
+      <c r="E111" s="43"/>
+      <c r="F111" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="40"/>
-      <c r="H111" s="38" t="s">
+      <c r="G111" s="39"/>
+      <c r="H111" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="41"/>
-      <c r="J111" s="39"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="43"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="34"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="42" t="s">
+      <c r="F112" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="42"/>
-      <c r="H112" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I112" s="41"/>
-      <c r="J112" s="39"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I112" s="42"/>
+      <c r="J112" s="43"/>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="44"/>
+      <c r="C114" s="36"/>
       <c r="D114" s="10" t="s">
         <v>80</v>
       </c>
@@ -3078,27 +3401,27 @@
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="40" t="s">
+      <c r="C115" s="36"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G115" s="47"/>
-      <c r="H115" s="38" t="s">
+      <c r="G115" s="40"/>
+      <c r="H115" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="I115" s="41"/>
-      <c r="J115" s="39"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="43"/>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="42" t="s">
+      <c r="C116" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3112,8 +3435,8 @@
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="34"/>
-      <c r="C117" s="42"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="48"/>
       <c r="D117" s="6" t="s">
         <v>82</v>
       </c>
@@ -3125,8 +3448,8 @@
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="34"/>
-      <c r="C118" s="42"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="6" t="s">
         <v>71</v>
       </c>
@@ -3138,8 +3461,8 @@
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="34"/>
-      <c r="C119" s="42"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="48"/>
       <c r="D119" s="6" t="s">
         <v>72</v>
       </c>
@@ -3151,7 +3474,7 @@
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="34"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="15" t="s">
         <v>5</v>
       </c>
@@ -3164,46 +3487,46 @@
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="34"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="38" t="s">
+      <c r="D121" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="39"/>
-      <c r="F121" s="37" t="s">
+      <c r="E121" s="43"/>
+      <c r="F121" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="40"/>
-      <c r="H121" s="38" t="s">
+      <c r="G121" s="39"/>
+      <c r="H121" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I121" s="41"/>
-      <c r="J121" s="39"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="43"/>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="34"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="42" t="s">
+      <c r="F122" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="42"/>
-      <c r="H122" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I122" s="41"/>
-      <c r="J122" s="39"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I122" s="42"/>
+      <c r="J122" s="43"/>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="43" t="s">
+      <c r="B124" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="44"/>
+      <c r="C124" s="36"/>
       <c r="D124" s="10" t="s">
         <v>80</v>
       </c>
@@ -3215,25 +3538,25 @@
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="43" t="s">
+      <c r="B125" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="44"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="40" t="s">
+      <c r="C125" s="36"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G125" s="47"/>
-      <c r="H125" s="38" t="s">
+      <c r="G125" s="40"/>
+      <c r="H125" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="41"/>
-      <c r="J125" s="39"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="43"/>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="34"/>
-      <c r="C126" s="42" t="s">
+      <c r="B126" s="44"/>
+      <c r="C126" s="48" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3247,8 +3570,8 @@
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="34"/>
-      <c r="C127" s="42"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="48"/>
       <c r="D127" s="6" t="s">
         <v>77</v>
       </c>
@@ -3260,7 +3583,7 @@
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="34"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="15" t="s">
         <v>5</v>
       </c>
@@ -3273,46 +3596,46 @@
       <c r="J128" s="11"/>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="34"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="38" t="s">
+      <c r="D129" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E129" s="39"/>
-      <c r="F129" s="37" t="s">
+      <c r="E129" s="43"/>
+      <c r="F129" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="40"/>
-      <c r="H129" s="38" t="s">
+      <c r="G129" s="39"/>
+      <c r="H129" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I129" s="41"/>
-      <c r="J129" s="39"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="43"/>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="34"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="42" t="s">
+      <c r="F130" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="42"/>
-      <c r="H130" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I130" s="41"/>
-      <c r="J130" s="39"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I130" s="42"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="43" t="s">
+      <c r="B132" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C132" s="44"/>
+      <c r="C132" s="36"/>
       <c r="D132" s="10" t="s">
         <v>85</v>
       </c>
@@ -3324,27 +3647,27 @@
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="43" t="s">
+      <c r="B133" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="44"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="40" t="s">
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G133" s="47"/>
-      <c r="H133" s="38" t="s">
+      <c r="G133" s="40"/>
+      <c r="H133" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I133" s="41"/>
-      <c r="J133" s="39"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="43"/>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C134" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3358,8 +3681,8 @@
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="34"/>
-      <c r="C135" s="42"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="48"/>
       <c r="D135" s="6" t="s">
         <v>87</v>
       </c>
@@ -3371,8 +3694,8 @@
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="34"/>
-      <c r="C136" s="42"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="6" t="s">
         <v>89</v>
       </c>
@@ -3384,7 +3707,7 @@
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="34"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="15" t="s">
         <v>5</v>
       </c>
@@ -3397,46 +3720,46 @@
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="2:10">
-      <c r="B138" s="34"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="38" t="s">
+      <c r="D138" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="39"/>
-      <c r="F138" s="37" t="s">
+      <c r="E138" s="43"/>
+      <c r="F138" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="40"/>
-      <c r="H138" s="38" t="s">
+      <c r="G138" s="39"/>
+      <c r="H138" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I138" s="41"/>
-      <c r="J138" s="39"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="43"/>
     </row>
     <row r="139" spans="2:10">
-      <c r="B139" s="34"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="42" t="s">
+      <c r="F139" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="42"/>
-      <c r="H139" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I139" s="41"/>
-      <c r="J139" s="39"/>
+      <c r="G139" s="48"/>
+      <c r="H139" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I139" s="42"/>
+      <c r="J139" s="43"/>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="43" t="s">
+      <c r="B141" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C141" s="44"/>
+      <c r="C141" s="36"/>
       <c r="D141" s="10" t="s">
         <v>85</v>
       </c>
@@ -3448,27 +3771,27 @@
       <c r="J141" s="11"/>
     </row>
     <row r="142" spans="2:10">
-      <c r="B142" s="43" t="s">
+      <c r="B142" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="44"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="40" t="s">
+      <c r="C142" s="36"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G142" s="47"/>
-      <c r="H142" s="48" t="s">
+      <c r="G142" s="40"/>
+      <c r="H142" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="I142" s="49"/>
-      <c r="J142" s="50"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="63"/>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -3482,8 +3805,8 @@
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="34"/>
-      <c r="C144" s="42"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="48"/>
       <c r="D144" s="6" t="s">
         <v>88</v>
       </c>
@@ -3495,8 +3818,8 @@
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="34"/>
-      <c r="C145" s="42"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="6" t="s">
         <v>92</v>
       </c>
@@ -3508,7 +3831,7 @@
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="34"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="15" t="s">
         <v>5</v>
       </c>
@@ -3521,46 +3844,46 @@
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="34"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="39"/>
-      <c r="F147" s="37" t="s">
+      <c r="E147" s="43"/>
+      <c r="F147" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G147" s="40"/>
-      <c r="H147" s="38" t="s">
+      <c r="G147" s="39"/>
+      <c r="H147" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I147" s="41"/>
-      <c r="J147" s="39"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="43"/>
     </row>
     <row r="148" spans="2:10">
-      <c r="B148" s="34"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="42" t="s">
+      <c r="F148" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G148" s="42"/>
-      <c r="H148" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I148" s="41"/>
-      <c r="J148" s="39"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I148" s="42"/>
+      <c r="J148" s="43"/>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="44"/>
+      <c r="C150" s="36"/>
       <c r="D150" s="25" t="s">
         <v>90</v>
       </c>
@@ -3572,27 +3895,27 @@
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="2:10">
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="44"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="40" t="s">
+      <c r="C151" s="36"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="48" t="s">
+      <c r="G151" s="40"/>
+      <c r="H151" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="I151" s="49"/>
-      <c r="J151" s="50"/>
+      <c r="I151" s="62"/>
+      <c r="J151" s="63"/>
     </row>
     <row r="152" spans="2:10">
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C152" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -3606,8 +3929,8 @@
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="2:10">
-      <c r="B153" s="34"/>
-      <c r="C153" s="42"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="48"/>
       <c r="D153" s="6" t="s">
         <v>94</v>
       </c>
@@ -3619,9 +3942,9 @@
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="34"/>
-      <c r="C154" s="42"/>
-      <c r="D154" s="33" t="s">
+      <c r="B154" s="44"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="31" t="s">
         <v>95</v>
       </c>
       <c r="E154" s="4"/>
@@ -3632,7 +3955,7 @@
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10">
-      <c r="B155" s="34"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3645,46 +3968,46 @@
       <c r="J155" s="11"/>
     </row>
     <row r="156" spans="2:10">
-      <c r="B156" s="34"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="38" t="s">
+      <c r="D156" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="39"/>
-      <c r="F156" s="37" t="s">
+      <c r="E156" s="43"/>
+      <c r="F156" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="40"/>
-      <c r="H156" s="38" t="s">
+      <c r="G156" s="39"/>
+      <c r="H156" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I156" s="41"/>
-      <c r="J156" s="39"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="43"/>
     </row>
     <row r="157" spans="2:10">
-      <c r="B157" s="34"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="42" t="s">
+      <c r="F157" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G157" s="42"/>
-      <c r="H157" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I157" s="41"/>
-      <c r="J157" s="39"/>
+      <c r="G157" s="48"/>
+      <c r="H157" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I157" s="42"/>
+      <c r="J157" s="43"/>
     </row>
     <row r="159" spans="2:10">
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="44"/>
+      <c r="C159" s="36"/>
       <c r="D159" s="10" t="s">
         <v>103</v>
       </c>
@@ -3696,27 +4019,27 @@
       <c r="J159" s="11"/>
     </row>
     <row r="160" spans="2:10">
-      <c r="B160" s="43" t="s">
+      <c r="B160" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="44"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="40" t="s">
+      <c r="C160" s="36"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G160" s="47"/>
-      <c r="H160" s="38" t="s">
+      <c r="G160" s="40"/>
+      <c r="H160" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="I160" s="41"/>
-      <c r="J160" s="39"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="43"/>
     </row>
     <row r="161" spans="2:10">
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="42" t="s">
+      <c r="C161" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -3730,8 +4053,8 @@
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="2:10">
-      <c r="B162" s="34"/>
-      <c r="C162" s="42"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="48"/>
       <c r="D162" s="6" t="s">
         <v>102</v>
       </c>
@@ -3743,8 +4066,8 @@
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10">
-      <c r="B163" s="34"/>
-      <c r="C163" s="42"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="48"/>
       <c r="D163" s="6" t="s">
         <v>100</v>
       </c>
@@ -3756,8 +4079,8 @@
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10">
-      <c r="B164" s="34"/>
-      <c r="C164" s="42"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="48"/>
       <c r="D164" s="6" t="s">
         <v>101</v>
       </c>
@@ -3769,7 +4092,7 @@
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10">
-      <c r="B165" s="34"/>
+      <c r="B165" s="44"/>
       <c r="C165" s="15" t="s">
         <v>5</v>
       </c>
@@ -3782,46 +4105,46 @@
       <c r="J165" s="11"/>
     </row>
     <row r="166" spans="2:10">
-      <c r="B166" s="34"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="38" t="s">
+      <c r="D166" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="39"/>
-      <c r="F166" s="37" t="s">
+      <c r="E166" s="43"/>
+      <c r="F166" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="40"/>
-      <c r="H166" s="38" t="s">
+      <c r="G166" s="39"/>
+      <c r="H166" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I166" s="41"/>
-      <c r="J166" s="39"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="43"/>
     </row>
     <row r="167" spans="2:10">
-      <c r="B167" s="34"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="42" t="s">
+      <c r="F167" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="42"/>
-      <c r="H167" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I167" s="41"/>
-      <c r="J167" s="39"/>
+      <c r="G167" s="48"/>
+      <c r="H167" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I167" s="42"/>
+      <c r="J167" s="43"/>
     </row>
     <row r="169" spans="2:10">
-      <c r="B169" s="43" t="s">
+      <c r="B169" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="44"/>
+      <c r="C169" s="36"/>
       <c r="D169" s="10" t="s">
         <v>103</v>
       </c>
@@ -3833,27 +4156,27 @@
       <c r="J169" s="11"/>
     </row>
     <row r="170" spans="2:10">
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="44"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="46"/>
-      <c r="F170" s="40" t="s">
+      <c r="C170" s="36"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="38"/>
+      <c r="F170" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="47"/>
-      <c r="H170" s="38" t="s">
+      <c r="G170" s="40"/>
+      <c r="H170" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="I170" s="41"/>
-      <c r="J170" s="39"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="43"/>
     </row>
     <row r="171" spans="2:10">
-      <c r="B171" s="34" t="s">
+      <c r="B171" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="42" t="s">
+      <c r="C171" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -3867,8 +4190,8 @@
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="2:10">
-      <c r="B172" s="34"/>
-      <c r="C172" s="42"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="48"/>
       <c r="D172" s="6" t="s">
         <v>105</v>
       </c>
@@ -3880,46 +4203,46 @@
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="2:10">
-      <c r="B173" s="34"/>
+      <c r="B173" s="44"/>
       <c r="C173" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="38" t="s">
+      <c r="D173" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E173" s="39"/>
-      <c r="F173" s="42" t="s">
+      <c r="E173" s="43"/>
+      <c r="F173" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G173" s="42"/>
-      <c r="H173" s="38" t="s">
+      <c r="G173" s="48"/>
+      <c r="H173" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I173" s="41"/>
-      <c r="J173" s="39"/>
+      <c r="I173" s="42"/>
+      <c r="J173" s="43"/>
     </row>
     <row r="174" spans="2:10">
-      <c r="B174" s="34"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="42" t="s">
+      <c r="F174" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G174" s="42"/>
-      <c r="H174" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I174" s="41"/>
-      <c r="J174" s="39"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I174" s="42"/>
+      <c r="J174" s="43"/>
     </row>
     <row r="176" spans="2:10">
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C176" s="44"/>
+      <c r="C176" s="36"/>
       <c r="D176" s="10" t="s">
         <v>90</v>
       </c>
@@ -3931,27 +4254,27 @@
       <c r="J176" s="11"/>
     </row>
     <row r="177" spans="2:10">
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="44"/>
-      <c r="D177" s="45"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="40" t="s">
+      <c r="C177" s="36"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G177" s="47"/>
-      <c r="H177" s="38" t="s">
+      <c r="G177" s="40"/>
+      <c r="H177" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I177" s="41"/>
-      <c r="J177" s="39"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="43"/>
     </row>
     <row r="178" spans="2:10">
-      <c r="B178" s="34" t="s">
+      <c r="B178" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="42" t="s">
+      <c r="C178" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -3965,8 +4288,8 @@
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="2:10">
-      <c r="B179" s="34"/>
-      <c r="C179" s="42"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="48"/>
       <c r="D179" s="6" t="s">
         <v>108</v>
       </c>
@@ -3978,8 +4301,8 @@
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="2:10">
-      <c r="B180" s="34"/>
-      <c r="C180" s="42"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="48"/>
       <c r="D180" s="6" t="s">
         <v>109</v>
       </c>
@@ -3991,7 +4314,7 @@
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="2:10">
-      <c r="B181" s="34"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="15" t="s">
         <v>5</v>
       </c>
@@ -4004,46 +4327,46 @@
       <c r="J181" s="11"/>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="34"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="38" t="s">
+      <c r="D182" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E182" s="39"/>
-      <c r="F182" s="37" t="s">
+      <c r="E182" s="43"/>
+      <c r="F182" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G182" s="40"/>
-      <c r="H182" s="38" t="s">
+      <c r="G182" s="39"/>
+      <c r="H182" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I182" s="41"/>
-      <c r="J182" s="39"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="43"/>
     </row>
     <row r="183" spans="2:10">
-      <c r="B183" s="34"/>
+      <c r="B183" s="44"/>
       <c r="C183" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="42" t="s">
+      <c r="F183" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="42"/>
-      <c r="H183" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I183" s="41"/>
-      <c r="J183" s="39"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I183" s="42"/>
+      <c r="J183" s="43"/>
     </row>
     <row r="185" spans="2:10">
-      <c r="B185" s="43" t="s">
+      <c r="B185" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C185" s="44"/>
+      <c r="C185" s="36"/>
       <c r="D185" s="10" t="s">
         <v>90</v>
       </c>
@@ -4055,27 +4378,27 @@
       <c r="J185" s="11"/>
     </row>
     <row r="186" spans="2:10">
-      <c r="B186" s="43" t="s">
+      <c r="B186" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C186" s="44"/>
-      <c r="D186" s="45"/>
-      <c r="E186" s="46"/>
-      <c r="F186" s="40" t="s">
+      <c r="C186" s="36"/>
+      <c r="D186" s="37"/>
+      <c r="E186" s="38"/>
+      <c r="F186" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G186" s="47"/>
-      <c r="H186" s="38" t="s">
+      <c r="G186" s="40"/>
+      <c r="H186" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="I186" s="41"/>
-      <c r="J186" s="39"/>
+      <c r="I186" s="42"/>
+      <c r="J186" s="43"/>
     </row>
     <row r="187" spans="2:10">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="42" t="s">
+      <c r="C187" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -4089,8 +4412,8 @@
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="2:10">
-      <c r="B188" s="34"/>
-      <c r="C188" s="42"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="48"/>
       <c r="D188" s="6" t="s">
         <v>113</v>
       </c>
@@ -4102,7 +4425,7 @@
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="2:10">
-      <c r="B189" s="34"/>
+      <c r="B189" s="44"/>
       <c r="C189" s="15" t="s">
         <v>5</v>
       </c>
@@ -4115,46 +4438,46 @@
       <c r="J189" s="11"/>
     </row>
     <row r="190" spans="2:10">
-      <c r="B190" s="34"/>
+      <c r="B190" s="44"/>
       <c r="C190" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="38" t="s">
+      <c r="D190" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="39"/>
-      <c r="F190" s="37" t="s">
+      <c r="E190" s="43"/>
+      <c r="F190" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G190" s="40"/>
-      <c r="H190" s="38" t="s">
+      <c r="G190" s="39"/>
+      <c r="H190" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I190" s="41"/>
-      <c r="J190" s="39"/>
+      <c r="I190" s="42"/>
+      <c r="J190" s="43"/>
     </row>
     <row r="191" spans="2:10">
-      <c r="B191" s="34"/>
+      <c r="B191" s="44"/>
       <c r="C191" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="42" t="s">
+      <c r="F191" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="42"/>
-      <c r="H191" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I191" s="41"/>
-      <c r="J191" s="39"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I191" s="42"/>
+      <c r="J191" s="43"/>
     </row>
     <row r="193" spans="2:10">
-      <c r="B193" s="43" t="s">
+      <c r="B193" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C193" s="44"/>
+      <c r="C193" s="36"/>
       <c r="D193" s="10" t="s">
         <v>115</v>
       </c>
@@ -4166,30 +4489,30 @@
       <c r="J193" s="11"/>
     </row>
     <row r="194" spans="2:10">
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="44"/>
-      <c r="D194" s="45"/>
-      <c r="E194" s="46"/>
-      <c r="F194" s="40" t="s">
+      <c r="C194" s="36"/>
+      <c r="D194" s="37"/>
+      <c r="E194" s="38"/>
+      <c r="F194" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G194" s="47"/>
-      <c r="H194" s="38" t="s">
+      <c r="G194" s="40"/>
+      <c r="H194" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I194" s="41"/>
-      <c r="J194" s="39"/>
+      <c r="I194" s="42"/>
+      <c r="J194" s="43"/>
     </row>
     <row r="195" spans="2:10">
-      <c r="B195" s="34" t="s">
+      <c r="B195" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="42" t="s">
+      <c r="C195" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="29" t="s">
+      <c r="D195" s="28" t="s">
         <v>118</v>
       </c>
       <c r="E195" s="2"/>
@@ -4200,8 +4523,8 @@
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="2:10">
-      <c r="B196" s="34"/>
-      <c r="C196" s="42"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="48"/>
       <c r="D196" s="6" t="s">
         <v>119</v>
       </c>
@@ -4213,8 +4536,8 @@
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="2:10">
-      <c r="B197" s="34"/>
-      <c r="C197" s="42"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="48"/>
       <c r="D197" s="6" t="s">
         <v>117</v>
       </c>
@@ -4226,8 +4549,8 @@
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="2:10">
-      <c r="B198" s="34"/>
-      <c r="C198" s="42"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="48"/>
       <c r="D198" s="6" t="s">
         <v>120</v>
       </c>
@@ -4239,8 +4562,8 @@
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="2:10">
-      <c r="B199" s="34"/>
-      <c r="C199" s="42"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="48"/>
       <c r="D199" s="7" t="s">
         <v>121</v>
       </c>
@@ -4252,7 +4575,7 @@
       <c r="J199" s="9"/>
     </row>
     <row r="200" spans="2:10">
-      <c r="B200" s="34"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="15" t="s">
         <v>5</v>
       </c>
@@ -4265,46 +4588,46 @@
       <c r="J200" s="11"/>
     </row>
     <row r="201" spans="2:10">
-      <c r="B201" s="34"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D201" s="38" t="s">
+      <c r="D201" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E201" s="39"/>
-      <c r="F201" s="37" t="s">
+      <c r="E201" s="43"/>
+      <c r="F201" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G201" s="40"/>
-      <c r="H201" s="38" t="s">
+      <c r="G201" s="39"/>
+      <c r="H201" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I201" s="41"/>
-      <c r="J201" s="39"/>
+      <c r="I201" s="42"/>
+      <c r="J201" s="43"/>
     </row>
     <row r="202" spans="2:10">
-      <c r="B202" s="34"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="42" t="s">
+      <c r="F202" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G202" s="42"/>
-      <c r="H202" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I202" s="41"/>
-      <c r="J202" s="39"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I202" s="42"/>
+      <c r="J202" s="43"/>
     </row>
     <row r="204" spans="2:10">
-      <c r="B204" s="43" t="s">
+      <c r="B204" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C204" s="44"/>
+      <c r="C204" s="36"/>
       <c r="D204" s="10" t="s">
         <v>114</v>
       </c>
@@ -4316,27 +4639,27 @@
       <c r="J204" s="11"/>
     </row>
     <row r="205" spans="2:10">
-      <c r="B205" s="43" t="s">
+      <c r="B205" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="44"/>
-      <c r="D205" s="45"/>
-      <c r="E205" s="46"/>
-      <c r="F205" s="40" t="s">
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="38"/>
+      <c r="F205" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G205" s="47"/>
-      <c r="H205" s="38" t="s">
+      <c r="G205" s="40"/>
+      <c r="H205" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="I205" s="41"/>
-      <c r="J205" s="39"/>
+      <c r="I205" s="42"/>
+      <c r="J205" s="43"/>
     </row>
     <row r="206" spans="2:10">
-      <c r="B206" s="34" t="s">
+      <c r="B206" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C206" s="42" t="s">
+      <c r="C206" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -4350,8 +4673,8 @@
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="2:10">
-      <c r="B207" s="34"/>
-      <c r="C207" s="42"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="48"/>
       <c r="D207" s="6" t="s">
         <v>123</v>
       </c>
@@ -4363,8 +4686,8 @@
       <c r="J207" s="5"/>
     </row>
     <row r="208" spans="2:10">
-      <c r="B208" s="34"/>
-      <c r="C208" s="42"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="48"/>
       <c r="D208" s="6" t="s">
         <v>124</v>
       </c>
@@ -4376,7 +4699,7 @@
       <c r="J208" s="5"/>
     </row>
     <row r="209" spans="2:10">
-      <c r="B209" s="34"/>
+      <c r="B209" s="44"/>
       <c r="C209" s="15" t="s">
         <v>5</v>
       </c>
@@ -4389,46 +4712,46 @@
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="2:10">
-      <c r="B210" s="34"/>
+      <c r="B210" s="44"/>
       <c r="C210" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D210" s="38" t="s">
+      <c r="D210" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E210" s="39"/>
-      <c r="F210" s="37" t="s">
+      <c r="E210" s="43"/>
+      <c r="F210" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G210" s="40"/>
-      <c r="H210" s="38" t="s">
+      <c r="G210" s="39"/>
+      <c r="H210" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I210" s="41"/>
-      <c r="J210" s="39"/>
+      <c r="I210" s="42"/>
+      <c r="J210" s="43"/>
     </row>
     <row r="211" spans="2:10">
-      <c r="B211" s="34"/>
+      <c r="B211" s="44"/>
       <c r="C211" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="42" t="s">
+      <c r="F211" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G211" s="42"/>
-      <c r="H211" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I211" s="41"/>
-      <c r="J211" s="39"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I211" s="42"/>
+      <c r="J211" s="43"/>
     </row>
     <row r="213" spans="2:10">
-      <c r="B213" s="43" t="s">
+      <c r="B213" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C213" s="44"/>
+      <c r="C213" s="36"/>
       <c r="D213" s="10" t="s">
         <v>125</v>
       </c>
@@ -4440,27 +4763,27 @@
       <c r="J213" s="11"/>
     </row>
     <row r="214" spans="2:10">
-      <c r="B214" s="43" t="s">
+      <c r="B214" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C214" s="44"/>
-      <c r="D214" s="45"/>
-      <c r="E214" s="46"/>
-      <c r="F214" s="40" t="s">
+      <c r="C214" s="36"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="38"/>
+      <c r="F214" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G214" s="47"/>
-      <c r="H214" s="38" t="s">
+      <c r="G214" s="40"/>
+      <c r="H214" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="I214" s="41"/>
-      <c r="J214" s="39"/>
+      <c r="I214" s="42"/>
+      <c r="J214" s="43"/>
     </row>
     <row r="215" spans="2:10">
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -4474,8 +4797,8 @@
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="2:10">
-      <c r="B216" s="34"/>
-      <c r="C216" s="37"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="47"/>
       <c r="D216" s="7" t="s">
         <v>129</v>
       </c>
@@ -4487,7 +4810,7 @@
       <c r="J216" s="9"/>
     </row>
     <row r="217" spans="2:10">
-      <c r="B217" s="34"/>
+      <c r="B217" s="44"/>
       <c r="C217" s="15" t="s">
         <v>5</v>
       </c>
@@ -4500,46 +4823,46 @@
       <c r="J217" s="11"/>
     </row>
     <row r="218" spans="2:10">
-      <c r="B218" s="34"/>
+      <c r="B218" s="44"/>
       <c r="C218" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D218" s="38" t="s">
+      <c r="D218" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E218" s="39"/>
-      <c r="F218" s="37" t="s">
+      <c r="E218" s="43"/>
+      <c r="F218" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G218" s="40"/>
-      <c r="H218" s="38" t="s">
+      <c r="G218" s="39"/>
+      <c r="H218" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I218" s="41"/>
-      <c r="J218" s="39"/>
+      <c r="I218" s="42"/>
+      <c r="J218" s="43"/>
     </row>
     <row r="219" spans="2:10">
-      <c r="B219" s="34"/>
+      <c r="B219" s="44"/>
       <c r="C219" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="42" t="s">
+      <c r="F219" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G219" s="42"/>
-      <c r="H219" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I219" s="41"/>
-      <c r="J219" s="39"/>
+      <c r="G219" s="48"/>
+      <c r="H219" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I219" s="42"/>
+      <c r="J219" s="43"/>
     </row>
     <row r="221" spans="2:10">
-      <c r="B221" s="43" t="s">
+      <c r="B221" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="44"/>
+      <c r="C221" s="36"/>
       <c r="D221" s="10" t="s">
         <v>125</v>
       </c>
@@ -4551,27 +4874,27 @@
       <c r="J221" s="11"/>
     </row>
     <row r="222" spans="2:10">
-      <c r="B222" s="43" t="s">
+      <c r="B222" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="44"/>
-      <c r="D222" s="45"/>
-      <c r="E222" s="46"/>
-      <c r="F222" s="40" t="s">
+      <c r="C222" s="36"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G222" s="47"/>
-      <c r="H222" s="38" t="s">
+      <c r="G222" s="40"/>
+      <c r="H222" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="I222" s="41"/>
-      <c r="J222" s="39"/>
+      <c r="I222" s="42"/>
+      <c r="J222" s="43"/>
     </row>
     <row r="223" spans="2:10">
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="42" t="s">
+      <c r="C223" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -4585,8 +4908,8 @@
       <c r="J223" s="3"/>
     </row>
     <row r="224" spans="2:10">
-      <c r="B224" s="34"/>
-      <c r="C224" s="42"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="48"/>
       <c r="D224" s="6" t="s">
         <v>133</v>
       </c>
@@ -4598,8 +4921,8 @@
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="2:10">
-      <c r="B225" s="34"/>
-      <c r="C225" s="42"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="48"/>
       <c r="D225" s="6" t="s">
         <v>131</v>
       </c>
@@ -4611,8 +4934,8 @@
       <c r="J225" s="5"/>
     </row>
     <row r="226" spans="2:10">
-      <c r="B226" s="34"/>
-      <c r="C226" s="42"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="48"/>
       <c r="D226" s="6" t="s">
         <v>134</v>
       </c>
@@ -4624,8 +4947,8 @@
       <c r="J226" s="5"/>
     </row>
     <row r="227" spans="2:10">
-      <c r="B227" s="34"/>
-      <c r="C227" s="42"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="48"/>
       <c r="D227" s="7" t="s">
         <v>135</v>
       </c>
@@ -4637,7 +4960,7 @@
       <c r="J227" s="9"/>
     </row>
     <row r="228" spans="2:10">
-      <c r="B228" s="34"/>
+      <c r="B228" s="44"/>
       <c r="C228" s="15" t="s">
         <v>5</v>
       </c>
@@ -4650,46 +4973,46 @@
       <c r="J228" s="11"/>
     </row>
     <row r="229" spans="2:10">
-      <c r="B229" s="34"/>
+      <c r="B229" s="44"/>
       <c r="C229" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="38" t="s">
+      <c r="D229" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="39"/>
-      <c r="F229" s="37" t="s">
+      <c r="E229" s="43"/>
+      <c r="F229" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G229" s="40"/>
-      <c r="H229" s="38" t="s">
+      <c r="G229" s="39"/>
+      <c r="H229" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I229" s="41"/>
-      <c r="J229" s="39"/>
+      <c r="I229" s="42"/>
+      <c r="J229" s="43"/>
     </row>
     <row r="230" spans="2:10">
-      <c r="B230" s="34"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="42" t="s">
+      <c r="F230" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G230" s="42"/>
-      <c r="H230" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I230" s="41"/>
-      <c r="J230" s="39"/>
+      <c r="G230" s="48"/>
+      <c r="H230" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I230" s="42"/>
+      <c r="J230" s="43"/>
     </row>
     <row r="232" spans="2:10">
-      <c r="B232" s="43" t="s">
+      <c r="B232" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="44"/>
+      <c r="C232" s="36"/>
       <c r="D232" s="10" t="s">
         <v>125</v>
       </c>
@@ -4701,27 +5024,27 @@
       <c r="J232" s="11"/>
     </row>
     <row r="233" spans="2:10">
-      <c r="B233" s="43" t="s">
+      <c r="B233" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C233" s="44"/>
-      <c r="D233" s="45"/>
-      <c r="E233" s="46"/>
-      <c r="F233" s="40" t="s">
+      <c r="C233" s="36"/>
+      <c r="D233" s="37"/>
+      <c r="E233" s="38"/>
+      <c r="F233" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G233" s="47"/>
-      <c r="H233" s="38" t="s">
+      <c r="G233" s="40"/>
+      <c r="H233" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="I233" s="41"/>
-      <c r="J233" s="39"/>
+      <c r="I233" s="42"/>
+      <c r="J233" s="43"/>
     </row>
     <row r="234" spans="2:10">
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="42" t="s">
+      <c r="C234" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -4735,8 +5058,8 @@
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="2:10">
-      <c r="B235" s="34"/>
-      <c r="C235" s="42"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="48"/>
       <c r="D235" s="6" t="s">
         <v>138</v>
       </c>
@@ -4748,8 +5071,8 @@
       <c r="J235" s="5"/>
     </row>
     <row r="236" spans="2:10">
-      <c r="B236" s="34"/>
-      <c r="C236" s="42"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="48"/>
       <c r="D236" s="6" t="s">
         <v>139</v>
       </c>
@@ -4761,8 +5084,8 @@
       <c r="J236" s="5"/>
     </row>
     <row r="237" spans="2:10">
-      <c r="B237" s="34"/>
-      <c r="C237" s="42"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="48"/>
       <c r="D237" s="6" t="s">
         <v>140</v>
       </c>
@@ -4774,7 +5097,7 @@
       <c r="J237" s="5"/>
     </row>
     <row r="238" spans="2:10">
-      <c r="B238" s="34"/>
+      <c r="B238" s="44"/>
       <c r="C238" s="15" t="s">
         <v>5</v>
       </c>
@@ -4787,46 +5110,46 @@
       <c r="J238" s="11"/>
     </row>
     <row r="239" spans="2:10">
-      <c r="B239" s="34"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="38" t="s">
+      <c r="D239" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="39"/>
-      <c r="F239" s="37" t="s">
+      <c r="E239" s="43"/>
+      <c r="F239" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G239" s="40"/>
-      <c r="H239" s="38" t="s">
+      <c r="G239" s="39"/>
+      <c r="H239" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I239" s="41"/>
-      <c r="J239" s="39"/>
+      <c r="I239" s="42"/>
+      <c r="J239" s="43"/>
     </row>
     <row r="240" spans="2:10">
-      <c r="B240" s="34"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="42" t="s">
+      <c r="F240" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G240" s="42"/>
-      <c r="H240" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I240" s="41"/>
-      <c r="J240" s="39"/>
+      <c r="G240" s="48"/>
+      <c r="H240" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I240" s="42"/>
+      <c r="J240" s="43"/>
     </row>
     <row r="242" spans="2:10">
-      <c r="B242" s="43" t="s">
+      <c r="B242" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="44"/>
+      <c r="C242" s="36"/>
       <c r="D242" s="10" t="s">
         <v>125</v>
       </c>
@@ -4838,27 +5161,27 @@
       <c r="J242" s="11"/>
     </row>
     <row r="243" spans="2:10">
-      <c r="B243" s="43" t="s">
+      <c r="B243" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C243" s="44"/>
-      <c r="D243" s="45"/>
-      <c r="E243" s="46"/>
-      <c r="F243" s="40" t="s">
+      <c r="C243" s="36"/>
+      <c r="D243" s="37"/>
+      <c r="E243" s="38"/>
+      <c r="F243" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G243" s="47"/>
-      <c r="H243" s="38" t="s">
+      <c r="G243" s="40"/>
+      <c r="H243" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="I243" s="41"/>
-      <c r="J243" s="39"/>
+      <c r="I243" s="42"/>
+      <c r="J243" s="43"/>
     </row>
     <row r="244" spans="2:10">
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="42" t="s">
+      <c r="C244" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -4872,8 +5195,8 @@
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="2:10">
-      <c r="B245" s="34"/>
-      <c r="C245" s="42"/>
+      <c r="B245" s="44"/>
+      <c r="C245" s="48"/>
       <c r="D245" s="6" t="s">
         <v>143</v>
       </c>
@@ -4885,8 +5208,8 @@
       <c r="J245" s="5"/>
     </row>
     <row r="246" spans="2:10">
-      <c r="B246" s="34"/>
-      <c r="C246" s="42"/>
+      <c r="B246" s="44"/>
+      <c r="C246" s="48"/>
       <c r="D246" s="6" t="s">
         <v>144</v>
       </c>
@@ -4898,8 +5221,8 @@
       <c r="J246" s="5"/>
     </row>
     <row r="247" spans="2:10">
-      <c r="B247" s="34"/>
-      <c r="C247" s="42"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="48"/>
       <c r="D247" s="6" t="s">
         <v>151</v>
       </c>
@@ -4911,7 +5234,7 @@
       <c r="J247" s="5"/>
     </row>
     <row r="248" spans="2:10">
-      <c r="B248" s="34"/>
+      <c r="B248" s="44"/>
       <c r="C248" s="15" t="s">
         <v>5</v>
       </c>
@@ -4924,46 +5247,46 @@
       <c r="J248" s="11"/>
     </row>
     <row r="249" spans="2:10">
-      <c r="B249" s="34"/>
+      <c r="B249" s="44"/>
       <c r="C249" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D249" s="38" t="s">
+      <c r="D249" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E249" s="39"/>
-      <c r="F249" s="37" t="s">
+      <c r="E249" s="43"/>
+      <c r="F249" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G249" s="40"/>
-      <c r="H249" s="38" t="s">
+      <c r="G249" s="39"/>
+      <c r="H249" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I249" s="41"/>
-      <c r="J249" s="39"/>
+      <c r="I249" s="42"/>
+      <c r="J249" s="43"/>
     </row>
     <row r="250" spans="2:10">
-      <c r="B250" s="34"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="42" t="s">
+      <c r="F250" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G250" s="42"/>
-      <c r="H250" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I250" s="41"/>
-      <c r="J250" s="39"/>
+      <c r="G250" s="48"/>
+      <c r="H250" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I250" s="42"/>
+      <c r="J250" s="43"/>
     </row>
     <row r="252" spans="2:10">
-      <c r="B252" s="43" t="s">
+      <c r="B252" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C252" s="44"/>
+      <c r="C252" s="36"/>
       <c r="D252" s="10" t="s">
         <v>125</v>
       </c>
@@ -4975,27 +5298,27 @@
       <c r="J252" s="11"/>
     </row>
     <row r="253" spans="2:10">
-      <c r="B253" s="43" t="s">
+      <c r="B253" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C253" s="44"/>
-      <c r="D253" s="45"/>
-      <c r="E253" s="46"/>
-      <c r="F253" s="40" t="s">
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G253" s="47"/>
-      <c r="H253" s="38" t="s">
+      <c r="G253" s="40"/>
+      <c r="H253" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="I253" s="41"/>
-      <c r="J253" s="39"/>
+      <c r="I253" s="42"/>
+      <c r="J253" s="43"/>
     </row>
     <row r="254" spans="2:10">
-      <c r="B254" s="34" t="s">
+      <c r="B254" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C254" s="42" t="s">
+      <c r="C254" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -5009,8 +5332,8 @@
       <c r="J254" s="3"/>
     </row>
     <row r="255" spans="2:10">
-      <c r="B255" s="34"/>
-      <c r="C255" s="42"/>
+      <c r="B255" s="44"/>
+      <c r="C255" s="48"/>
       <c r="D255" s="6" t="s">
         <v>146</v>
       </c>
@@ -5022,8 +5345,8 @@
       <c r="J255" s="5"/>
     </row>
     <row r="256" spans="2:10">
-      <c r="B256" s="34"/>
-      <c r="C256" s="42"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="48"/>
       <c r="D256" s="6" t="s">
         <v>148</v>
       </c>
@@ -5035,8 +5358,8 @@
       <c r="J256" s="5"/>
     </row>
     <row r="257" spans="2:10">
-      <c r="B257" s="34"/>
-      <c r="C257" s="42"/>
+      <c r="B257" s="44"/>
+      <c r="C257" s="48"/>
       <c r="D257" s="6" t="s">
         <v>149</v>
       </c>
@@ -5048,8 +5371,8 @@
       <c r="J257" s="5"/>
     </row>
     <row r="258" spans="2:10">
-      <c r="B258" s="34"/>
-      <c r="C258" s="42"/>
+      <c r="B258" s="44"/>
+      <c r="C258" s="48"/>
       <c r="D258" s="7" t="s">
         <v>150</v>
       </c>
@@ -5061,7 +5384,7 @@
       <c r="J258" s="9"/>
     </row>
     <row r="259" spans="2:10">
-      <c r="B259" s="34"/>
+      <c r="B259" s="44"/>
       <c r="C259" s="15" t="s">
         <v>5</v>
       </c>
@@ -5074,46 +5397,46 @@
       <c r="J259" s="11"/>
     </row>
     <row r="260" spans="2:10">
-      <c r="B260" s="34"/>
+      <c r="B260" s="44"/>
       <c r="C260" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D260" s="38" t="s">
+      <c r="D260" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E260" s="39"/>
-      <c r="F260" s="37" t="s">
+      <c r="E260" s="43"/>
+      <c r="F260" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G260" s="40"/>
-      <c r="H260" s="38" t="s">
+      <c r="G260" s="39"/>
+      <c r="H260" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I260" s="41"/>
-      <c r="J260" s="39"/>
+      <c r="I260" s="42"/>
+      <c r="J260" s="43"/>
     </row>
     <row r="261" spans="2:10">
-      <c r="B261" s="34"/>
+      <c r="B261" s="44"/>
       <c r="C261" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="7"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="42" t="s">
+      <c r="F261" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G261" s="42"/>
-      <c r="H261" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I261" s="41"/>
-      <c r="J261" s="39"/>
+      <c r="G261" s="48"/>
+      <c r="H261" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I261" s="42"/>
+      <c r="J261" s="43"/>
     </row>
     <row r="263" spans="2:10">
-      <c r="B263" s="43" t="s">
+      <c r="B263" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C263" s="44"/>
+      <c r="C263" s="36"/>
       <c r="D263" s="10" t="s">
         <v>125</v>
       </c>
@@ -5125,27 +5448,27 @@
       <c r="J263" s="11"/>
     </row>
     <row r="264" spans="2:10">
-      <c r="B264" s="43" t="s">
+      <c r="B264" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="44"/>
-      <c r="D264" s="45"/>
-      <c r="E264" s="46"/>
-      <c r="F264" s="40" t="s">
+      <c r="C264" s="36"/>
+      <c r="D264" s="37"/>
+      <c r="E264" s="38"/>
+      <c r="F264" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G264" s="47"/>
-      <c r="H264" s="38" t="s">
+      <c r="G264" s="40"/>
+      <c r="H264" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="I264" s="41"/>
-      <c r="J264" s="39"/>
+      <c r="I264" s="42"/>
+      <c r="J264" s="43"/>
     </row>
     <row r="265" spans="2:10">
-      <c r="B265" s="34" t="s">
+      <c r="B265" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="42" t="s">
+      <c r="C265" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -5159,8 +5482,8 @@
       <c r="J265" s="3"/>
     </row>
     <row r="266" spans="2:10">
-      <c r="B266" s="34"/>
-      <c r="C266" s="42"/>
+      <c r="B266" s="44"/>
+      <c r="C266" s="48"/>
       <c r="D266" s="6" t="s">
         <v>153</v>
       </c>
@@ -5172,8 +5495,8 @@
       <c r="J266" s="5"/>
     </row>
     <row r="267" spans="2:10">
-      <c r="B267" s="34"/>
-      <c r="C267" s="42"/>
+      <c r="B267" s="44"/>
+      <c r="C267" s="48"/>
       <c r="D267" s="6" t="s">
         <v>155</v>
       </c>
@@ -5185,8 +5508,8 @@
       <c r="J267" s="5"/>
     </row>
     <row r="268" spans="2:10">
-      <c r="B268" s="34"/>
-      <c r="C268" s="42"/>
+      <c r="B268" s="44"/>
+      <c r="C268" s="48"/>
       <c r="D268" s="6" t="s">
         <v>156</v>
       </c>
@@ -5198,7 +5521,7 @@
       <c r="J268" s="5"/>
     </row>
     <row r="269" spans="2:10">
-      <c r="B269" s="34"/>
+      <c r="B269" s="44"/>
       <c r="C269" s="15" t="s">
         <v>5</v>
       </c>
@@ -5211,46 +5534,46 @@
       <c r="J269" s="11"/>
     </row>
     <row r="270" spans="2:10">
-      <c r="B270" s="34"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D270" s="38" t="s">
+      <c r="D270" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E270" s="39"/>
-      <c r="F270" s="37" t="s">
+      <c r="E270" s="43"/>
+      <c r="F270" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G270" s="40"/>
-      <c r="H270" s="38" t="s">
+      <c r="G270" s="39"/>
+      <c r="H270" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I270" s="41"/>
-      <c r="J270" s="39"/>
+      <c r="I270" s="42"/>
+      <c r="J270" s="43"/>
     </row>
     <row r="271" spans="2:10">
-      <c r="B271" s="34"/>
+      <c r="B271" s="44"/>
       <c r="C271" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="42" t="s">
+      <c r="F271" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G271" s="42"/>
-      <c r="H271" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I271" s="41"/>
-      <c r="J271" s="39"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I271" s="42"/>
+      <c r="J271" s="43"/>
     </row>
     <row r="273" spans="2:10">
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C273" s="44"/>
+      <c r="C273" s="36"/>
       <c r="D273" s="10" t="s">
         <v>157</v>
       </c>
@@ -5262,27 +5585,27 @@
       <c r="J273" s="11"/>
     </row>
     <row r="274" spans="2:10">
-      <c r="B274" s="43" t="s">
+      <c r="B274" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C274" s="44"/>
-      <c r="D274" s="45"/>
-      <c r="E274" s="46"/>
-      <c r="F274" s="40" t="s">
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
+      <c r="E274" s="38"/>
+      <c r="F274" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G274" s="47"/>
-      <c r="H274" s="38" t="s">
+      <c r="G274" s="40"/>
+      <c r="H274" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="I274" s="41"/>
-      <c r="J274" s="39"/>
+      <c r="I274" s="42"/>
+      <c r="J274" s="43"/>
     </row>
     <row r="275" spans="2:10">
-      <c r="B275" s="34" t="s">
+      <c r="B275" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C275" s="42" t="s">
+      <c r="C275" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -5296,8 +5619,8 @@
       <c r="J275" s="3"/>
     </row>
     <row r="276" spans="2:10">
-      <c r="B276" s="34"/>
-      <c r="C276" s="42"/>
+      <c r="B276" s="44"/>
+      <c r="C276" s="48"/>
       <c r="D276" s="6" t="s">
         <v>161</v>
       </c>
@@ -5309,8 +5632,8 @@
       <c r="J276" s="5"/>
     </row>
     <row r="277" spans="2:10">
-      <c r="B277" s="34"/>
-      <c r="C277" s="42"/>
+      <c r="B277" s="44"/>
+      <c r="C277" s="48"/>
       <c r="D277" s="6" t="s">
         <v>159</v>
       </c>
@@ -5322,8 +5645,8 @@
       <c r="J277" s="5"/>
     </row>
     <row r="278" spans="2:10">
-      <c r="B278" s="34"/>
-      <c r="C278" s="42"/>
+      <c r="B278" s="44"/>
+      <c r="C278" s="48"/>
       <c r="D278" s="6" t="s">
         <v>160</v>
       </c>
@@ -5335,8 +5658,8 @@
       <c r="J278" s="5"/>
     </row>
     <row r="279" spans="2:10">
-      <c r="B279" s="34"/>
-      <c r="C279" s="42"/>
+      <c r="B279" s="44"/>
+      <c r="C279" s="48"/>
       <c r="D279" s="7" t="s">
         <v>166</v>
       </c>
@@ -5348,7 +5671,7 @@
       <c r="J279" s="9"/>
     </row>
     <row r="280" spans="2:10">
-      <c r="B280" s="34"/>
+      <c r="B280" s="44"/>
       <c r="C280" s="15" t="s">
         <v>5</v>
       </c>
@@ -5361,46 +5684,46 @@
       <c r="J280" s="11"/>
     </row>
     <row r="281" spans="2:10">
-      <c r="B281" s="34"/>
+      <c r="B281" s="44"/>
       <c r="C281" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D281" s="38" t="s">
+      <c r="D281" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E281" s="39"/>
-      <c r="F281" s="37" t="s">
+      <c r="E281" s="43"/>
+      <c r="F281" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G281" s="40"/>
-      <c r="H281" s="38" t="s">
+      <c r="G281" s="39"/>
+      <c r="H281" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I281" s="41"/>
-      <c r="J281" s="39"/>
+      <c r="I281" s="42"/>
+      <c r="J281" s="43"/>
     </row>
     <row r="282" spans="2:10">
-      <c r="B282" s="34"/>
+      <c r="B282" s="44"/>
       <c r="C282" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="42" t="s">
+      <c r="F282" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G282" s="42"/>
-      <c r="H282" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I282" s="41"/>
-      <c r="J282" s="39"/>
+      <c r="G282" s="48"/>
+      <c r="H282" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I282" s="42"/>
+      <c r="J282" s="43"/>
     </row>
     <row r="284" spans="2:10">
-      <c r="B284" s="43" t="s">
+      <c r="B284" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C284" s="44"/>
+      <c r="C284" s="36"/>
       <c r="D284" s="10" t="s">
         <v>162</v>
       </c>
@@ -5412,27 +5735,27 @@
       <c r="J284" s="11"/>
     </row>
     <row r="285" spans="2:10">
-      <c r="B285" s="43" t="s">
+      <c r="B285" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C285" s="44"/>
-      <c r="D285" s="45"/>
-      <c r="E285" s="46"/>
-      <c r="F285" s="40" t="s">
+      <c r="C285" s="36"/>
+      <c r="D285" s="37"/>
+      <c r="E285" s="38"/>
+      <c r="F285" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G285" s="47"/>
-      <c r="H285" s="38" t="s">
+      <c r="G285" s="40"/>
+      <c r="H285" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="I285" s="41"/>
-      <c r="J285" s="39"/>
+      <c r="I285" s="42"/>
+      <c r="J285" s="43"/>
     </row>
     <row r="286" spans="2:10">
-      <c r="B286" s="34" t="s">
+      <c r="B286" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C286" s="42" t="s">
+      <c r="C286" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -5446,8 +5769,8 @@
       <c r="J286" s="3"/>
     </row>
     <row r="287" spans="2:10">
-      <c r="B287" s="34"/>
-      <c r="C287" s="42"/>
+      <c r="B287" s="44"/>
+      <c r="C287" s="48"/>
       <c r="D287" s="6" t="s">
         <v>167</v>
       </c>
@@ -5459,7 +5782,7 @@
       <c r="J287" s="5"/>
     </row>
     <row r="288" spans="2:10">
-      <c r="B288" s="34"/>
+      <c r="B288" s="44"/>
       <c r="C288" s="15" t="s">
         <v>5</v>
       </c>
@@ -5472,46 +5795,46 @@
       <c r="J288" s="11"/>
     </row>
     <row r="289" spans="2:10">
-      <c r="B289" s="34"/>
+      <c r="B289" s="44"/>
       <c r="C289" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="38" t="s">
+      <c r="D289" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E289" s="39"/>
-      <c r="F289" s="37" t="s">
+      <c r="E289" s="43"/>
+      <c r="F289" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G289" s="40"/>
-      <c r="H289" s="38" t="s">
+      <c r="G289" s="39"/>
+      <c r="H289" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I289" s="41"/>
-      <c r="J289" s="39"/>
+      <c r="I289" s="42"/>
+      <c r="J289" s="43"/>
     </row>
     <row r="290" spans="2:10">
-      <c r="B290" s="34"/>
+      <c r="B290" s="44"/>
       <c r="C290" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="42" t="s">
+      <c r="F290" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G290" s="42"/>
-      <c r="H290" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I290" s="41"/>
-      <c r="J290" s="39"/>
+      <c r="G290" s="48"/>
+      <c r="H290" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I290" s="42"/>
+      <c r="J290" s="43"/>
     </row>
     <row r="292" spans="2:10">
-      <c r="B292" s="43" t="s">
+      <c r="B292" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C292" s="44"/>
+      <c r="C292" s="36"/>
       <c r="D292" s="10" t="s">
         <v>162</v>
       </c>
@@ -5523,27 +5846,27 @@
       <c r="J292" s="11"/>
     </row>
     <row r="293" spans="2:10">
-      <c r="B293" s="43" t="s">
+      <c r="B293" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C293" s="44"/>
-      <c r="D293" s="45"/>
-      <c r="E293" s="46"/>
-      <c r="F293" s="40" t="s">
+      <c r="C293" s="36"/>
+      <c r="D293" s="37"/>
+      <c r="E293" s="38"/>
+      <c r="F293" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G293" s="47"/>
-      <c r="H293" s="38" t="s">
+      <c r="G293" s="40"/>
+      <c r="H293" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I293" s="41"/>
-      <c r="J293" s="39"/>
+      <c r="I293" s="42"/>
+      <c r="J293" s="43"/>
     </row>
     <row r="294" spans="2:10">
-      <c r="B294" s="34" t="s">
+      <c r="B294" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="42" t="s">
+      <c r="C294" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="1" t="s">
@@ -5557,8 +5880,8 @@
       <c r="J294" s="3"/>
     </row>
     <row r="295" spans="2:10">
-      <c r="B295" s="34"/>
-      <c r="C295" s="42"/>
+      <c r="B295" s="44"/>
+      <c r="C295" s="48"/>
       <c r="D295" s="6" t="s">
         <v>170</v>
       </c>
@@ -5570,8 +5893,8 @@
       <c r="J295" s="5"/>
     </row>
     <row r="296" spans="2:10">
-      <c r="B296" s="34"/>
-      <c r="C296" s="42"/>
+      <c r="B296" s="44"/>
+      <c r="C296" s="48"/>
       <c r="D296" s="6" t="s">
         <v>171</v>
       </c>
@@ -5583,8 +5906,8 @@
       <c r="J296" s="5"/>
     </row>
     <row r="297" spans="2:10">
-      <c r="B297" s="34"/>
-      <c r="C297" s="42"/>
+      <c r="B297" s="44"/>
+      <c r="C297" s="48"/>
       <c r="D297" s="6" t="s">
         <v>172</v>
       </c>
@@ -5596,7 +5919,7 @@
       <c r="J297" s="5"/>
     </row>
     <row r="298" spans="2:10">
-      <c r="B298" s="34"/>
+      <c r="B298" s="44"/>
       <c r="C298" s="15" t="s">
         <v>5</v>
       </c>
@@ -5609,47 +5932,47 @@
       <c r="J298" s="11"/>
     </row>
     <row r="299" spans="2:10">
-      <c r="B299" s="34"/>
+      <c r="B299" s="44"/>
       <c r="C299" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D299" s="38" t="s">
+      <c r="D299" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E299" s="39"/>
-      <c r="F299" s="37" t="s">
+      <c r="E299" s="43"/>
+      <c r="F299" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G299" s="40"/>
-      <c r="H299" s="38" t="s">
+      <c r="G299" s="39"/>
+      <c r="H299" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I299" s="41"/>
-      <c r="J299" s="39"/>
+      <c r="I299" s="42"/>
+      <c r="J299" s="43"/>
     </row>
     <row r="300" spans="2:10">
-      <c r="B300" s="34"/>
+      <c r="B300" s="44"/>
       <c r="C300" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="42" t="s">
+      <c r="F300" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G300" s="42"/>
-      <c r="H300" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I300" s="41"/>
-      <c r="J300" s="39"/>
+      <c r="G300" s="48"/>
+      <c r="H300" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I300" s="42"/>
+      <c r="J300" s="43"/>
     </row>
     <row r="302" spans="2:10">
-      <c r="B302" s="43" t="s">
+      <c r="B302" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C302" s="44"/>
-      <c r="D302" s="63" t="s">
+      <c r="C302" s="36"/>
+      <c r="D302" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E302" s="13"/>
@@ -5660,27 +5983,27 @@
       <c r="J302" s="11"/>
     </row>
     <row r="303" spans="2:10">
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="44"/>
-      <c r="D303" s="45"/>
-      <c r="E303" s="46"/>
-      <c r="F303" s="40" t="s">
+      <c r="C303" s="36"/>
+      <c r="D303" s="37"/>
+      <c r="E303" s="38"/>
+      <c r="F303" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G303" s="47"/>
-      <c r="H303" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="I303" s="41"/>
-      <c r="J303" s="39"/>
+      <c r="G303" s="40"/>
+      <c r="H303" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I303" s="42"/>
+      <c r="J303" s="43"/>
     </row>
     <row r="304" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B304" s="34" t="s">
+      <c r="B304" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C304" s="35" t="s">
+      <c r="C304" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D304" s="1" t="s">
@@ -5694,48 +6017,48 @@
       <c r="J304" s="3"/>
     </row>
     <row r="305" spans="2:10">
-      <c r="B305" s="34"/>
-      <c r="C305" s="36"/>
+      <c r="B305" s="44"/>
+      <c r="C305" s="46"/>
       <c r="D305" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J305" s="5"/>
     </row>
     <row r="306" spans="2:10">
-      <c r="B306" s="34"/>
-      <c r="C306" s="36"/>
+      <c r="B306" s="44"/>
+      <c r="C306" s="46"/>
       <c r="D306" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="2:10">
+      <c r="B307" s="44"/>
+      <c r="C307" s="46"/>
+      <c r="D307" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J306" s="5"/>
-    </row>
-    <row r="307" spans="2:10">
-      <c r="B307" s="34"/>
-      <c r="C307" s="36"/>
-      <c r="D307" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="J307" s="5"/>
     </row>
     <row r="308" spans="2:10">
-      <c r="B308" s="34"/>
-      <c r="C308" s="36"/>
+      <c r="B308" s="44"/>
+      <c r="C308" s="46"/>
       <c r="D308" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J308" s="5"/>
     </row>
     <row r="309" spans="2:10">
-      <c r="B309" s="34"/>
-      <c r="C309" s="36"/>
+      <c r="B309" s="44"/>
+      <c r="C309" s="46"/>
       <c r="D309" s="6" t="s">
         <v>174</v>
       </c>
       <c r="J309" s="5"/>
     </row>
     <row r="310" spans="2:10">
-      <c r="B310" s="34"/>
-      <c r="C310" s="31" t="s">
+      <c r="B310" s="44"/>
+      <c r="C310" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="10"/>
@@ -5747,46 +6070,46 @@
       <c r="J310" s="11"/>
     </row>
     <row r="311" spans="2:10">
-      <c r="B311" s="34"/>
+      <c r="B311" s="44"/>
       <c r="C311" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D311" s="38" t="s">
+      <c r="D311" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E311" s="39"/>
-      <c r="F311" s="37" t="s">
+      <c r="E311" s="43"/>
+      <c r="F311" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G311" s="40"/>
-      <c r="H311" s="38" t="s">
+      <c r="G311" s="39"/>
+      <c r="H311" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I311" s="41"/>
-      <c r="J311" s="39"/>
+      <c r="I311" s="42"/>
+      <c r="J311" s="43"/>
     </row>
     <row r="312" spans="2:10">
-      <c r="B312" s="34"/>
+      <c r="B312" s="44"/>
       <c r="C312" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="42" t="s">
+      <c r="F312" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G312" s="42"/>
-      <c r="H312" s="38" t="s">
+      <c r="G312" s="48"/>
+      <c r="H312" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I312" s="41"/>
-      <c r="J312" s="39"/>
+      <c r="I312" s="42"/>
+      <c r="J312" s="43"/>
     </row>
     <row r="314" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B314" s="43" t="s">
+      <c r="B314" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="44"/>
+      <c r="C314" s="36"/>
       <c r="D314" s="10" t="s">
         <v>28</v>
       </c>
@@ -5798,31 +6121,31 @@
       <c r="J314" s="11"/>
     </row>
     <row r="315" spans="2:10">
-      <c r="B315" s="43" t="s">
+      <c r="B315" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C315" s="44"/>
-      <c r="D315" s="45"/>
-      <c r="E315" s="46"/>
-      <c r="F315" s="40" t="s">
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
+      <c r="E315" s="38"/>
+      <c r="F315" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G315" s="47"/>
-      <c r="H315" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I315" s="41"/>
-      <c r="J315" s="39"/>
+      <c r="G315" s="40"/>
+      <c r="H315" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I315" s="42"/>
+      <c r="J315" s="43"/>
     </row>
     <row r="316" spans="2:10">
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C316" s="35" t="s">
+      <c r="C316" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -5832,32 +6155,32 @@
       <c r="J316" s="3"/>
     </row>
     <row r="317" spans="2:10">
-      <c r="B317" s="34"/>
-      <c r="C317" s="36"/>
+      <c r="B317" s="44"/>
+      <c r="C317" s="46"/>
       <c r="D317" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="2:10">
+      <c r="B318" s="44"/>
+      <c r="C318" s="46"/>
+      <c r="D318" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J317" s="5"/>
-    </row>
-    <row r="318" spans="2:10">
-      <c r="B318" s="34"/>
-      <c r="C318" s="36"/>
-      <c r="D318" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="J318" s="5"/>
     </row>
     <row r="319" spans="2:10">
-      <c r="B319" s="34"/>
-      <c r="C319" s="32"/>
+      <c r="B319" s="44"/>
+      <c r="C319" s="30"/>
       <c r="D319" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J319" s="5"/>
     </row>
     <row r="320" spans="2:10">
-      <c r="B320" s="34"/>
-      <c r="C320" s="27" t="s">
+      <c r="B320" s="44"/>
+      <c r="C320" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D320" s="10"/>
@@ -5869,46 +6192,46 @@
       <c r="J320" s="11"/>
     </row>
     <row r="321" spans="2:10">
-      <c r="B321" s="34"/>
+      <c r="B321" s="44"/>
       <c r="C321" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D321" s="38" t="s">
+      <c r="D321" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E321" s="39"/>
-      <c r="F321" s="37" t="s">
+      <c r="E321" s="43"/>
+      <c r="F321" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G321" s="40"/>
-      <c r="H321" s="38" t="s">
+      <c r="G321" s="39"/>
+      <c r="H321" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I321" s="41"/>
-      <c r="J321" s="39"/>
+      <c r="I321" s="42"/>
+      <c r="J321" s="43"/>
     </row>
     <row r="322" spans="2:10">
-      <c r="B322" s="34"/>
+      <c r="B322" s="44"/>
       <c r="C322" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="42" t="s">
+      <c r="F322" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G322" s="42"/>
-      <c r="H322" s="38" t="s">
+      <c r="G322" s="48"/>
+      <c r="H322" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I322" s="41"/>
-      <c r="J322" s="39"/>
+      <c r="I322" s="42"/>
+      <c r="J322" s="43"/>
     </row>
     <row r="324" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B324" s="43" t="s">
+      <c r="B324" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="44"/>
+      <c r="C324" s="36"/>
       <c r="D324" s="10" t="s">
         <v>28</v>
       </c>
@@ -5920,31 +6243,31 @@
       <c r="J324" s="11"/>
     </row>
     <row r="325" spans="2:10">
-      <c r="B325" s="43" t="s">
+      <c r="B325" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C325" s="44"/>
-      <c r="D325" s="45"/>
-      <c r="E325" s="46"/>
-      <c r="F325" s="40" t="s">
+      <c r="C325" s="36"/>
+      <c r="D325" s="37"/>
+      <c r="E325" s="38"/>
+      <c r="F325" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="47"/>
-      <c r="H325" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I325" s="41"/>
-      <c r="J325" s="39"/>
+      <c r="G325" s="40"/>
+      <c r="H325" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I325" s="42"/>
+      <c r="J325" s="43"/>
     </row>
     <row r="326" spans="2:10">
-      <c r="B326" s="34" t="s">
+      <c r="B326" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C326" s="35" t="s">
+      <c r="C326" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -5954,9 +6277,11 @@
       <c r="J326" s="3"/>
     </row>
     <row r="327" spans="2:10">
-      <c r="B327" s="34"/>
-      <c r="C327" s="36"/>
-      <c r="D327" s="6"/>
+      <c r="B327" s="44"/>
+      <c r="C327" s="46"/>
+      <c r="D327" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -5965,559 +6290,576 @@
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="2:10">
-      <c r="B328" s="34"/>
-      <c r="C328" s="36"/>
+      <c r="B328" s="44"/>
+      <c r="C328" s="46"/>
       <c r="D328" s="6" t="s">
-        <v>181</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+      <c r="I328" s="4"/>
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="2:10">
-      <c r="B329" s="34"/>
-      <c r="C329" s="30" t="s">
+      <c r="B329" s="44"/>
+      <c r="C329" s="46"/>
+      <c r="D329" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="2:10">
+      <c r="B330" s="44"/>
+      <c r="C330" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D329" s="10"/>
-      <c r="E329" s="13"/>
-      <c r="F329" s="13"/>
-      <c r="G329" s="13"/>
-      <c r="H329" s="13"/>
-      <c r="I329" s="13"/>
-      <c r="J329" s="11"/>
-    </row>
-    <row r="330" spans="2:10">
-      <c r="B330" s="34"/>
-      <c r="C330" s="31" t="s">
+      <c r="D330" s="10"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="13"/>
+      <c r="I330" s="13"/>
+      <c r="J330" s="11"/>
+    </row>
+    <row r="331" spans="2:10">
+      <c r="B331" s="44"/>
+      <c r="C331" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D330" s="38" t="s">
+      <c r="D331" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E330" s="39"/>
-      <c r="F330" s="37" t="s">
+      <c r="E331" s="43"/>
+      <c r="F331" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G330" s="40"/>
-      <c r="H330" s="38" t="s">
+      <c r="G331" s="39"/>
+      <c r="H331" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I330" s="41"/>
-      <c r="J330" s="39"/>
-    </row>
-    <row r="331" spans="2:10">
-      <c r="B331" s="34"/>
-      <c r="C331" s="31" t="s">
+      <c r="I331" s="42"/>
+      <c r="J331" s="43"/>
+    </row>
+    <row r="332" spans="2:10">
+      <c r="B332" s="44"/>
+      <c r="C332" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D331" s="7"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="42" t="s">
+      <c r="D332" s="7"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G331" s="42"/>
-      <c r="H331" s="38" t="s">
+      <c r="G332" s="48"/>
+      <c r="H332" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I331" s="41"/>
-      <c r="J331" s="39"/>
-    </row>
-    <row r="333" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B333" s="43" t="s">
+      <c r="I332" s="42"/>
+      <c r="J332" s="43"/>
+    </row>
+    <row r="334" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B334" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C333" s="44"/>
-      <c r="D333" s="10" t="s">
+      <c r="C334" s="36"/>
+      <c r="D334" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
-      <c r="H333" s="13"/>
-      <c r="I333" s="13"/>
-      <c r="J333" s="11"/>
-    </row>
-    <row r="334" spans="2:10">
-      <c r="B334" s="43" t="s">
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="13"/>
+      <c r="J334" s="11"/>
+    </row>
+    <row r="335" spans="2:10">
+      <c r="B335" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C334" s="44"/>
-      <c r="D334" s="45"/>
-      <c r="E334" s="46"/>
-      <c r="F334" s="40" t="s">
+      <c r="C335" s="36"/>
+      <c r="D335" s="37"/>
+      <c r="E335" s="38"/>
+      <c r="F335" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G334" s="47"/>
-      <c r="H334" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="I334" s="41"/>
-      <c r="J334" s="39"/>
-    </row>
-    <row r="335" spans="2:10">
-      <c r="B335" s="34" t="s">
+      <c r="G335" s="40"/>
+      <c r="H335" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I335" s="42"/>
+      <c r="J335" s="43"/>
+    </row>
+    <row r="336" spans="2:10">
+      <c r="B336" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C335" s="35" t="s">
+      <c r="C336" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E335" s="2"/>
-      <c r="F335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-      <c r="J335" s="3"/>
-    </row>
-    <row r="336" spans="2:10">
-      <c r="B336" s="34"/>
-      <c r="C336" s="36"/>
-      <c r="D336" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J336" s="5"/>
-    </row>
-    <row r="337" spans="2:10">
-      <c r="B337" s="34"/>
-      <c r="C337" s="36"/>
-      <c r="D337" s="6">
+      <c r="D336" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+      <c r="J336" s="3"/>
+    </row>
+    <row r="337" spans="1:11">
+      <c r="B337" s="44"/>
+      <c r="C337" s="46"/>
+      <c r="D337" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="1:11">
+      <c r="B338" s="44"/>
+      <c r="C338" s="46"/>
+      <c r="D338" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="1:11">
+      <c r="B339" s="44"/>
+      <c r="C339" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" s="10"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
+      <c r="J339" s="11"/>
+    </row>
+    <row r="340" spans="1:11">
+      <c r="B340" s="44"/>
+      <c r="C340" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="43"/>
+      <c r="F340" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" s="39"/>
+      <c r="H340" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I340" s="42"/>
+      <c r="J340" s="43"/>
+    </row>
+    <row r="341" spans="1:11">
+      <c r="B341" s="44"/>
+      <c r="C341" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="7"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" s="48"/>
+      <c r="H341" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I341" s="42"/>
+      <c r="J341" s="43"/>
+    </row>
+    <row r="342" spans="1:11" s="21" customFormat="1">
+      <c r="A342" s="22"/>
+      <c r="B342" s="24"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="18"/>
+      <c r="F342" s="19"/>
+      <c r="G342" s="19"/>
+      <c r="H342" s="34"/>
+      <c r="I342" s="34"/>
+      <c r="J342" s="34"/>
+      <c r="K342" s="22"/>
+    </row>
+    <row r="343" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B343" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="36"/>
+      <c r="D343" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="13"/>
+      <c r="J343" s="11"/>
+    </row>
+    <row r="344" spans="1:11">
+      <c r="B344" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="36"/>
+      <c r="D344" s="37"/>
+      <c r="E344" s="38"/>
+      <c r="F344" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G344" s="40"/>
+      <c r="H344" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="I344" s="42"/>
+      <c r="J344" s="43"/>
+    </row>
+    <row r="345" spans="1:11">
+      <c r="B345" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J337" s="5"/>
-    </row>
-    <row r="338" spans="2:10">
-      <c r="B338" s="34"/>
-      <c r="C338" s="36"/>
-      <c r="D338" s="6">
+      <c r="C345" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J338" s="5"/>
-    </row>
-    <row r="339" spans="2:10">
-      <c r="B339" s="34"/>
-      <c r="C339" s="36"/>
-      <c r="D339" s="7">
+      <c r="D345" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="3"/>
+    </row>
+    <row r="346" spans="1:11">
+      <c r="B346" s="44"/>
+      <c r="C346" s="46"/>
+      <c r="D346" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="1:11">
+      <c r="B347" s="44"/>
+      <c r="C347" s="46"/>
+      <c r="D347" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="1:11">
+      <c r="B348" s="44"/>
+      <c r="C348" s="46"/>
+      <c r="D348" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="1:11">
+      <c r="B349" s="44"/>
+      <c r="C349" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E339" s="8"/>
-      <c r="F339" s="8"/>
-      <c r="G339" s="8"/>
-      <c r="H339" s="8"/>
-      <c r="I339" s="8"/>
-      <c r="J339" s="9"/>
-    </row>
-    <row r="340" spans="2:10">
-      <c r="B340" s="34"/>
-      <c r="C340" s="30" t="s">
+      <c r="D349" s="10"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
+      <c r="H349" s="13"/>
+      <c r="I349" s="13"/>
+      <c r="J349" s="11"/>
+    </row>
+    <row r="350" spans="1:11">
+      <c r="B350" s="44"/>
+      <c r="C350" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="43"/>
+      <c r="F350" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G350" s="39"/>
+      <c r="H350" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I350" s="42"/>
+      <c r="J350" s="43"/>
+    </row>
+    <row r="351" spans="1:11">
+      <c r="B351" s="44"/>
+      <c r="C351" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="7"/>
+      <c r="E351" s="8"/>
+      <c r="F351" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G351" s="48"/>
+      <c r="H351" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I351" s="42"/>
+      <c r="J351" s="43"/>
+    </row>
+    <row r="353" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B353" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" s="36"/>
+      <c r="D353" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="J353" s="11"/>
+    </row>
+    <row r="354" spans="2:10">
+      <c r="B354" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354" s="36"/>
+      <c r="D354" s="37"/>
+      <c r="E354" s="38"/>
+      <c r="F354" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G354" s="40"/>
+      <c r="H354" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="I354" s="42"/>
+      <c r="J354" s="43"/>
+    </row>
+    <row r="355" spans="2:10">
+      <c r="B355" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+      <c r="J355" s="3"/>
+    </row>
+    <row r="356" spans="2:10">
+      <c r="B356" s="44"/>
+      <c r="C356" s="46"/>
+      <c r="D356" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="2:10">
+      <c r="B357" s="44"/>
+      <c r="C357" s="46"/>
+      <c r="D357" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J357" s="5"/>
+    </row>
+    <row r="358" spans="2:10">
+      <c r="B358" s="44"/>
+      <c r="C358" s="46"/>
+      <c r="D358" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J358" s="5"/>
+    </row>
+    <row r="359" spans="2:10">
+      <c r="B359" s="44"/>
+      <c r="C359" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D340" s="10"/>
-      <c r="E340" s="13"/>
-      <c r="F340" s="13"/>
-      <c r="G340" s="13"/>
-      <c r="H340" s="13"/>
-      <c r="I340" s="13"/>
-      <c r="J340" s="11"/>
-    </row>
-    <row r="341" spans="2:10">
-      <c r="B341" s="34"/>
-      <c r="C341" s="31" t="s">
+      <c r="D359" s="10"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="J359" s="11"/>
+    </row>
+    <row r="360" spans="2:10">
+      <c r="B360" s="44"/>
+      <c r="C360" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D341" s="38" t="s">
+      <c r="D360" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E341" s="39"/>
-      <c r="F341" s="37" t="s">
+      <c r="E360" s="43"/>
+      <c r="F360" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G341" s="40"/>
-      <c r="H341" s="38" t="s">
+      <c r="G360" s="39"/>
+      <c r="H360" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I341" s="41"/>
-      <c r="J341" s="39"/>
-    </row>
-    <row r="342" spans="2:10">
-      <c r="B342" s="34"/>
-      <c r="C342" s="31" t="s">
+      <c r="I360" s="42"/>
+      <c r="J360" s="43"/>
+    </row>
+    <row r="361" spans="2:10">
+      <c r="B361" s="44"/>
+      <c r="C361" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D342" s="7"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="42" t="s">
+      <c r="D361" s="7"/>
+      <c r="E361" s="8"/>
+      <c r="F361" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G342" s="42"/>
-      <c r="H342" s="38" t="s">
+      <c r="G361" s="48"/>
+      <c r="H361" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I342" s="41"/>
-      <c r="J342" s="39"/>
-    </row>
-    <row r="344" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B344" s="43" t="s">
+      <c r="I361" s="42"/>
+      <c r="J361" s="43"/>
+    </row>
+    <row r="363" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B363" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C344" s="44"/>
-      <c r="D344" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E344" s="13"/>
-      <c r="F344" s="13"/>
-      <c r="G344" s="13"/>
-      <c r="H344" s="13"/>
-      <c r="I344" s="13"/>
-      <c r="J344" s="11"/>
-    </row>
-    <row r="345" spans="2:10">
-      <c r="B345" s="43" t="s">
+      <c r="C363" s="36"/>
+      <c r="D363" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13"/>
+      <c r="J363" s="11"/>
+    </row>
+    <row r="364" spans="2:10">
+      <c r="B364" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C345" s="44"/>
-      <c r="D345" s="45"/>
-      <c r="E345" s="46"/>
-      <c r="F345" s="40" t="s">
+      <c r="C364" s="36"/>
+      <c r="D364" s="37"/>
+      <c r="E364" s="38"/>
+      <c r="F364" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G345" s="47"/>
-      <c r="H345" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I345" s="41"/>
-      <c r="J345" s="39"/>
-    </row>
-    <row r="346" spans="2:10">
-      <c r="B346" s="34" t="s">
+      <c r="G364" s="40"/>
+      <c r="H364" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I364" s="42"/>
+      <c r="J364" s="43"/>
+    </row>
+    <row r="365" spans="2:10">
+      <c r="B365" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C346" s="35" t="s">
+      <c r="C365" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D346" s="1">
-        <v>1</v>
-      </c>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="3"/>
-    </row>
-    <row r="347" spans="2:10">
-      <c r="B347" s="34"/>
-      <c r="C347" s="36"/>
-      <c r="D347" s="6">
-        <v>2</v>
-      </c>
-      <c r="J347" s="5"/>
-    </row>
-    <row r="348" spans="2:10">
-      <c r="B348" s="34"/>
-      <c r="C348" s="36"/>
-      <c r="D348" s="6">
-        <v>3</v>
-      </c>
-      <c r="J348" s="5"/>
-    </row>
-    <row r="349" spans="2:10">
-      <c r="B349" s="34"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="6">
-        <v>4</v>
-      </c>
-      <c r="J349" s="5"/>
-    </row>
-    <row r="350" spans="2:10">
-      <c r="B350" s="34"/>
-      <c r="C350" s="36"/>
-      <c r="D350" s="7">
+      <c r="D365" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="2"/>
+      <c r="I365" s="2"/>
+      <c r="J365" s="3"/>
+    </row>
+    <row r="366" spans="2:10">
+      <c r="B366" s="44"/>
+      <c r="C366" s="46"/>
+      <c r="D366" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J366" s="5"/>
+    </row>
+    <row r="367" spans="2:10">
+      <c r="B367" s="44"/>
+      <c r="C367" s="46"/>
+      <c r="D367" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J367" s="5"/>
+    </row>
+    <row r="368" spans="2:10">
+      <c r="B368" s="44"/>
+      <c r="C368" s="46"/>
+      <c r="D368" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J368" s="5"/>
+    </row>
+    <row r="369" spans="2:10">
+      <c r="B369" s="44"/>
+      <c r="C369" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
-      <c r="G350" s="8"/>
-      <c r="H350" s="8"/>
-      <c r="I350" s="8"/>
-      <c r="J350" s="9"/>
-    </row>
-    <row r="351" spans="2:10">
-      <c r="B351" s="34"/>
-      <c r="C351" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D351" s="10"/>
-      <c r="E351" s="13"/>
-      <c r="F351" s="13"/>
-      <c r="G351" s="13"/>
-      <c r="H351" s="13"/>
-      <c r="I351" s="13"/>
-      <c r="J351" s="11"/>
-    </row>
-    <row r="352" spans="2:10">
-      <c r="B352" s="34"/>
-      <c r="C352" s="31" t="s">
+      <c r="D369" s="10"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="13"/>
+      <c r="G369" s="13"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="11"/>
+    </row>
+    <row r="370" spans="2:10">
+      <c r="B370" s="44"/>
+      <c r="C370" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D352" s="38" t="s">
+      <c r="D370" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E352" s="39"/>
-      <c r="F352" s="37" t="s">
+      <c r="E370" s="43"/>
+      <c r="F370" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G352" s="40"/>
-      <c r="H352" s="38" t="s">
+      <c r="G370" s="39"/>
+      <c r="H370" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I352" s="41"/>
-      <c r="J352" s="39"/>
-    </row>
-    <row r="353" spans="2:10">
-      <c r="B353" s="34"/>
-      <c r="C353" s="31" t="s">
+      <c r="I370" s="42"/>
+      <c r="J370" s="43"/>
+    </row>
+    <row r="371" spans="2:10">
+      <c r="B371" s="44"/>
+      <c r="C371" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="7"/>
-      <c r="E353" s="8"/>
-      <c r="F353" s="42" t="s">
+      <c r="D371" s="7"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G353" s="42"/>
-      <c r="H353" s="38" t="s">
+      <c r="G371" s="48"/>
+      <c r="H371" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I353" s="41"/>
-      <c r="J353" s="39"/>
-    </row>
-    <row r="355" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B355" s="43" t="s">
+      <c r="I371" s="42"/>
+      <c r="J371" s="43"/>
+    </row>
+    <row r="373" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B373" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C355" s="44"/>
-      <c r="D355" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E355" s="13"/>
-      <c r="F355" s="13"/>
-      <c r="G355" s="13"/>
-      <c r="H355" s="13"/>
-      <c r="I355" s="13"/>
-      <c r="J355" s="11"/>
-    </row>
-    <row r="356" spans="2:10">
-      <c r="B356" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C356" s="44"/>
-      <c r="D356" s="45"/>
-      <c r="E356" s="46"/>
-      <c r="F356" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G356" s="47"/>
-      <c r="H356" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I356" s="41"/>
-      <c r="J356" s="39"/>
-    </row>
-    <row r="357" spans="2:10">
-      <c r="B357" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C357" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D357" s="1">
-        <v>1</v>
-      </c>
-      <c r="E357" s="2"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="2"/>
-      <c r="H357" s="2"/>
-      <c r="I357" s="2"/>
-      <c r="J357" s="3"/>
-    </row>
-    <row r="358" spans="2:10">
-      <c r="B358" s="34"/>
-      <c r="C358" s="36"/>
-      <c r="D358" s="6">
-        <v>2</v>
-      </c>
-      <c r="J358" s="5"/>
-    </row>
-    <row r="359" spans="2:10">
-      <c r="B359" s="34"/>
-      <c r="C359" s="36"/>
-      <c r="D359" s="6">
-        <v>3</v>
-      </c>
-      <c r="J359" s="5"/>
-    </row>
-    <row r="360" spans="2:10">
-      <c r="B360" s="34"/>
-      <c r="C360" s="36"/>
-      <c r="D360" s="6">
-        <v>4</v>
-      </c>
-      <c r="J360" s="5"/>
-    </row>
-    <row r="361" spans="2:10">
-      <c r="B361" s="34"/>
-      <c r="C361" s="36"/>
-      <c r="D361" s="7">
-        <v>5</v>
-      </c>
-      <c r="E361" s="8"/>
-      <c r="F361" s="8"/>
-      <c r="G361" s="8"/>
-      <c r="H361" s="8"/>
-      <c r="I361" s="8"/>
-      <c r="J361" s="9"/>
-    </row>
-    <row r="362" spans="2:10">
-      <c r="B362" s="34"/>
-      <c r="C362" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D362" s="10"/>
-      <c r="E362" s="13"/>
-      <c r="F362" s="13"/>
-      <c r="G362" s="13"/>
-      <c r="H362" s="13"/>
-      <c r="I362" s="13"/>
-      <c r="J362" s="11"/>
-    </row>
-    <row r="363" spans="2:10">
-      <c r="B363" s="34"/>
-      <c r="C363" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D363" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E363" s="39"/>
-      <c r="F363" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G363" s="40"/>
-      <c r="H363" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I363" s="41"/>
-      <c r="J363" s="39"/>
-    </row>
-    <row r="364" spans="2:10">
-      <c r="B364" s="34"/>
-      <c r="C364" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D364" s="7"/>
-      <c r="E364" s="8"/>
-      <c r="F364" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G364" s="42"/>
-      <c r="H364" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I364" s="41"/>
-      <c r="J364" s="39"/>
-    </row>
-    <row r="366" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B366" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C366" s="44"/>
-      <c r="D366" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E366" s="13"/>
-      <c r="F366" s="13"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="13"/>
-      <c r="I366" s="13"/>
-      <c r="J366" s="11"/>
-    </row>
-    <row r="367" spans="2:10">
-      <c r="B367" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C367" s="44"/>
-      <c r="D367" s="45"/>
-      <c r="E367" s="46"/>
-      <c r="F367" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G367" s="47"/>
-      <c r="H367" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I367" s="41"/>
-      <c r="J367" s="39"/>
-    </row>
-    <row r="368" spans="2:10">
-      <c r="B368" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C368" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D368" s="1">
-        <v>1</v>
-      </c>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="3"/>
-    </row>
-    <row r="369" spans="2:10">
-      <c r="B369" s="34"/>
-      <c r="C369" s="36"/>
-      <c r="D369" s="6">
-        <v>2</v>
-      </c>
-      <c r="J369" s="5"/>
-    </row>
-    <row r="370" spans="2:10">
-      <c r="B370" s="34"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="6">
-        <v>3</v>
-      </c>
-      <c r="J370" s="5"/>
-    </row>
-    <row r="371" spans="2:10">
-      <c r="B371" s="34"/>
-      <c r="C371" s="36"/>
-      <c r="D371" s="6">
-        <v>4</v>
-      </c>
-      <c r="J371" s="5"/>
-    </row>
-    <row r="372" spans="2:10">
-      <c r="B372" s="34"/>
-      <c r="C372" s="36"/>
-      <c r="D372" s="7">
-        <v>5</v>
-      </c>
-      <c r="E372" s="8"/>
-      <c r="F372" s="8"/>
-      <c r="G372" s="8"/>
-      <c r="H372" s="8"/>
-      <c r="I372" s="8"/>
-      <c r="J372" s="9"/>
-    </row>
-    <row r="373" spans="2:10">
-      <c r="B373" s="34"/>
-      <c r="C373" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D373" s="10"/>
+      <c r="C373" s="36"/>
+      <c r="D373" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
@@ -6526,49 +6868,53 @@
       <c r="J373" s="11"/>
     </row>
     <row r="374" spans="2:10">
-      <c r="B374" s="34"/>
-      <c r="C374" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D374" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" s="39"/>
-      <c r="F374" s="37" t="s">
-        <v>8</v>
+      <c r="B374" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C374" s="36"/>
+      <c r="D374" s="37"/>
+      <c r="E374" s="38"/>
+      <c r="F374" s="39" t="s">
+        <v>2</v>
       </c>
       <c r="G374" s="40"/>
-      <c r="H374" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I374" s="41"/>
-      <c r="J374" s="39"/>
+      <c r="H374" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I374" s="42"/>
+      <c r="J374" s="43"/>
     </row>
     <row r="375" spans="2:10">
-      <c r="B375" s="34"/>
-      <c r="C375" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D375" s="7"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G375" s="42"/>
-      <c r="H375" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I375" s="41"/>
-      <c r="J375" s="39"/>
-    </row>
-    <row r="377" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B377" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C377" s="44"/>
-      <c r="D377" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B375" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="3"/>
+    </row>
+    <row r="376" spans="2:10">
+      <c r="B376" s="44"/>
+      <c r="C376" s="46"/>
+      <c r="D376" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J376" s="5"/>
+    </row>
+    <row r="377" spans="2:10">
+      <c r="B377" s="44"/>
+      <c r="C377" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="10"/>
       <c r="E377" s="13"/>
       <c r="F377" s="13"/>
       <c r="G377" s="13"/>
@@ -6577,214 +6923,223 @@
       <c r="J377" s="11"/>
     </row>
     <row r="378" spans="2:10">
-      <c r="B378" s="43" t="s">
+      <c r="B378" s="44"/>
+      <c r="C378" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="43"/>
+      <c r="F378" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G378" s="39"/>
+      <c r="H378" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" s="42"/>
+      <c r="J378" s="43"/>
+    </row>
+    <row r="379" spans="2:10">
+      <c r="B379" s="44"/>
+      <c r="C379" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="7"/>
+      <c r="E379" s="8"/>
+      <c r="F379" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G379" s="48"/>
+      <c r="H379" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I379" s="42"/>
+      <c r="J379" s="43"/>
+    </row>
+    <row r="381" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B381" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" s="36"/>
+      <c r="D381" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="J381" s="11"/>
+    </row>
+    <row r="382" spans="2:10">
+      <c r="B382" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C378" s="44"/>
-      <c r="D378" s="45"/>
-      <c r="E378" s="46"/>
-      <c r="F378" s="40" t="s">
+      <c r="C382" s="36"/>
+      <c r="D382" s="37"/>
+      <c r="E382" s="38"/>
+      <c r="F382" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G378" s="47"/>
-      <c r="H378" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I378" s="41"/>
-      <c r="J378" s="39"/>
-    </row>
-    <row r="379" spans="2:10">
-      <c r="B379" s="34" t="s">
+      <c r="G382" s="40"/>
+      <c r="H382" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I382" s="42"/>
+      <c r="J382" s="43"/>
+    </row>
+    <row r="383" spans="2:10">
+      <c r="B383" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C379" s="35" t="s">
+      <c r="C383" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D383" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2"/>
+      <c r="I383" s="2"/>
+      <c r="J383" s="3"/>
+    </row>
+    <row r="384" spans="2:10">
+      <c r="B384" s="44"/>
+      <c r="C384" s="46"/>
+      <c r="D384" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J384" s="5"/>
+    </row>
+    <row r="385" spans="2:10">
+      <c r="B385" s="44"/>
+      <c r="C385" s="46"/>
+      <c r="D385" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J385" s="5"/>
+    </row>
+    <row r="386" spans="2:10">
+      <c r="B386" s="44"/>
+      <c r="C386" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="10"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="13"/>
+      <c r="G386" s="13"/>
+      <c r="H386" s="13"/>
+      <c r="I386" s="13"/>
+      <c r="J386" s="11"/>
+    </row>
+    <row r="387" spans="2:10">
+      <c r="B387" s="44"/>
+      <c r="C387" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" s="43"/>
+      <c r="F387" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G387" s="39"/>
+      <c r="H387" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I387" s="42"/>
+      <c r="J387" s="43"/>
+    </row>
+    <row r="388" spans="2:10">
+      <c r="B388" s="44"/>
+      <c r="C388" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" s="7"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G388" s="48"/>
+      <c r="H388" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I388" s="42"/>
+      <c r="J388" s="43"/>
+    </row>
+    <row r="390" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B390" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" s="36"/>
+      <c r="D390" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+      <c r="G390" s="13"/>
+      <c r="H390" s="13"/>
+      <c r="I390" s="13"/>
+      <c r="J390" s="11"/>
+    </row>
+    <row r="391" spans="2:10">
+      <c r="B391" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="3"/>
-    </row>
-    <row r="380" spans="2:10">
-      <c r="B380" s="34"/>
-      <c r="C380" s="36"/>
-      <c r="D380" s="6">
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
+      <c r="E391" s="38"/>
+      <c r="F391" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J380" s="5"/>
-    </row>
-    <row r="381" spans="2:10">
-      <c r="B381" s="34"/>
-      <c r="C381" s="36"/>
-      <c r="D381" s="6">
+      <c r="G391" s="40"/>
+      <c r="H391" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I391" s="42"/>
+      <c r="J391" s="43"/>
+    </row>
+    <row r="392" spans="2:10">
+      <c r="B392" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J381" s="5"/>
-    </row>
-    <row r="382" spans="2:10">
-      <c r="B382" s="34"/>
-      <c r="C382" s="36"/>
-      <c r="D382" s="6">
+      <c r="C392" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J382" s="5"/>
-    </row>
-    <row r="383" spans="2:10">
-      <c r="B383" s="34"/>
-      <c r="C383" s="36"/>
-      <c r="D383" s="7">
-        <v>5</v>
-      </c>
-      <c r="E383" s="8"/>
-      <c r="F383" s="8"/>
-      <c r="G383" s="8"/>
-      <c r="H383" s="8"/>
-      <c r="I383" s="8"/>
-      <c r="J383" s="9"/>
-    </row>
-    <row r="384" spans="2:10">
-      <c r="B384" s="34"/>
-      <c r="C384" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D384" s="10"/>
-      <c r="E384" s="13"/>
-      <c r="F384" s="13"/>
-      <c r="G384" s="13"/>
-      <c r="H384" s="13"/>
-      <c r="I384" s="13"/>
-      <c r="J384" s="11"/>
-    </row>
-    <row r="385" spans="2:10">
-      <c r="B385" s="34"/>
-      <c r="C385" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D385" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E385" s="39"/>
-      <c r="F385" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G385" s="40"/>
-      <c r="H385" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I385" s="41"/>
-      <c r="J385" s="39"/>
-    </row>
-    <row r="386" spans="2:10">
-      <c r="B386" s="34"/>
-      <c r="C386" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D386" s="7"/>
-      <c r="E386" s="8"/>
-      <c r="F386" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G386" s="42"/>
-      <c r="H386" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I386" s="41"/>
-      <c r="J386" s="39"/>
-    </row>
-    <row r="388" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B388" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C388" s="44"/>
-      <c r="D388" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E388" s="13"/>
-      <c r="F388" s="13"/>
-      <c r="G388" s="13"/>
-      <c r="H388" s="13"/>
-      <c r="I388" s="13"/>
-      <c r="J388" s="11"/>
-    </row>
-    <row r="389" spans="2:10">
-      <c r="B389" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C389" s="44"/>
-      <c r="D389" s="45"/>
-      <c r="E389" s="46"/>
-      <c r="F389" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G389" s="47"/>
-      <c r="H389" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I389" s="41"/>
-      <c r="J389" s="39"/>
-    </row>
-    <row r="390" spans="2:10">
-      <c r="B390" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C390" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D390" s="1">
-        <v>1</v>
-      </c>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-      <c r="H390" s="2"/>
-      <c r="I390" s="2"/>
-      <c r="J390" s="3"/>
-    </row>
-    <row r="391" spans="2:10">
-      <c r="B391" s="34"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="6">
-        <v>2</v>
-      </c>
-      <c r="J391" s="5"/>
-    </row>
-    <row r="392" spans="2:10">
-      <c r="B392" s="34"/>
-      <c r="C392" s="36"/>
-      <c r="D392" s="6">
-        <v>3</v>
-      </c>
-      <c r="J392" s="5"/>
+      <c r="D392" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+      <c r="H392" s="2"/>
+      <c r="I392" s="2"/>
+      <c r="J392" s="3"/>
     </row>
     <row r="393" spans="2:10">
-      <c r="B393" s="34"/>
-      <c r="C393" s="36"/>
-      <c r="D393" s="6">
-        <v>4</v>
+      <c r="B393" s="44"/>
+      <c r="C393" s="46"/>
+      <c r="D393" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="J393" s="5"/>
     </row>
     <row r="394" spans="2:10">
-      <c r="B394" s="34"/>
-      <c r="C394" s="36"/>
-      <c r="D394" s="7">
-        <v>5</v>
-      </c>
-      <c r="E394" s="8"/>
-      <c r="F394" s="8"/>
-      <c r="G394" s="8"/>
-      <c r="H394" s="8"/>
-      <c r="I394" s="8"/>
-      <c r="J394" s="9"/>
+      <c r="B394" s="44"/>
+      <c r="C394" s="46"/>
+      <c r="D394" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J394" s="5"/>
     </row>
     <row r="395" spans="2:10">
-      <c r="B395" s="34"/>
-      <c r="C395" s="30" t="s">
+      <c r="B395" s="44"/>
+      <c r="C395" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D395" s="10"/>
@@ -6796,48 +7151,48 @@
       <c r="J395" s="11"/>
     </row>
     <row r="396" spans="2:10">
-      <c r="B396" s="34"/>
-      <c r="C396" s="31" t="s">
+      <c r="B396" s="44"/>
+      <c r="C396" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D396" s="38" t="s">
+      <c r="D396" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E396" s="39"/>
-      <c r="F396" s="37" t="s">
+      <c r="E396" s="43"/>
+      <c r="F396" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G396" s="40"/>
-      <c r="H396" s="38" t="s">
+      <c r="G396" s="39"/>
+      <c r="H396" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I396" s="41"/>
-      <c r="J396" s="39"/>
+      <c r="I396" s="42"/>
+      <c r="J396" s="43"/>
     </row>
     <row r="397" spans="2:10">
-      <c r="B397" s="34"/>
-      <c r="C397" s="31" t="s">
+      <c r="B397" s="44"/>
+      <c r="C397" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="42" t="s">
+      <c r="F397" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G397" s="42"/>
-      <c r="H397" s="38" t="s">
+      <c r="G397" s="48"/>
+      <c r="H397" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I397" s="41"/>
-      <c r="J397" s="39"/>
+      <c r="I397" s="42"/>
+      <c r="J397" s="43"/>
     </row>
     <row r="399" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B399" s="43" t="s">
+      <c r="B399" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C399" s="44"/>
+      <c r="C399" s="36"/>
       <c r="D399" s="10" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E399" s="13"/>
       <c r="F399" s="13"/>
@@ -6847,31 +7202,31 @@
       <c r="J399" s="11"/>
     </row>
     <row r="400" spans="2:10">
-      <c r="B400" s="43" t="s">
+      <c r="B400" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C400" s="44"/>
-      <c r="D400" s="45"/>
-      <c r="E400" s="46"/>
-      <c r="F400" s="40" t="s">
+      <c r="C400" s="36"/>
+      <c r="D400" s="37"/>
+      <c r="E400" s="38"/>
+      <c r="F400" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G400" s="47"/>
-      <c r="H400" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I400" s="41"/>
-      <c r="J400" s="39"/>
+      <c r="G400" s="40"/>
+      <c r="H400" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I400" s="42"/>
+      <c r="J400" s="43"/>
     </row>
     <row r="401" spans="2:10">
-      <c r="B401" s="34" t="s">
+      <c r="B401" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C401" s="35" t="s">
+      <c r="C401" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D401" s="1">
-        <v>1</v>
+      <c r="D401" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
@@ -6881,230 +7236,1521 @@
       <c r="J401" s="3"/>
     </row>
     <row r="402" spans="2:10">
-      <c r="B402" s="34"/>
-      <c r="C402" s="36"/>
-      <c r="D402" s="6">
+      <c r="B402" s="44"/>
+      <c r="C402" s="46"/>
+      <c r="D402" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J402" s="5"/>
+    </row>
+    <row r="403" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B403" s="44"/>
+      <c r="C403" s="46"/>
+      <c r="D403" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J403" s="5"/>
+    </row>
+    <row r="404" spans="2:10">
+      <c r="B404" s="44"/>
+      <c r="C404" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D404" s="10"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+      <c r="G404" s="13"/>
+      <c r="H404" s="13"/>
+      <c r="I404" s="13"/>
+      <c r="J404" s="11"/>
+    </row>
+    <row r="405" spans="2:10">
+      <c r="B405" s="44"/>
+      <c r="C405" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E405" s="43"/>
+      <c r="F405" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G405" s="39"/>
+      <c r="H405" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I405" s="42"/>
+      <c r="J405" s="43"/>
+    </row>
+    <row r="406" spans="2:10">
+      <c r="B406" s="44"/>
+      <c r="C406" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="7"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G406" s="48"/>
+      <c r="H406" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I406" s="42"/>
+      <c r="J406" s="43"/>
+    </row>
+    <row r="408" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B408" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" s="36"/>
+      <c r="D408" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="J408" s="11"/>
+    </row>
+    <row r="409" spans="2:10">
+      <c r="B409" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" s="36"/>
+      <c r="D409" s="37"/>
+      <c r="E409" s="38"/>
+      <c r="F409" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J402" s="5"/>
-    </row>
-    <row r="403" spans="2:10">
-      <c r="B403" s="34"/>
-      <c r="C403" s="36"/>
-      <c r="D403" s="6">
+      <c r="G409" s="40"/>
+      <c r="H409" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="I409" s="42"/>
+      <c r="J409" s="43"/>
+    </row>
+    <row r="410" spans="2:10">
+      <c r="B410" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J403" s="5"/>
-    </row>
-    <row r="404" spans="2:10">
-      <c r="B404" s="34"/>
-      <c r="C404" s="36"/>
-      <c r="D404" s="6">
+      <c r="C410" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J404" s="5"/>
-    </row>
-    <row r="405" spans="2:10">
-      <c r="B405" s="34"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="7">
+      <c r="D410" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+      <c r="J410" s="3"/>
+    </row>
+    <row r="411" spans="2:10">
+      <c r="B411" s="44"/>
+      <c r="C411" s="46"/>
+      <c r="D411" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J411" s="5"/>
+    </row>
+    <row r="412" spans="2:10">
+      <c r="B412" s="44"/>
+      <c r="C412" s="46"/>
+      <c r="D412" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J412" s="5"/>
+    </row>
+    <row r="413" spans="2:10">
+      <c r="B413" s="44"/>
+      <c r="C413" s="46"/>
+      <c r="D413" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J413" s="5"/>
+    </row>
+    <row r="414" spans="2:10">
+      <c r="B414" s="44"/>
+      <c r="C414" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E405" s="8"/>
-      <c r="F405" s="8"/>
-      <c r="G405" s="8"/>
-      <c r="H405" s="8"/>
-      <c r="I405" s="8"/>
-      <c r="J405" s="9"/>
-    </row>
-    <row r="406" spans="2:10">
-      <c r="B406" s="34"/>
-      <c r="C406" s="30" t="s">
+      <c r="D414" s="10"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+      <c r="J414" s="11"/>
+    </row>
+    <row r="415" spans="2:10">
+      <c r="B415" s="44"/>
+      <c r="C415" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="43"/>
+      <c r="F415" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G415" s="39"/>
+      <c r="H415" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I415" s="42"/>
+      <c r="J415" s="43"/>
+    </row>
+    <row r="416" spans="2:10">
+      <c r="B416" s="44"/>
+      <c r="C416" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416" s="7"/>
+      <c r="E416" s="8"/>
+      <c r="F416" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G416" s="48"/>
+      <c r="H416" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I416" s="42"/>
+      <c r="J416" s="43"/>
+    </row>
+    <row r="418" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B418" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" s="36"/>
+      <c r="D418" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
+      <c r="H418" s="13"/>
+      <c r="I418" s="13"/>
+      <c r="J418" s="11"/>
+    </row>
+    <row r="419" spans="2:10">
+      <c r="B419" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="38"/>
+      <c r="F419" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G419" s="40"/>
+      <c r="H419" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="I419" s="42"/>
+      <c r="J419" s="43"/>
+    </row>
+    <row r="420" spans="2:10">
+      <c r="B420" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C420" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
+      <c r="H420" s="2"/>
+      <c r="I420" s="2"/>
+      <c r="J420" s="3"/>
+    </row>
+    <row r="421" spans="2:10">
+      <c r="B421" s="44"/>
+      <c r="C421" s="46"/>
+      <c r="D421" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J421" s="5"/>
+    </row>
+    <row r="422" spans="2:10">
+      <c r="B422" s="44"/>
+      <c r="C422" s="46"/>
+      <c r="D422" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J422" s="5"/>
+    </row>
+    <row r="423" spans="2:10">
+      <c r="B423" s="44"/>
+      <c r="C423" s="46"/>
+      <c r="D423" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J423" s="5"/>
+    </row>
+    <row r="424" spans="2:10">
+      <c r="B424" s="44"/>
+      <c r="C424" s="46"/>
+      <c r="D424" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J424" s="5"/>
+    </row>
+    <row r="425" spans="2:10">
+      <c r="B425" s="44"/>
+      <c r="C425" s="46"/>
+      <c r="D425" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E425" s="8"/>
+      <c r="F425" s="8"/>
+      <c r="G425" s="8"/>
+      <c r="H425" s="8"/>
+      <c r="I425" s="8"/>
+      <c r="J425" s="9"/>
+    </row>
+    <row r="426" spans="2:10">
+      <c r="B426" s="44"/>
+      <c r="C426" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D406" s="10"/>
-      <c r="E406" s="13"/>
-      <c r="F406" s="13"/>
-      <c r="G406" s="13"/>
-      <c r="H406" s="13"/>
-      <c r="I406" s="13"/>
-      <c r="J406" s="11"/>
-    </row>
-    <row r="407" spans="2:10">
-      <c r="B407" s="34"/>
-      <c r="C407" s="31" t="s">
+      <c r="D426" s="10"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
+      <c r="H426" s="13"/>
+      <c r="I426" s="13"/>
+      <c r="J426" s="11"/>
+    </row>
+    <row r="427" spans="2:10">
+      <c r="B427" s="44"/>
+      <c r="C427" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D407" s="38" t="s">
+      <c r="D427" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E407" s="39"/>
-      <c r="F407" s="37" t="s">
+      <c r="E427" s="43"/>
+      <c r="F427" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G407" s="40"/>
-      <c r="H407" s="38" t="s">
+      <c r="G427" s="39"/>
+      <c r="H427" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I407" s="41"/>
-      <c r="J407" s="39"/>
-    </row>
-    <row r="408" spans="2:10">
-      <c r="B408" s="34"/>
-      <c r="C408" s="31" t="s">
+      <c r="I427" s="42"/>
+      <c r="J427" s="43"/>
+    </row>
+    <row r="428" spans="2:10">
+      <c r="B428" s="44"/>
+      <c r="C428" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D408" s="7"/>
-      <c r="E408" s="8"/>
-      <c r="F408" s="42" t="s">
+      <c r="D428" s="7"/>
+      <c r="E428" s="8"/>
+      <c r="F428" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G408" s="42"/>
-      <c r="H408" s="38" t="s">
+      <c r="G428" s="48"/>
+      <c r="H428" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I408" s="41"/>
-      <c r="J408" s="39"/>
+      <c r="I428" s="42"/>
+      <c r="J428" s="43"/>
+    </row>
+    <row r="430" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B430" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" s="36"/>
+      <c r="D430" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="11"/>
+    </row>
+    <row r="431" spans="2:10">
+      <c r="B431" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431" s="36"/>
+      <c r="D431" s="37"/>
+      <c r="E431" s="38"/>
+      <c r="F431" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G431" s="40"/>
+      <c r="H431" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="I431" s="42"/>
+      <c r="J431" s="43"/>
+    </row>
+    <row r="432" spans="2:10">
+      <c r="B432" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C432" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
+      <c r="H432" s="2"/>
+      <c r="I432" s="2"/>
+      <c r="J432" s="3"/>
+    </row>
+    <row r="433" spans="2:10">
+      <c r="B433" s="44"/>
+      <c r="C433" s="46"/>
+      <c r="D433" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J433" s="5"/>
+    </row>
+    <row r="434" spans="2:10">
+      <c r="B434" s="44"/>
+      <c r="C434" s="46"/>
+      <c r="D434" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J434" s="5"/>
+    </row>
+    <row r="435" spans="2:10">
+      <c r="B435" s="44"/>
+      <c r="C435" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435" s="10"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
+      <c r="H435" s="13"/>
+      <c r="I435" s="13"/>
+      <c r="J435" s="11"/>
+    </row>
+    <row r="436" spans="2:10">
+      <c r="B436" s="44"/>
+      <c r="C436" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436" s="43"/>
+      <c r="F436" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G436" s="39"/>
+      <c r="H436" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I436" s="42"/>
+      <c r="J436" s="43"/>
+    </row>
+    <row r="437" spans="2:10">
+      <c r="B437" s="44"/>
+      <c r="C437" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" s="7"/>
+      <c r="E437" s="8"/>
+      <c r="F437" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G437" s="48"/>
+      <c r="H437" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I437" s="42"/>
+      <c r="J437" s="43"/>
+    </row>
+    <row r="439" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B439" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="36"/>
+      <c r="D439" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+      <c r="G439" s="13"/>
+      <c r="H439" s="13"/>
+      <c r="I439" s="13"/>
+      <c r="J439" s="11"/>
+    </row>
+    <row r="440" spans="2:10">
+      <c r="B440" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="36"/>
+      <c r="D440" s="37"/>
+      <c r="E440" s="38"/>
+      <c r="F440" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G440" s="40"/>
+      <c r="H440" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="I440" s="42"/>
+      <c r="J440" s="43"/>
+    </row>
+    <row r="441" spans="2:10">
+      <c r="B441" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2"/>
+      <c r="I441" s="2"/>
+      <c r="J441" s="3"/>
+    </row>
+    <row r="442" spans="2:10">
+      <c r="B442" s="44"/>
+      <c r="C442" s="46"/>
+      <c r="D442" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J442" s="5"/>
+    </row>
+    <row r="443" spans="2:10">
+      <c r="B443" s="44"/>
+      <c r="C443" s="46"/>
+      <c r="D443" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J443" s="5"/>
+    </row>
+    <row r="444" spans="2:10">
+      <c r="B444" s="44"/>
+      <c r="C444" s="46"/>
+      <c r="D444" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J444" s="5"/>
+    </row>
+    <row r="445" spans="2:10">
+      <c r="B445" s="44"/>
+      <c r="C445" s="46"/>
+      <c r="D445" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J445" s="5"/>
+    </row>
+    <row r="446" spans="2:10">
+      <c r="B446" s="44"/>
+      <c r="C446" s="46"/>
+      <c r="D446" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E446" s="8"/>
+      <c r="F446" s="8"/>
+      <c r="G446" s="8"/>
+      <c r="H446" s="8"/>
+      <c r="I446" s="8"/>
+      <c r="J446" s="9"/>
+    </row>
+    <row r="447" spans="2:10">
+      <c r="B447" s="44"/>
+      <c r="C447" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D447" s="10"/>
+      <c r="E447" s="13"/>
+      <c r="F447" s="13"/>
+      <c r="G447" s="13"/>
+      <c r="H447" s="13"/>
+      <c r="I447" s="13"/>
+      <c r="J447" s="11"/>
+    </row>
+    <row r="448" spans="2:10">
+      <c r="B448" s="44"/>
+      <c r="C448" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="43"/>
+      <c r="F448" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G448" s="39"/>
+      <c r="H448" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I448" s="42"/>
+      <c r="J448" s="43"/>
+    </row>
+    <row r="449" spans="2:10">
+      <c r="B449" s="44"/>
+      <c r="C449" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="7"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G449" s="48"/>
+      <c r="H449" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I449" s="42"/>
+      <c r="J449" s="43"/>
+    </row>
+    <row r="451" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B451" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" s="36"/>
+      <c r="D451" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+      <c r="G451" s="13"/>
+      <c r="H451" s="13"/>
+      <c r="I451" s="13"/>
+      <c r="J451" s="11"/>
+    </row>
+    <row r="452" spans="2:10">
+      <c r="B452" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C452" s="36"/>
+      <c r="D452" s="37"/>
+      <c r="E452" s="38"/>
+      <c r="F452" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G452" s="40"/>
+      <c r="H452" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="I452" s="42"/>
+      <c r="J452" s="43"/>
+    </row>
+    <row r="453" spans="2:10">
+      <c r="B453" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C453" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
+      <c r="H453" s="2"/>
+      <c r="I453" s="2"/>
+      <c r="J453" s="3"/>
+    </row>
+    <row r="454" spans="2:10">
+      <c r="B454" s="44"/>
+      <c r="C454" s="46"/>
+      <c r="D454" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J454" s="5"/>
+    </row>
+    <row r="455" spans="2:10">
+      <c r="B455" s="44"/>
+      <c r="C455" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D455" s="10"/>
+      <c r="E455" s="13"/>
+      <c r="F455" s="13"/>
+      <c r="G455" s="13"/>
+      <c r="H455" s="13"/>
+      <c r="I455" s="13"/>
+      <c r="J455" s="11"/>
+    </row>
+    <row r="456" spans="2:10">
+      <c r="B456" s="44"/>
+      <c r="C456" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456" s="43"/>
+      <c r="F456" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G456" s="39"/>
+      <c r="H456" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I456" s="42"/>
+      <c r="J456" s="43"/>
+    </row>
+    <row r="457" spans="2:10">
+      <c r="B457" s="44"/>
+      <c r="C457" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" s="7"/>
+      <c r="E457" s="8"/>
+      <c r="F457" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G457" s="48"/>
+      <c r="H457" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I457" s="42"/>
+      <c r="J457" s="43"/>
+    </row>
+    <row r="459" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B459" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" s="36"/>
+      <c r="D459" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="13"/>
+      <c r="H459" s="13"/>
+      <c r="I459" s="13"/>
+      <c r="J459" s="11"/>
+    </row>
+    <row r="460" spans="2:10">
+      <c r="B460" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" s="36"/>
+      <c r="D460" s="37"/>
+      <c r="E460" s="38"/>
+      <c r="F460" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G460" s="40"/>
+      <c r="H460" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I460" s="42"/>
+      <c r="J460" s="43"/>
+    </row>
+    <row r="461" spans="2:10">
+      <c r="B461" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C461" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
+      <c r="H461" s="2"/>
+      <c r="I461" s="2"/>
+      <c r="J461" s="3"/>
+    </row>
+    <row r="462" spans="2:10">
+      <c r="B462" s="44"/>
+      <c r="C462" s="46"/>
+      <c r="D462" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J462" s="5"/>
+    </row>
+    <row r="463" spans="2:10">
+      <c r="B463" s="44"/>
+      <c r="C463" s="46"/>
+      <c r="D463" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="J463" s="5"/>
+    </row>
+    <row r="464" spans="2:10">
+      <c r="B464" s="44"/>
+      <c r="C464" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D464" s="10"/>
+      <c r="E464" s="13"/>
+      <c r="F464" s="13"/>
+      <c r="G464" s="13"/>
+      <c r="H464" s="13"/>
+      <c r="I464" s="13"/>
+      <c r="J464" s="11"/>
+    </row>
+    <row r="465" spans="2:10">
+      <c r="B465" s="44"/>
+      <c r="C465" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465" s="43"/>
+      <c r="F465" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G465" s="39"/>
+      <c r="H465" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I465" s="42"/>
+      <c r="J465" s="43"/>
+    </row>
+    <row r="466" spans="2:10">
+      <c r="B466" s="44"/>
+      <c r="C466" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466" s="7"/>
+      <c r="E466" s="8"/>
+      <c r="F466" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G466" s="48"/>
+      <c r="H466" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I466" s="42"/>
+      <c r="J466" s="43"/>
+    </row>
+    <row r="468" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B468" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" s="36"/>
+      <c r="D468" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E468" s="13"/>
+      <c r="F468" s="13"/>
+      <c r="G468" s="13"/>
+      <c r="H468" s="13"/>
+      <c r="I468" s="13"/>
+      <c r="J468" s="11"/>
+    </row>
+    <row r="469" spans="2:10">
+      <c r="B469" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
+      <c r="E469" s="38"/>
+      <c r="F469" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G469" s="40"/>
+      <c r="H469" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I469" s="42"/>
+      <c r="J469" s="43"/>
+    </row>
+    <row r="470" spans="2:10">
+      <c r="B470" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C470" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
+      <c r="H470" s="2"/>
+      <c r="I470" s="2"/>
+      <c r="J470" s="3"/>
+    </row>
+    <row r="471" spans="2:10">
+      <c r="B471" s="44"/>
+      <c r="C471" s="46"/>
+      <c r="D471" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J471" s="5"/>
+    </row>
+    <row r="472" spans="2:10">
+      <c r="B472" s="44"/>
+      <c r="C472" s="46"/>
+      <c r="D472" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J472" s="5"/>
+    </row>
+    <row r="473" spans="2:10">
+      <c r="B473" s="44"/>
+      <c r="C473" s="46"/>
+      <c r="D473" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J473" s="5"/>
+    </row>
+    <row r="474" spans="2:10">
+      <c r="B474" s="44"/>
+      <c r="C474" s="46"/>
+      <c r="D474" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E474" s="8"/>
+      <c r="F474" s="8"/>
+      <c r="G474" s="8"/>
+      <c r="H474" s="8"/>
+      <c r="I474" s="8"/>
+      <c r="J474" s="9"/>
+    </row>
+    <row r="475" spans="2:10">
+      <c r="B475" s="44"/>
+      <c r="C475" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D475" s="10"/>
+      <c r="E475" s="13"/>
+      <c r="F475" s="13"/>
+      <c r="G475" s="13"/>
+      <c r="H475" s="13"/>
+      <c r="I475" s="13"/>
+      <c r="J475" s="11"/>
+    </row>
+    <row r="476" spans="2:10">
+      <c r="B476" s="44"/>
+      <c r="C476" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E476" s="43"/>
+      <c r="F476" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G476" s="39"/>
+      <c r="H476" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I476" s="42"/>
+      <c r="J476" s="43"/>
+    </row>
+    <row r="477" spans="2:10">
+      <c r="B477" s="44"/>
+      <c r="C477" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477" s="7"/>
+      <c r="E477" s="8"/>
+      <c r="F477" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G477" s="48"/>
+      <c r="H477" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I477" s="42"/>
+      <c r="J477" s="43"/>
+    </row>
+    <row r="479" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B479" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" s="36"/>
+      <c r="D479" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E479" s="13"/>
+      <c r="F479" s="13"/>
+      <c r="G479" s="13"/>
+      <c r="H479" s="13"/>
+      <c r="I479" s="13"/>
+      <c r="J479" s="11"/>
+    </row>
+    <row r="480" spans="2:10">
+      <c r="B480" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C480" s="36"/>
+      <c r="D480" s="37"/>
+      <c r="E480" s="38"/>
+      <c r="F480" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G480" s="40"/>
+      <c r="H480" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I480" s="42"/>
+      <c r="J480" s="43"/>
+    </row>
+    <row r="481" spans="2:10">
+      <c r="B481" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C481" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
+      <c r="H481" s="2"/>
+      <c r="I481" s="2"/>
+      <c r="J481" s="3"/>
+    </row>
+    <row r="482" spans="2:10">
+      <c r="B482" s="44"/>
+      <c r="C482" s="46"/>
+      <c r="D482" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J482" s="5"/>
+    </row>
+    <row r="483" spans="2:10">
+      <c r="B483" s="44"/>
+      <c r="C483" s="46"/>
+      <c r="D483" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J483" s="5"/>
+    </row>
+    <row r="484" spans="2:10">
+      <c r="B484" s="44"/>
+      <c r="C484" s="46"/>
+      <c r="D484" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J484" s="5"/>
+    </row>
+    <row r="485" spans="2:10">
+      <c r="B485" s="44"/>
+      <c r="C485" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D485" s="10"/>
+      <c r="E485" s="13"/>
+      <c r="F485" s="13"/>
+      <c r="G485" s="13"/>
+      <c r="H485" s="13"/>
+      <c r="I485" s="13"/>
+      <c r="J485" s="11"/>
+    </row>
+    <row r="486" spans="2:10">
+      <c r="B486" s="44"/>
+      <c r="C486" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="43"/>
+      <c r="F486" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G486" s="39"/>
+      <c r="H486" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I486" s="42"/>
+      <c r="J486" s="43"/>
+    </row>
+    <row r="487" spans="2:10">
+      <c r="B487" s="44"/>
+      <c r="C487" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" s="7"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G487" s="48"/>
+      <c r="H487" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I487" s="42"/>
+      <c r="J487" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="504">
-    <mergeCell ref="B399:C399"/>
-    <mergeCell ref="B400:C400"/>
-    <mergeCell ref="D400:E400"/>
-    <mergeCell ref="F400:G400"/>
-    <mergeCell ref="H400:J400"/>
-    <mergeCell ref="B401:B408"/>
-    <mergeCell ref="C401:C405"/>
-    <mergeCell ref="D407:E407"/>
-    <mergeCell ref="F407:G407"/>
-    <mergeCell ref="H407:J407"/>
-    <mergeCell ref="F408:G408"/>
-    <mergeCell ref="H408:J408"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="B389:C389"/>
-    <mergeCell ref="D389:E389"/>
-    <mergeCell ref="F389:G389"/>
-    <mergeCell ref="H389:J389"/>
-    <mergeCell ref="B390:B397"/>
-    <mergeCell ref="C390:C394"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="H396:J396"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="H397:J397"/>
-    <mergeCell ref="B377:C377"/>
-    <mergeCell ref="B378:C378"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="B379:B386"/>
-    <mergeCell ref="C379:C383"/>
-    <mergeCell ref="D385:E385"/>
-    <mergeCell ref="F385:G385"/>
-    <mergeCell ref="H385:J385"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="H386:J386"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="D367:E367"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="H367:J367"/>
-    <mergeCell ref="B368:B375"/>
-    <mergeCell ref="C368:C372"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="H374:J374"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="F356:G356"/>
-    <mergeCell ref="H356:J356"/>
-    <mergeCell ref="B357:B364"/>
-    <mergeCell ref="C357:C361"/>
-    <mergeCell ref="D363:E363"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="H363:J363"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="H364:J364"/>
+  <mergeCells count="612">
+    <mergeCell ref="B481:B487"/>
+    <mergeCell ref="C481:C484"/>
+    <mergeCell ref="D486:E486"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="H486:J486"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="H487:J487"/>
+    <mergeCell ref="B470:B477"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="F476:G476"/>
+    <mergeCell ref="H476:J476"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="H477:J477"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="B480:C480"/>
+    <mergeCell ref="D480:E480"/>
+    <mergeCell ref="F480:G480"/>
+    <mergeCell ref="H480:J480"/>
+    <mergeCell ref="B461:B466"/>
+    <mergeCell ref="C461:C463"/>
+    <mergeCell ref="D465:E465"/>
+    <mergeCell ref="F465:G465"/>
+    <mergeCell ref="H465:J465"/>
+    <mergeCell ref="F466:G466"/>
+    <mergeCell ref="H466:J466"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="F469:G469"/>
+    <mergeCell ref="H469:J469"/>
+    <mergeCell ref="B453:B457"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="D456:E456"/>
+    <mergeCell ref="F456:G456"/>
+    <mergeCell ref="H456:J456"/>
+    <mergeCell ref="F457:G457"/>
+    <mergeCell ref="H457:J457"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B460:C460"/>
+    <mergeCell ref="D460:E460"/>
+    <mergeCell ref="F460:G460"/>
+    <mergeCell ref="H460:J460"/>
+    <mergeCell ref="B441:B449"/>
+    <mergeCell ref="C441:C446"/>
+    <mergeCell ref="D448:E448"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="H448:J448"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="H449:J449"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="D452:E452"/>
+    <mergeCell ref="F452:G452"/>
+    <mergeCell ref="H452:J452"/>
+    <mergeCell ref="B432:B437"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D436:E436"/>
+    <mergeCell ref="F436:G436"/>
+    <mergeCell ref="H436:J436"/>
+    <mergeCell ref="F437:G437"/>
+    <mergeCell ref="H437:J437"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="D440:E440"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="H440:J440"/>
+    <mergeCell ref="B420:B428"/>
+    <mergeCell ref="C420:C425"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="F427:G427"/>
+    <mergeCell ref="H427:J427"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="H428:J428"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:E431"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="H431:J431"/>
+    <mergeCell ref="B410:B416"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="D415:E415"/>
+    <mergeCell ref="F415:G415"/>
+    <mergeCell ref="H415:J415"/>
+    <mergeCell ref="F416:G416"/>
+    <mergeCell ref="H416:J416"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="D419:E419"/>
+    <mergeCell ref="F419:G419"/>
+    <mergeCell ref="H419:J419"/>
+    <mergeCell ref="B345:B351"/>
+    <mergeCell ref="C345:C348"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="H350:J350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="H351:J351"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="H409:J409"/>
+    <mergeCell ref="B316:B322"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="H321:J321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="B343:C343"/>
     <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="D345:E345"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="H345:J345"/>
-    <mergeCell ref="B346:B353"/>
-    <mergeCell ref="C346:C350"/>
-    <mergeCell ref="D352:E352"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="H352:J352"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="H353:J353"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="D334:E334"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="H334:J334"/>
-    <mergeCell ref="B335:B342"/>
-    <mergeCell ref="C335:C339"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="H341:J341"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="H342:J342"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="D325:E325"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="H325:J325"/>
-    <mergeCell ref="B326:B331"/>
-    <mergeCell ref="C326:C328"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:J330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:J331"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:J344"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="H303:J303"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="H315:J315"/>
+    <mergeCell ref="B304:B312"/>
+    <mergeCell ref="C304:C309"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="H311:J311"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:J312"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="H285:J285"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="C275:C279"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="H281:J281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="H282:J282"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="H274:J274"/>
+    <mergeCell ref="B265:B271"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="H270:J270"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="H271:J271"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:J264"/>
+    <mergeCell ref="B254:B261"/>
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:J261"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:J253"/>
+    <mergeCell ref="B244:B250"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:J249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H250:J250"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="H243:J243"/>
+    <mergeCell ref="B234:B240"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:J239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:J240"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="H229:J229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="H230:J230"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="H222:J222"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:J210"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:J211"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="B195:B202"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="D38:E38"/>
@@ -7129,349 +8775,144 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D111:E111"/>
     <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="B96:B102"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:J167"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="B195:B202"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="H194:J194"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="H205:J205"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="H218:J218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="H219:J219"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="C223:C227"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:J229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="B234:B240"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:J239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:J240"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="B244:B250"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="H250:J250"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="H243:J243"/>
-    <mergeCell ref="B254:B261"/>
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:J260"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:J261"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:J253"/>
-    <mergeCell ref="B265:B271"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="H270:J270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="H271:J271"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:J264"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="C275:C279"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="H281:J281"/>
-    <mergeCell ref="F282:G282"/>
-    <mergeCell ref="H282:J282"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="H274:J274"/>
-    <mergeCell ref="B286:B290"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="H285:J285"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="H303:J303"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="H315:J315"/>
-    <mergeCell ref="B304:B312"/>
-    <mergeCell ref="C304:C309"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="H311:J311"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="H312:J312"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="H321:J321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="D325:E325"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="H325:J325"/>
+    <mergeCell ref="B326:B332"/>
+    <mergeCell ref="C326:C329"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:J331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="H332:J332"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="B336:B341"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="F354:G354"/>
+    <mergeCell ref="H354:J354"/>
+    <mergeCell ref="B355:B361"/>
+    <mergeCell ref="C355:C358"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="F360:G360"/>
+    <mergeCell ref="H360:J360"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="H361:J361"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B364:C364"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="H364:J364"/>
+    <mergeCell ref="B365:B371"/>
+    <mergeCell ref="C365:C368"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="F370:G370"/>
+    <mergeCell ref="H370:J370"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="H371:J371"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="H374:J374"/>
+    <mergeCell ref="B375:B379"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="B383:B388"/>
+    <mergeCell ref="C383:C385"/>
+    <mergeCell ref="D387:E387"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="H387:J387"/>
+    <mergeCell ref="F388:G388"/>
+    <mergeCell ref="H388:J388"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="F391:G391"/>
+    <mergeCell ref="H391:J391"/>
+    <mergeCell ref="B392:B397"/>
+    <mergeCell ref="C392:C394"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="H396:J396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="H397:J397"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="D400:E400"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="H400:J400"/>
+    <mergeCell ref="B401:B406"/>
+    <mergeCell ref="C401:C403"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="F405:G405"/>
+    <mergeCell ref="H405:J405"/>
+    <mergeCell ref="F406:G406"/>
+    <mergeCell ref="H406:J406"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4조/최종문서/OWL_요구사항명세서(ver.2).xlsx
+++ b/4조/최종문서/OWL_요구사항명세서(ver.2).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OWL\4조\최종문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
@@ -632,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이슈의 이동과 행적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">3. 이슈가 클로즈 칼럼으로 이동될 시 자동으로 클로즈되고, 클로즈 칼럼에서 다른 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,10 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공지사함 열람기능 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 프로젝트 멤버는 공지사항을 열람할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1108,14 +1105,22 @@
   </si>
   <si>
     <t>20.02.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈의 이동과 이동 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">댓글과 댓글에서의 언급기능 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,6 +1480,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,34 +1522,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,18 +1569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,7 +1630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1657,9 +1662,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1691,6 +1697,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1866,28 +1873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K487"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="M306" sqref="M306"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="N269" sqref="N269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
@@ -1898,36 +1905,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="8" spans="2:10" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B9" s="35" t="s">
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1938,28 +1945,28 @@
       <c r="I9" s="13"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B11" s="44" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1972,21 +1979,21 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="44"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="58" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="36"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-    </row>
-    <row r="13" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B13" s="44"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="36"/>
       <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
@@ -1998,47 +2005,47 @@
       <c r="I13" s="13"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B14" s="44"/>
+    <row r="14" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="36"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="47" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B15" s="44"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="36"/>
       <c r="C15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="35" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
@@ -2049,25 +2056,25 @@
       <c r="I17" s="13"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="44" t="s">
+      <c r="I18" s="43"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -2083,8 +2090,8 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="44"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="36"/>
       <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
@@ -2096,47 +2103,47 @@
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="44"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="36"/>
       <c r="C21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="44"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="36"/>
       <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="35" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="10" t="s">
         <v>19</v>
       </c>
@@ -2147,28 +2154,28 @@
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="44" t="s">
+      <c r="I25" s="43"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2181,9 +2188,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="44"/>
-      <c r="C27" s="48"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="36"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
@@ -2194,8 +2201,8 @@
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="44"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="36"/>
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -2207,47 +2214,47 @@
       <c r="I28" s="13"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="44"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="36"/>
       <c r="C29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="47" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="36"/>
       <c r="C30" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="35" t="s">
+      <c r="G30" s="44"/>
+      <c r="H30" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="10" t="s">
         <v>14</v>
       </c>
@@ -2258,28 +2265,28 @@
       <c r="I32" s="13"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="44" t="s">
+      <c r="I33" s="43"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2292,9 +2299,9 @@
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="44"/>
-      <c r="C35" s="46"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="36"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="6" t="s">
         <v>41</v>
       </c>
@@ -2305,9 +2312,9 @@
       <c r="I35" s="4"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="44"/>
-      <c r="C36" s="47"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="36"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6" t="s">
         <v>42</v>
       </c>
@@ -2318,8 +2325,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="44"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="36"/>
       <c r="C37" s="15" t="s">
         <v>5</v>
       </c>
@@ -2331,47 +2338,47 @@
       <c r="I37" s="13"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="44"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="36"/>
       <c r="C38" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="47" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="41" t="s">
+      <c r="G38" s="42"/>
+      <c r="H38" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="44"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="36"/>
       <c r="C39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="35" t="s">
+      <c r="G39" s="44"/>
+      <c r="H39" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="10" t="s">
         <v>18</v>
       </c>
@@ -2382,28 +2389,28 @@
       <c r="I41" s="13"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="35" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41" t="s">
+      <c r="G42" s="49"/>
+      <c r="H42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="44" t="s">
+      <c r="I42" s="43"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2416,9 +2423,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="44"/>
-      <c r="C44" s="46"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="6" t="s">
         <v>46</v>
       </c>
@@ -2429,9 +2436,9 @@
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="44"/>
-      <c r="C45" s="47"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="36"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="7" t="s">
         <v>47</v>
       </c>
@@ -2442,8 +2449,8 @@
       <c r="I45" s="8"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="36"/>
       <c r="C46" s="15" t="s">
         <v>5</v>
       </c>
@@ -2455,47 +2462,47 @@
       <c r="I46" s="13"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="44"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="36"/>
       <c r="C47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="47" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="41" t="s">
+      <c r="G47" s="42"/>
+      <c r="H47" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="44"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="36"/>
       <c r="C48" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="35" t="s">
+      <c r="G48" s="44"/>
+      <c r="H48" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="43"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="10" t="s">
         <v>43</v>
       </c>
@@ -2506,28 +2513,28 @@
       <c r="I50" s="13"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="35" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39" t="s">
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41" t="s">
+      <c r="G51" s="49"/>
+      <c r="H51" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="44" t="s">
+      <c r="I51" s="43"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2540,9 +2547,9 @@
       <c r="I52" s="2"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="44"/>
-      <c r="C53" s="48"/>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="36"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="6" t="s">
         <v>50</v>
       </c>
@@ -2553,9 +2560,9 @@
       <c r="I53" s="4"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="44"/>
-      <c r="C54" s="48"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="36"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="28" t="s">
         <v>51</v>
       </c>
@@ -2566,8 +2573,8 @@
       <c r="I54" s="4"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="44"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="36"/>
       <c r="C55" s="15" t="s">
         <v>5</v>
       </c>
@@ -2579,47 +2586,47 @@
       <c r="I55" s="13"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="44"/>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="36"/>
       <c r="C56" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="47" t="s">
+      <c r="E56" s="40"/>
+      <c r="F56" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="39"/>
-      <c r="H56" s="41" t="s">
+      <c r="G56" s="42"/>
+      <c r="H56" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="43"/>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="44"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="36"/>
       <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="35" t="s">
+      <c r="G57" s="44"/>
+      <c r="H57" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" s="43"/>
+      <c r="J57" s="40"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="10" t="s">
         <v>52</v>
       </c>
@@ -2630,28 +2637,28 @@
       <c r="I59" s="13"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="35" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39" t="s">
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="41" t="s">
+      <c r="G60" s="49"/>
+      <c r="H60" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="43"/>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="44" t="s">
+      <c r="I60" s="43"/>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2664,9 +2671,9 @@
       <c r="I61" s="2"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="44"/>
-      <c r="C62" s="48"/>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B62" s="36"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="6" t="s">
         <v>59</v>
       </c>
@@ -2677,9 +2684,9 @@
       <c r="I62" s="4"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="44"/>
-      <c r="C63" s="48"/>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="36"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="6" t="s">
         <v>60</v>
       </c>
@@ -2690,8 +2697,8 @@
       <c r="I63" s="4"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="44"/>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" s="36"/>
       <c r="C64" s="15" t="s">
         <v>5</v>
       </c>
@@ -2703,47 +2710,47 @@
       <c r="I64" s="13"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="44"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="36"/>
       <c r="C65" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="47" t="s">
+      <c r="E65" s="40"/>
+      <c r="F65" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="39"/>
-      <c r="H65" s="41" t="s">
+      <c r="G65" s="42"/>
+      <c r="H65" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="43"/>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="44"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="40"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="36"/>
       <c r="C66" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="48"/>
-      <c r="H66" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I66" s="42"/>
-      <c r="J66" s="43"/>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="35" t="s">
+      <c r="G66" s="44"/>
+      <c r="H66" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" s="43"/>
+      <c r="J66" s="40"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="36"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="10" t="s">
         <v>54</v>
       </c>
@@ -2754,25 +2761,25 @@
       <c r="I68" s="13"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="35" t="s">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39" t="s">
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41" t="s">
+      <c r="G69" s="49"/>
+      <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="44" t="s">
+      <c r="I69" s="43"/>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B70" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -2788,8 +2795,8 @@
       <c r="I70" s="2"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="44"/>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B71" s="36"/>
       <c r="C71" s="15" t="s">
         <v>5</v>
       </c>
@@ -2801,47 +2808,47 @@
       <c r="I71" s="13"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="44"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="36"/>
       <c r="C72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="47" t="s">
+      <c r="E72" s="40"/>
+      <c r="F72" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="39"/>
-      <c r="H72" s="41" t="s">
+      <c r="G72" s="42"/>
+      <c r="H72" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="44"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B73" s="36"/>
       <c r="C73" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I73" s="42"/>
-      <c r="J73" s="43"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="35" t="s">
+      <c r="G73" s="44"/>
+      <c r="H73" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" s="43"/>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2852,28 +2859,28 @@
       <c r="I75" s="13"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="35" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="39" t="s">
+      <c r="C76" s="46"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="41" t="s">
+      <c r="G76" s="49"/>
+      <c r="H76" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="44" t="s">
+      <c r="I76" s="43"/>
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B77" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2886,9 +2893,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="44"/>
-      <c r="C78" s="48"/>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B78" s="36"/>
+      <c r="C78" s="44"/>
       <c r="D78" s="6" t="s">
         <v>57</v>
       </c>
@@ -2899,9 +2906,9 @@
       <c r="I78" s="4"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="44"/>
-      <c r="C79" s="48"/>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B79" s="36"/>
+      <c r="C79" s="44"/>
       <c r="D79" s="6" t="s">
         <v>58</v>
       </c>
@@ -2912,8 +2919,8 @@
       <c r="I79" s="4"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="44"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B80" s="36"/>
       <c r="C80" s="15" t="s">
         <v>5</v>
       </c>
@@ -2925,47 +2932,47 @@
       <c r="I80" s="13"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="44"/>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B81" s="36"/>
       <c r="C81" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="47" t="s">
+      <c r="E81" s="40"/>
+      <c r="F81" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="41" t="s">
+      <c r="G81" s="42"/>
+      <c r="H81" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="42"/>
-      <c r="J81" s="43"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="44"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="36"/>
       <c r="C82" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="48" t="s">
+      <c r="F82" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="48"/>
-      <c r="H82" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="35" t="s">
+      <c r="G82" s="44"/>
+      <c r="H82" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82" s="43"/>
+      <c r="J82" s="40"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B84" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="10" t="s">
         <v>61</v>
       </c>
@@ -2976,28 +2983,28 @@
       <c r="I84" s="13"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="35" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B85" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39" t="s">
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="40"/>
-      <c r="H85" s="41" t="s">
+      <c r="G85" s="49"/>
+      <c r="H85" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" s="44" t="s">
+      <c r="I85" s="43"/>
+      <c r="J85" s="40"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B86" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -3010,9 +3017,9 @@
       <c r="I86" s="2"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="44"/>
-      <c r="C87" s="48"/>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B87" s="36"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="6" t="s">
         <v>64</v>
       </c>
@@ -3023,9 +3030,9 @@
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="44"/>
-      <c r="C88" s="48"/>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B88" s="36"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="22" t="s">
         <v>65</v>
       </c>
@@ -3036,9 +3043,9 @@
       <c r="I88" s="4"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="44"/>
-      <c r="C89" s="48"/>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B89" s="36"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="17" t="s">
         <v>24</v>
       </c>
@@ -3049,8 +3056,8 @@
       <c r="I89" s="4"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="44"/>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B90" s="36"/>
       <c r="C90" s="15" t="s">
         <v>5</v>
       </c>
@@ -3062,47 +3069,47 @@
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="44"/>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B91" s="36"/>
       <c r="C91" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D91" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="43"/>
-      <c r="F91" s="47" t="s">
+      <c r="E91" s="40"/>
+      <c r="F91" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="41" t="s">
+      <c r="G91" s="42"/>
+      <c r="H91" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="42"/>
-      <c r="J91" s="43"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="44"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B92" s="36"/>
       <c r="C92" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="48"/>
-      <c r="H92" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="43"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="35" t="s">
+      <c r="G92" s="44"/>
+      <c r="H92" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I92" s="43"/>
+      <c r="J92" s="40"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B94" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="36"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="10" t="s">
         <v>61</v>
       </c>
@@ -3113,28 +3120,28 @@
       <c r="I94" s="13"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="35" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B95" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39" t="s">
+      <c r="C95" s="46"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G95" s="40"/>
-      <c r="H95" s="41" t="s">
+      <c r="G95" s="49"/>
+      <c r="H95" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I95" s="42"/>
-      <c r="J95" s="43"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="44" t="s">
+      <c r="I95" s="43"/>
+      <c r="J95" s="40"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B96" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -3147,9 +3154,9 @@
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="44"/>
-      <c r="C97" s="48"/>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B97" s="36"/>
+      <c r="C97" s="44"/>
       <c r="D97" s="6" t="s">
         <v>75</v>
       </c>
@@ -3160,9 +3167,9 @@
       <c r="I97" s="4"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="44"/>
-      <c r="C98" s="48"/>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B98" s="36"/>
+      <c r="C98" s="44"/>
       <c r="D98" s="6" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3180,9 @@
       <c r="I98" s="4"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="44"/>
-      <c r="C99" s="48"/>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B99" s="36"/>
+      <c r="C99" s="44"/>
       <c r="D99" s="6" t="s">
         <v>74</v>
       </c>
@@ -3186,8 +3193,8 @@
       <c r="I99" s="4"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="44"/>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B100" s="36"/>
       <c r="C100" s="15" t="s">
         <v>5</v>
       </c>
@@ -3199,44 +3206,44 @@
       <c r="I100" s="13"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="44"/>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B101" s="36"/>
       <c r="C101" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="47" t="s">
+      <c r="E101" s="40"/>
+      <c r="F101" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="39"/>
-      <c r="H101" s="41" t="s">
+      <c r="G101" s="42"/>
+      <c r="H101" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="42"/>
-      <c r="J101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="40"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="44"/>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B102" s="36"/>
       <c r="C102" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="48" t="s">
+      <c r="F102" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G102" s="48"/>
-      <c r="H102" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I102" s="42"/>
-      <c r="J102" s="43"/>
-    </row>
-    <row r="103" spans="2:11" s="21" customFormat="1">
+      <c r="G102" s="44"/>
+      <c r="H102" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102" s="43"/>
+      <c r="J102" s="40"/>
+    </row>
+    <row r="103" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="24"/>
       <c r="C103" s="19"/>
       <c r="D103" s="23"/>
@@ -3248,11 +3255,11 @@
       <c r="J103" s="20"/>
       <c r="K103" s="22"/>
     </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="35" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B104" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="36"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="10" t="s">
         <v>61</v>
       </c>
@@ -3263,28 +3270,28 @@
       <c r="I104" s="13"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="35" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B105" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="39" t="s">
+      <c r="C105" s="46"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="41" t="s">
+      <c r="G105" s="49"/>
+      <c r="H105" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I105" s="42"/>
-      <c r="J105" s="43"/>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="44" t="s">
+      <c r="I105" s="43"/>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B106" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="48" t="s">
+      <c r="C106" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -3297,9 +3304,9 @@
       <c r="I106" s="2"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="44"/>
-      <c r="C107" s="48"/>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B107" s="36"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="6" t="s">
         <v>69</v>
       </c>
@@ -3310,9 +3317,9 @@
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="44"/>
-      <c r="C108" s="48"/>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B108" s="36"/>
+      <c r="C108" s="44"/>
       <c r="D108" s="6" t="s">
         <v>76</v>
       </c>
@@ -3323,9 +3330,9 @@
       <c r="I108" s="4"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="44"/>
-      <c r="C109" s="48"/>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B109" s="36"/>
+      <c r="C109" s="44"/>
       <c r="D109" s="6" t="s">
         <v>25</v>
       </c>
@@ -3336,8 +3343,8 @@
       <c r="I109" s="4"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="44"/>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B110" s="36"/>
       <c r="C110" s="15" t="s">
         <v>5</v>
       </c>
@@ -3349,47 +3356,47 @@
       <c r="I110" s="13"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="44"/>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B111" s="36"/>
       <c r="C111" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="43"/>
-      <c r="F111" s="47" t="s">
+      <c r="E111" s="40"/>
+      <c r="F111" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="39"/>
-      <c r="H111" s="41" t="s">
+      <c r="G111" s="42"/>
+      <c r="H111" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="42"/>
-      <c r="J111" s="43"/>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="44"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B112" s="36"/>
       <c r="C112" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="8"/>
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="48"/>
-      <c r="H112" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I112" s="42"/>
-      <c r="J112" s="43"/>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="35" t="s">
+      <c r="G112" s="44"/>
+      <c r="H112" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I112" s="43"/>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B114" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="36"/>
+      <c r="C114" s="46"/>
       <c r="D114" s="10" t="s">
         <v>80</v>
       </c>
@@ -3400,28 +3407,28 @@
       <c r="I114" s="13"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="2:10">
-      <c r="B115" s="35" t="s">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B115" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39" t="s">
+      <c r="C115" s="46"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G115" s="40"/>
-      <c r="H115" s="41" t="s">
+      <c r="G115" s="49"/>
+      <c r="H115" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I115" s="42"/>
-      <c r="J115" s="43"/>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="44" t="s">
+      <c r="I115" s="43"/>
+      <c r="J115" s="40"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B116" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3434,9 +3441,9 @@
       <c r="I116" s="2"/>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="2:10">
-      <c r="B117" s="44"/>
-      <c r="C117" s="48"/>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B117" s="36"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="6" t="s">
         <v>82</v>
       </c>
@@ -3447,9 +3454,9 @@
       <c r="I117" s="4"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="2:10">
-      <c r="B118" s="44"/>
-      <c r="C118" s="48"/>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B118" s="36"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="6" t="s">
         <v>71</v>
       </c>
@@ -3460,9 +3467,9 @@
       <c r="I118" s="4"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="2:10">
-      <c r="B119" s="44"/>
-      <c r="C119" s="48"/>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B119" s="36"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="6" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3480,8 @@
       <c r="I119" s="4"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="44"/>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B120" s="36"/>
       <c r="C120" s="15" t="s">
         <v>5</v>
       </c>
@@ -3486,47 +3493,47 @@
       <c r="I120" s="13"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="2:10">
-      <c r="B121" s="44"/>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B121" s="36"/>
       <c r="C121" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="41" t="s">
+      <c r="D121" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="43"/>
-      <c r="F121" s="47" t="s">
+      <c r="E121" s="40"/>
+      <c r="F121" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="39"/>
-      <c r="H121" s="41" t="s">
+      <c r="G121" s="42"/>
+      <c r="H121" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I121" s="42"/>
-      <c r="J121" s="43"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="44"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="40"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B122" s="36"/>
       <c r="C122" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="48" t="s">
+      <c r="F122" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="48"/>
-      <c r="H122" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I122" s="42"/>
-      <c r="J122" s="43"/>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="35" t="s">
+      <c r="G122" s="44"/>
+      <c r="H122" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I122" s="43"/>
+      <c r="J122" s="40"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B124" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="36"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="10" t="s">
         <v>80</v>
       </c>
@@ -3537,26 +3544,26 @@
       <c r="I124" s="13"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="35" t="s">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B125" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="39" t="s">
+      <c r="C125" s="46"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G125" s="40"/>
-      <c r="H125" s="41" t="s">
+      <c r="G125" s="49"/>
+      <c r="H125" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="42"/>
-      <c r="J125" s="43"/>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="B126" s="44"/>
-      <c r="C126" s="48" t="s">
+      <c r="I125" s="43"/>
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B126" s="36"/>
+      <c r="C126" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3569,9 +3576,9 @@
       <c r="I126" s="4"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="44"/>
-      <c r="C127" s="48"/>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B127" s="36"/>
+      <c r="C127" s="44"/>
       <c r="D127" s="6" t="s">
         <v>77</v>
       </c>
@@ -3582,8 +3589,8 @@
       <c r="I127" s="4"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="44"/>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B128" s="36"/>
       <c r="C128" s="15" t="s">
         <v>5</v>
       </c>
@@ -3595,47 +3602,47 @@
       <c r="I128" s="13"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="2:10">
-      <c r="B129" s="44"/>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B129" s="36"/>
       <c r="C129" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="41" t="s">
+      <c r="D129" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E129" s="43"/>
-      <c r="F129" s="47" t="s">
+      <c r="E129" s="40"/>
+      <c r="F129" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="39"/>
-      <c r="H129" s="41" t="s">
+      <c r="G129" s="42"/>
+      <c r="H129" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I129" s="42"/>
-      <c r="J129" s="43"/>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130" s="44"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="40"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B130" s="36"/>
       <c r="C130" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="48" t="s">
+      <c r="F130" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="48"/>
-      <c r="H130" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I130" s="42"/>
-      <c r="J130" s="43"/>
-    </row>
-    <row r="132" spans="2:10">
-      <c r="B132" s="35" t="s">
+      <c r="G130" s="44"/>
+      <c r="H130" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I130" s="43"/>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B132" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C132" s="36"/>
+      <c r="C132" s="46"/>
       <c r="D132" s="10" t="s">
         <v>85</v>
       </c>
@@ -3646,28 +3653,28 @@
       <c r="I132" s="13"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="2:10">
-      <c r="B133" s="35" t="s">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B133" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="39" t="s">
+      <c r="C133" s="46"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G133" s="40"/>
-      <c r="H133" s="41" t="s">
+      <c r="G133" s="49"/>
+      <c r="H133" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I133" s="42"/>
-      <c r="J133" s="43"/>
-    </row>
-    <row r="134" spans="2:10">
-      <c r="B134" s="44" t="s">
+      <c r="I133" s="43"/>
+      <c r="J133" s="40"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B134" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="48" t="s">
+      <c r="C134" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -3680,9 +3687,9 @@
       <c r="I134" s="2"/>
       <c r="J134" s="3"/>
     </row>
-    <row r="135" spans="2:10">
-      <c r="B135" s="44"/>
-      <c r="C135" s="48"/>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B135" s="36"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="6" t="s">
         <v>87</v>
       </c>
@@ -3693,9 +3700,9 @@
       <c r="I135" s="4"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="2:10">
-      <c r="B136" s="44"/>
-      <c r="C136" s="48"/>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B136" s="36"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="6" t="s">
         <v>89</v>
       </c>
@@ -3706,8 +3713,8 @@
       <c r="I136" s="4"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="2:10">
-      <c r="B137" s="44"/>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B137" s="36"/>
       <c r="C137" s="15" t="s">
         <v>5</v>
       </c>
@@ -3719,47 +3726,47 @@
       <c r="I137" s="13"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="2:10">
-      <c r="B138" s="44"/>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B138" s="36"/>
       <c r="C138" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="41" t="s">
+      <c r="D138" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="43"/>
-      <c r="F138" s="47" t="s">
+      <c r="E138" s="40"/>
+      <c r="F138" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="39"/>
-      <c r="H138" s="41" t="s">
+      <c r="G138" s="42"/>
+      <c r="H138" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I138" s="42"/>
-      <c r="J138" s="43"/>
-    </row>
-    <row r="139" spans="2:10">
-      <c r="B139" s="44"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="40"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B139" s="36"/>
       <c r="C139" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="48" t="s">
+      <c r="F139" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="48"/>
-      <c r="H139" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I139" s="42"/>
-      <c r="J139" s="43"/>
-    </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="35" t="s">
+      <c r="G139" s="44"/>
+      <c r="H139" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I139" s="43"/>
+      <c r="J139" s="40"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B141" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C141" s="36"/>
+      <c r="C141" s="46"/>
       <c r="D141" s="10" t="s">
         <v>85</v>
       </c>
@@ -3770,28 +3777,28 @@
       <c r="I141" s="13"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="2:10">
-      <c r="B142" s="35" t="s">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B142" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="38"/>
-      <c r="F142" s="39" t="s">
+      <c r="C142" s="46"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G142" s="40"/>
-      <c r="H142" s="61" t="s">
+      <c r="G142" s="49"/>
+      <c r="H142" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="I142" s="62"/>
-      <c r="J142" s="63"/>
-    </row>
-    <row r="143" spans="2:10">
-      <c r="B143" s="44" t="s">
+      <c r="I142" s="51"/>
+      <c r="J142" s="52"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B143" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -3804,9 +3811,9 @@
       <c r="I143" s="2"/>
       <c r="J143" s="3"/>
     </row>
-    <row r="144" spans="2:10">
-      <c r="B144" s="44"/>
-      <c r="C144" s="48"/>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B144" s="36"/>
+      <c r="C144" s="44"/>
       <c r="D144" s="6" t="s">
         <v>88</v>
       </c>
@@ -3817,9 +3824,9 @@
       <c r="I144" s="4"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="2:10">
-      <c r="B145" s="44"/>
-      <c r="C145" s="48"/>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B145" s="36"/>
+      <c r="C145" s="44"/>
       <c r="D145" s="6" t="s">
         <v>92</v>
       </c>
@@ -3830,8 +3837,8 @@
       <c r="I145" s="4"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="2:10">
-      <c r="B146" s="44"/>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B146" s="36"/>
       <c r="C146" s="15" t="s">
         <v>5</v>
       </c>
@@ -3843,47 +3850,47 @@
       <c r="I146" s="13"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="2:10">
-      <c r="B147" s="44"/>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B147" s="36"/>
       <c r="C147" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="41" t="s">
+      <c r="D147" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="43"/>
-      <c r="F147" s="47" t="s">
+      <c r="E147" s="40"/>
+      <c r="F147" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G147" s="39"/>
-      <c r="H147" s="41" t="s">
+      <c r="G147" s="42"/>
+      <c r="H147" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I147" s="42"/>
-      <c r="J147" s="43"/>
-    </row>
-    <row r="148" spans="2:10">
-      <c r="B148" s="44"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="40"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B148" s="36"/>
       <c r="C148" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="8"/>
-      <c r="F148" s="48" t="s">
+      <c r="F148" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G148" s="48"/>
-      <c r="H148" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I148" s="42"/>
-      <c r="J148" s="43"/>
-    </row>
-    <row r="150" spans="2:10">
-      <c r="B150" s="35" t="s">
+      <c r="G148" s="44"/>
+      <c r="H148" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148" s="43"/>
+      <c r="J148" s="40"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B150" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="36"/>
+      <c r="C150" s="46"/>
       <c r="D150" s="25" t="s">
         <v>90</v>
       </c>
@@ -3894,28 +3901,28 @@
       <c r="I150" s="13"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10">
-      <c r="B151" s="35" t="s">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B151" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="39" t="s">
+      <c r="C151" s="46"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G151" s="40"/>
-      <c r="H151" s="61" t="s">
+      <c r="G151" s="49"/>
+      <c r="H151" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I151" s="62"/>
-      <c r="J151" s="63"/>
-    </row>
-    <row r="152" spans="2:10">
-      <c r="B152" s="44" t="s">
+      <c r="I151" s="51"/>
+      <c r="J151" s="52"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B152" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -3928,9 +3935,9 @@
       <c r="I152" s="2"/>
       <c r="J152" s="3"/>
     </row>
-    <row r="153" spans="2:10">
-      <c r="B153" s="44"/>
-      <c r="C153" s="48"/>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B153" s="36"/>
+      <c r="C153" s="44"/>
       <c r="D153" s="6" t="s">
         <v>94</v>
       </c>
@@ -3941,9 +3948,9 @@
       <c r="I153" s="4"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="2:10">
-      <c r="B154" s="44"/>
-      <c r="C154" s="48"/>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B154" s="36"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="31" t="s">
         <v>95</v>
       </c>
@@ -3954,8 +3961,8 @@
       <c r="I154" s="4"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="44"/>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B155" s="36"/>
       <c r="C155" s="15" t="s">
         <v>5</v>
       </c>
@@ -3967,47 +3974,47 @@
       <c r="I155" s="13"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="2:10">
-      <c r="B156" s="44"/>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B156" s="36"/>
       <c r="C156" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="41" t="s">
+      <c r="D156" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="43"/>
-      <c r="F156" s="47" t="s">
+      <c r="E156" s="40"/>
+      <c r="F156" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="39"/>
-      <c r="H156" s="41" t="s">
+      <c r="G156" s="42"/>
+      <c r="H156" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I156" s="42"/>
-      <c r="J156" s="43"/>
-    </row>
-    <row r="157" spans="2:10">
-      <c r="B157" s="44"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="40"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B157" s="36"/>
       <c r="C157" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="48" t="s">
+      <c r="F157" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G157" s="48"/>
-      <c r="H157" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I157" s="42"/>
-      <c r="J157" s="43"/>
-    </row>
-    <row r="159" spans="2:10">
-      <c r="B159" s="35" t="s">
+      <c r="G157" s="44"/>
+      <c r="H157" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I157" s="43"/>
+      <c r="J157" s="40"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B159" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="36"/>
+      <c r="C159" s="46"/>
       <c r="D159" s="10" t="s">
         <v>103</v>
       </c>
@@ -4018,28 +4025,28 @@
       <c r="I159" s="13"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="2:10">
-      <c r="B160" s="35" t="s">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B160" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="36"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="39" t="s">
+      <c r="C160" s="46"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G160" s="40"/>
-      <c r="H160" s="41" t="s">
+      <c r="G160" s="49"/>
+      <c r="H160" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="I160" s="42"/>
-      <c r="J160" s="43"/>
-    </row>
-    <row r="161" spans="2:10">
-      <c r="B161" s="44" t="s">
+      <c r="I160" s="43"/>
+      <c r="J160" s="40"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B161" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="48" t="s">
+      <c r="C161" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -4052,9 +4059,9 @@
       <c r="I161" s="2"/>
       <c r="J161" s="3"/>
     </row>
-    <row r="162" spans="2:10">
-      <c r="B162" s="44"/>
-      <c r="C162" s="48"/>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B162" s="36"/>
+      <c r="C162" s="44"/>
       <c r="D162" s="6" t="s">
         <v>102</v>
       </c>
@@ -4065,9 +4072,9 @@
       <c r="I162" s="4"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="2:10">
-      <c r="B163" s="44"/>
-      <c r="C163" s="48"/>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B163" s="36"/>
+      <c r="C163" s="44"/>
       <c r="D163" s="6" t="s">
         <v>100</v>
       </c>
@@ -4078,9 +4085,9 @@
       <c r="I163" s="4"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="2:10">
-      <c r="B164" s="44"/>
-      <c r="C164" s="48"/>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B164" s="36"/>
+      <c r="C164" s="44"/>
       <c r="D164" s="6" t="s">
         <v>101</v>
       </c>
@@ -4091,8 +4098,8 @@
       <c r="I164" s="4"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="2:10">
-      <c r="B165" s="44"/>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B165" s="36"/>
       <c r="C165" s="15" t="s">
         <v>5</v>
       </c>
@@ -4104,47 +4111,47 @@
       <c r="I165" s="13"/>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="2:10">
-      <c r="B166" s="44"/>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B166" s="36"/>
       <c r="C166" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="41" t="s">
+      <c r="D166" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E166" s="43"/>
-      <c r="F166" s="47" t="s">
+      <c r="E166" s="40"/>
+      <c r="F166" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="39"/>
-      <c r="H166" s="41" t="s">
+      <c r="G166" s="42"/>
+      <c r="H166" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I166" s="42"/>
-      <c r="J166" s="43"/>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="B167" s="44"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="40"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B167" s="36"/>
       <c r="C167" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="48" t="s">
+      <c r="F167" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="48"/>
-      <c r="H167" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I167" s="42"/>
-      <c r="J167" s="43"/>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="B169" s="35" t="s">
+      <c r="G167" s="44"/>
+      <c r="H167" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I167" s="43"/>
+      <c r="J167" s="40"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B169" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="36"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="10" t="s">
         <v>103</v>
       </c>
@@ -4155,28 +4162,28 @@
       <c r="I169" s="13"/>
       <c r="J169" s="11"/>
     </row>
-    <row r="170" spans="2:10">
-      <c r="B170" s="35" t="s">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B170" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="36"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="38"/>
-      <c r="F170" s="39" t="s">
+      <c r="C170" s="46"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G170" s="40"/>
-      <c r="H170" s="41" t="s">
+      <c r="G170" s="49"/>
+      <c r="H170" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I170" s="42"/>
-      <c r="J170" s="43"/>
-    </row>
-    <row r="171" spans="2:10">
-      <c r="B171" s="44" t="s">
+      <c r="I170" s="43"/>
+      <c r="J170" s="40"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B171" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="48" t="s">
+      <c r="C171" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -4189,9 +4196,9 @@
       <c r="I171" s="2"/>
       <c r="J171" s="3"/>
     </row>
-    <row r="172" spans="2:10">
-      <c r="B172" s="44"/>
-      <c r="C172" s="48"/>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B172" s="36"/>
+      <c r="C172" s="44"/>
       <c r="D172" s="6" t="s">
         <v>105</v>
       </c>
@@ -4202,47 +4209,47 @@
       <c r="I172" s="4"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="2:10">
-      <c r="B173" s="44"/>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B173" s="36"/>
       <c r="C173" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="41" t="s">
+      <c r="D173" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E173" s="43"/>
-      <c r="F173" s="48" t="s">
+      <c r="E173" s="40"/>
+      <c r="F173" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G173" s="48"/>
-      <c r="H173" s="41" t="s">
+      <c r="G173" s="44"/>
+      <c r="H173" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I173" s="42"/>
-      <c r="J173" s="43"/>
-    </row>
-    <row r="174" spans="2:10">
-      <c r="B174" s="44"/>
+      <c r="I173" s="43"/>
+      <c r="J173" s="40"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B174" s="36"/>
       <c r="C174" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="48" t="s">
+      <c r="F174" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G174" s="48"/>
-      <c r="H174" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I174" s="42"/>
-      <c r="J174" s="43"/>
-    </row>
-    <row r="176" spans="2:10">
-      <c r="B176" s="35" t="s">
+      <c r="G174" s="44"/>
+      <c r="H174" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I174" s="43"/>
+      <c r="J174" s="40"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B176" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C176" s="36"/>
+      <c r="C176" s="46"/>
       <c r="D176" s="10" t="s">
         <v>90</v>
       </c>
@@ -4253,28 +4260,28 @@
       <c r="I176" s="13"/>
       <c r="J176" s="11"/>
     </row>
-    <row r="177" spans="2:10">
-      <c r="B177" s="35" t="s">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B177" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="36"/>
-      <c r="D177" s="37"/>
-      <c r="E177" s="38"/>
-      <c r="F177" s="39" t="s">
+      <c r="C177" s="46"/>
+      <c r="D177" s="47"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G177" s="40"/>
-      <c r="H177" s="41" t="s">
+      <c r="G177" s="49"/>
+      <c r="H177" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="I177" s="42"/>
-      <c r="J177" s="43"/>
-    </row>
-    <row r="178" spans="2:10">
-      <c r="B178" s="44" t="s">
+      <c r="I177" s="43"/>
+      <c r="J177" s="40"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B178" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="48" t="s">
+      <c r="C178" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -4287,9 +4294,9 @@
       <c r="I178" s="2"/>
       <c r="J178" s="3"/>
     </row>
-    <row r="179" spans="2:10">
-      <c r="B179" s="44"/>
-      <c r="C179" s="48"/>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B179" s="36"/>
+      <c r="C179" s="44"/>
       <c r="D179" s="6" t="s">
         <v>108</v>
       </c>
@@ -4300,9 +4307,9 @@
       <c r="I179" s="4"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="2:10">
-      <c r="B180" s="44"/>
-      <c r="C180" s="48"/>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B180" s="36"/>
+      <c r="C180" s="44"/>
       <c r="D180" s="6" t="s">
         <v>109</v>
       </c>
@@ -4313,8 +4320,8 @@
       <c r="I180" s="4"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="44"/>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B181" s="36"/>
       <c r="C181" s="15" t="s">
         <v>5</v>
       </c>
@@ -4326,47 +4333,47 @@
       <c r="I181" s="13"/>
       <c r="J181" s="11"/>
     </row>
-    <row r="182" spans="2:10">
-      <c r="B182" s="44"/>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B182" s="36"/>
       <c r="C182" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="41" t="s">
+      <c r="D182" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E182" s="43"/>
-      <c r="F182" s="47" t="s">
+      <c r="E182" s="40"/>
+      <c r="F182" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G182" s="39"/>
-      <c r="H182" s="41" t="s">
+      <c r="G182" s="42"/>
+      <c r="H182" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I182" s="42"/>
-      <c r="J182" s="43"/>
-    </row>
-    <row r="183" spans="2:10">
-      <c r="B183" s="44"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="40"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B183" s="36"/>
       <c r="C183" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="48" t="s">
+      <c r="F183" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="48"/>
-      <c r="H183" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I183" s="42"/>
-      <c r="J183" s="43"/>
-    </row>
-    <row r="185" spans="2:10">
-      <c r="B185" s="35" t="s">
+      <c r="G183" s="44"/>
+      <c r="H183" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I183" s="43"/>
+      <c r="J183" s="40"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B185" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C185" s="36"/>
+      <c r="C185" s="46"/>
       <c r="D185" s="10" t="s">
         <v>90</v>
       </c>
@@ -4377,28 +4384,28 @@
       <c r="I185" s="13"/>
       <c r="J185" s="11"/>
     </row>
-    <row r="186" spans="2:10">
-      <c r="B186" s="35" t="s">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B186" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C186" s="36"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="38"/>
-      <c r="F186" s="39" t="s">
+      <c r="C186" s="46"/>
+      <c r="D186" s="47"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G186" s="40"/>
-      <c r="H186" s="41" t="s">
+      <c r="G186" s="49"/>
+      <c r="H186" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I186" s="42"/>
-      <c r="J186" s="43"/>
-    </row>
-    <row r="187" spans="2:10">
-      <c r="B187" s="44" t="s">
+      <c r="I186" s="43"/>
+      <c r="J186" s="40"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B187" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C187" s="48" t="s">
+      <c r="C187" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -4411,9 +4418,9 @@
       <c r="I187" s="2"/>
       <c r="J187" s="3"/>
     </row>
-    <row r="188" spans="2:10">
-      <c r="B188" s="44"/>
-      <c r="C188" s="48"/>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B188" s="36"/>
+      <c r="C188" s="44"/>
       <c r="D188" s="6" t="s">
         <v>113</v>
       </c>
@@ -4424,8 +4431,8 @@
       <c r="I188" s="4"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="2:10">
-      <c r="B189" s="44"/>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B189" s="36"/>
       <c r="C189" s="15" t="s">
         <v>5</v>
       </c>
@@ -4437,47 +4444,47 @@
       <c r="I189" s="13"/>
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="2:10">
-      <c r="B190" s="44"/>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B190" s="36"/>
       <c r="C190" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="41" t="s">
+      <c r="D190" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E190" s="43"/>
-      <c r="F190" s="47" t="s">
+      <c r="E190" s="40"/>
+      <c r="F190" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G190" s="39"/>
-      <c r="H190" s="41" t="s">
+      <c r="G190" s="42"/>
+      <c r="H190" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I190" s="42"/>
-      <c r="J190" s="43"/>
-    </row>
-    <row r="191" spans="2:10">
-      <c r="B191" s="44"/>
+      <c r="I190" s="43"/>
+      <c r="J190" s="40"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B191" s="36"/>
       <c r="C191" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D191" s="7"/>
       <c r="E191" s="8"/>
-      <c r="F191" s="48" t="s">
+      <c r="F191" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="48"/>
-      <c r="H191" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I191" s="42"/>
-      <c r="J191" s="43"/>
-    </row>
-    <row r="193" spans="2:10">
-      <c r="B193" s="35" t="s">
+      <c r="G191" s="44"/>
+      <c r="H191" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I191" s="43"/>
+      <c r="J191" s="40"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B193" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C193" s="36"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="10" t="s">
         <v>115</v>
       </c>
@@ -4488,28 +4495,28 @@
       <c r="I193" s="13"/>
       <c r="J193" s="11"/>
     </row>
-    <row r="194" spans="2:10">
-      <c r="B194" s="35" t="s">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B194" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="36"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="39" t="s">
+      <c r="C194" s="46"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G194" s="40"/>
-      <c r="H194" s="41" t="s">
+      <c r="G194" s="49"/>
+      <c r="H194" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I194" s="42"/>
-      <c r="J194" s="43"/>
-    </row>
-    <row r="195" spans="2:10">
-      <c r="B195" s="44" t="s">
+      <c r="I194" s="43"/>
+      <c r="J194" s="40"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B195" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C195" s="48" t="s">
+      <c r="C195" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="28" t="s">
@@ -4522,9 +4529,9 @@
       <c r="I195" s="2"/>
       <c r="J195" s="3"/>
     </row>
-    <row r="196" spans="2:10">
-      <c r="B196" s="44"/>
-      <c r="C196" s="48"/>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B196" s="36"/>
+      <c r="C196" s="44"/>
       <c r="D196" s="6" t="s">
         <v>119</v>
       </c>
@@ -4535,9 +4542,9 @@
       <c r="I196" s="4"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="2:10">
-      <c r="B197" s="44"/>
-      <c r="C197" s="48"/>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B197" s="36"/>
+      <c r="C197" s="44"/>
       <c r="D197" s="6" t="s">
         <v>117</v>
       </c>
@@ -4548,9 +4555,9 @@
       <c r="I197" s="4"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="2:10">
-      <c r="B198" s="44"/>
-      <c r="C198" s="48"/>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B198" s="36"/>
+      <c r="C198" s="44"/>
       <c r="D198" s="6" t="s">
         <v>120</v>
       </c>
@@ -4561,9 +4568,9 @@
       <c r="I198" s="4"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="2:10">
-      <c r="B199" s="44"/>
-      <c r="C199" s="48"/>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B199" s="36"/>
+      <c r="C199" s="44"/>
       <c r="D199" s="7" t="s">
         <v>121</v>
       </c>
@@ -4574,8 +4581,8 @@
       <c r="I199" s="8"/>
       <c r="J199" s="9"/>
     </row>
-    <row r="200" spans="2:10">
-      <c r="B200" s="44"/>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B200" s="36"/>
       <c r="C200" s="15" t="s">
         <v>5</v>
       </c>
@@ -4587,47 +4594,47 @@
       <c r="I200" s="13"/>
       <c r="J200" s="11"/>
     </row>
-    <row r="201" spans="2:10">
-      <c r="B201" s="44"/>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B201" s="36"/>
       <c r="C201" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D201" s="41" t="s">
+      <c r="D201" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E201" s="43"/>
-      <c r="F201" s="47" t="s">
+      <c r="E201" s="40"/>
+      <c r="F201" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G201" s="39"/>
-      <c r="H201" s="41" t="s">
+      <c r="G201" s="42"/>
+      <c r="H201" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I201" s="42"/>
-      <c r="J201" s="43"/>
-    </row>
-    <row r="202" spans="2:10">
-      <c r="B202" s="44"/>
+      <c r="I201" s="43"/>
+      <c r="J201" s="40"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B202" s="36"/>
       <c r="C202" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D202" s="7"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="48" t="s">
+      <c r="F202" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G202" s="48"/>
-      <c r="H202" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I202" s="42"/>
-      <c r="J202" s="43"/>
-    </row>
-    <row r="204" spans="2:10">
-      <c r="B204" s="35" t="s">
+      <c r="G202" s="44"/>
+      <c r="H202" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I202" s="43"/>
+      <c r="J202" s="40"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B204" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C204" s="36"/>
+      <c r="C204" s="46"/>
       <c r="D204" s="10" t="s">
         <v>114</v>
       </c>
@@ -4638,28 +4645,28 @@
       <c r="I204" s="13"/>
       <c r="J204" s="11"/>
     </row>
-    <row r="205" spans="2:10">
-      <c r="B205" s="35" t="s">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B205" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="38"/>
-      <c r="F205" s="39" t="s">
+      <c r="C205" s="46"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G205" s="40"/>
-      <c r="H205" s="41" t="s">
+      <c r="G205" s="49"/>
+      <c r="H205" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="I205" s="42"/>
-      <c r="J205" s="43"/>
-    </row>
-    <row r="206" spans="2:10">
-      <c r="B206" s="44" t="s">
+      <c r="I205" s="43"/>
+      <c r="J205" s="40"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B206" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C206" s="48" t="s">
+      <c r="C206" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -4672,9 +4679,9 @@
       <c r="I206" s="2"/>
       <c r="J206" s="3"/>
     </row>
-    <row r="207" spans="2:10">
-      <c r="B207" s="44"/>
-      <c r="C207" s="48"/>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B207" s="36"/>
+      <c r="C207" s="44"/>
       <c r="D207" s="6" t="s">
         <v>123</v>
       </c>
@@ -4685,9 +4692,9 @@
       <c r="I207" s="4"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="2:10">
-      <c r="B208" s="44"/>
-      <c r="C208" s="48"/>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B208" s="36"/>
+      <c r="C208" s="44"/>
       <c r="D208" s="6" t="s">
         <v>124</v>
       </c>
@@ -4698,8 +4705,8 @@
       <c r="I208" s="4"/>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="2:10">
-      <c r="B209" s="44"/>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B209" s="36"/>
       <c r="C209" s="15" t="s">
         <v>5</v>
       </c>
@@ -4711,47 +4718,47 @@
       <c r="I209" s="13"/>
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="2:10">
-      <c r="B210" s="44"/>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B210" s="36"/>
       <c r="C210" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D210" s="41" t="s">
+      <c r="D210" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E210" s="43"/>
-      <c r="F210" s="47" t="s">
+      <c r="E210" s="40"/>
+      <c r="F210" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G210" s="39"/>
-      <c r="H210" s="41" t="s">
+      <c r="G210" s="42"/>
+      <c r="H210" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I210" s="42"/>
-      <c r="J210" s="43"/>
-    </row>
-    <row r="211" spans="2:10">
-      <c r="B211" s="44"/>
+      <c r="I210" s="43"/>
+      <c r="J210" s="40"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B211" s="36"/>
       <c r="C211" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="48" t="s">
+      <c r="F211" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G211" s="48"/>
-      <c r="H211" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I211" s="42"/>
-      <c r="J211" s="43"/>
-    </row>
-    <row r="213" spans="2:10">
-      <c r="B213" s="35" t="s">
+      <c r="G211" s="44"/>
+      <c r="H211" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I211" s="43"/>
+      <c r="J211" s="40"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B213" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C213" s="36"/>
+      <c r="C213" s="46"/>
       <c r="D213" s="10" t="s">
         <v>125</v>
       </c>
@@ -4762,28 +4769,28 @@
       <c r="I213" s="13"/>
       <c r="J213" s="11"/>
     </row>
-    <row r="214" spans="2:10">
-      <c r="B214" s="35" t="s">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B214" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C214" s="36"/>
-      <c r="D214" s="37"/>
-      <c r="E214" s="38"/>
-      <c r="F214" s="39" t="s">
+      <c r="C214" s="46"/>
+      <c r="D214" s="47"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G214" s="40"/>
-      <c r="H214" s="41" t="s">
+      <c r="G214" s="49"/>
+      <c r="H214" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="I214" s="42"/>
-      <c r="J214" s="43"/>
-    </row>
-    <row r="215" spans="2:10">
-      <c r="B215" s="44" t="s">
+      <c r="I214" s="43"/>
+      <c r="J214" s="40"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B215" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C215" s="45" t="s">
+      <c r="C215" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -4796,9 +4803,9 @@
       <c r="I215" s="2"/>
       <c r="J215" s="3"/>
     </row>
-    <row r="216" spans="2:10">
-      <c r="B216" s="44"/>
-      <c r="C216" s="47"/>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B216" s="36"/>
+      <c r="C216" s="41"/>
       <c r="D216" s="7" t="s">
         <v>129</v>
       </c>
@@ -4809,8 +4816,8 @@
       <c r="I216" s="8"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="2:10">
-      <c r="B217" s="44"/>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B217" s="36"/>
       <c r="C217" s="15" t="s">
         <v>5</v>
       </c>
@@ -4822,47 +4829,47 @@
       <c r="I217" s="13"/>
       <c r="J217" s="11"/>
     </row>
-    <row r="218" spans="2:10">
-      <c r="B218" s="44"/>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B218" s="36"/>
       <c r="C218" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D218" s="41" t="s">
+      <c r="D218" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E218" s="43"/>
-      <c r="F218" s="47" t="s">
+      <c r="E218" s="40"/>
+      <c r="F218" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G218" s="39"/>
-      <c r="H218" s="41" t="s">
+      <c r="G218" s="42"/>
+      <c r="H218" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I218" s="42"/>
-      <c r="J218" s="43"/>
-    </row>
-    <row r="219" spans="2:10">
-      <c r="B219" s="44"/>
+      <c r="I218" s="43"/>
+      <c r="J218" s="40"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B219" s="36"/>
       <c r="C219" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D219" s="7"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="48" t="s">
+      <c r="F219" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G219" s="48"/>
-      <c r="H219" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I219" s="42"/>
-      <c r="J219" s="43"/>
-    </row>
-    <row r="221" spans="2:10">
-      <c r="B221" s="35" t="s">
+      <c r="G219" s="44"/>
+      <c r="H219" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I219" s="43"/>
+      <c r="J219" s="40"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B221" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="36"/>
+      <c r="C221" s="46"/>
       <c r="D221" s="10" t="s">
         <v>125</v>
       </c>
@@ -4873,28 +4880,28 @@
       <c r="I221" s="13"/>
       <c r="J221" s="11"/>
     </row>
-    <row r="222" spans="2:10">
-      <c r="B222" s="35" t="s">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B222" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="36"/>
-      <c r="D222" s="37"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="39" t="s">
+      <c r="C222" s="46"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G222" s="40"/>
-      <c r="H222" s="41" t="s">
+      <c r="G222" s="49"/>
+      <c r="H222" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I222" s="42"/>
-      <c r="J222" s="43"/>
-    </row>
-    <row r="223" spans="2:10">
-      <c r="B223" s="44" t="s">
+      <c r="I222" s="43"/>
+      <c r="J222" s="40"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B223" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C223" s="48" t="s">
+      <c r="C223" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -4907,9 +4914,9 @@
       <c r="I223" s="2"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="2:10">
-      <c r="B224" s="44"/>
-      <c r="C224" s="48"/>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B224" s="36"/>
+      <c r="C224" s="44"/>
       <c r="D224" s="6" t="s">
         <v>133</v>
       </c>
@@ -4920,9 +4927,9 @@
       <c r="I224" s="4"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="2:10">
-      <c r="B225" s="44"/>
-      <c r="C225" s="48"/>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B225" s="36"/>
+      <c r="C225" s="44"/>
       <c r="D225" s="6" t="s">
         <v>131</v>
       </c>
@@ -4933,9 +4940,9 @@
       <c r="I225" s="4"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="2:10">
-      <c r="B226" s="44"/>
-      <c r="C226" s="48"/>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B226" s="36"/>
+      <c r="C226" s="44"/>
       <c r="D226" s="6" t="s">
         <v>134</v>
       </c>
@@ -4946,9 +4953,9 @@
       <c r="I226" s="4"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="2:10">
-      <c r="B227" s="44"/>
-      <c r="C227" s="48"/>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B227" s="36"/>
+      <c r="C227" s="44"/>
       <c r="D227" s="7" t="s">
         <v>135</v>
       </c>
@@ -4959,8 +4966,8 @@
       <c r="I227" s="8"/>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="2:10">
-      <c r="B228" s="44"/>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B228" s="36"/>
       <c r="C228" s="15" t="s">
         <v>5</v>
       </c>
@@ -4972,47 +4979,47 @@
       <c r="I228" s="13"/>
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="2:10">
-      <c r="B229" s="44"/>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B229" s="36"/>
       <c r="C229" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="41" t="s">
+      <c r="D229" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E229" s="43"/>
-      <c r="F229" s="47" t="s">
+      <c r="E229" s="40"/>
+      <c r="F229" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G229" s="39"/>
-      <c r="H229" s="41" t="s">
+      <c r="G229" s="42"/>
+      <c r="H229" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I229" s="42"/>
-      <c r="J229" s="43"/>
-    </row>
-    <row r="230" spans="2:10">
-      <c r="B230" s="44"/>
+      <c r="I229" s="43"/>
+      <c r="J229" s="40"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B230" s="36"/>
       <c r="C230" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="48" t="s">
+      <c r="F230" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G230" s="48"/>
-      <c r="H230" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I230" s="42"/>
-      <c r="J230" s="43"/>
-    </row>
-    <row r="232" spans="2:10">
-      <c r="B232" s="35" t="s">
+      <c r="G230" s="44"/>
+      <c r="H230" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I230" s="43"/>
+      <c r="J230" s="40"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B232" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="36"/>
+      <c r="C232" s="46"/>
       <c r="D232" s="10" t="s">
         <v>125</v>
       </c>
@@ -5023,28 +5030,28 @@
       <c r="I232" s="13"/>
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="2:10">
-      <c r="B233" s="35" t="s">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B233" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C233" s="36"/>
-      <c r="D233" s="37"/>
-      <c r="E233" s="38"/>
-      <c r="F233" s="39" t="s">
+      <c r="C233" s="46"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G233" s="40"/>
-      <c r="H233" s="41" t="s">
+      <c r="G233" s="49"/>
+      <c r="H233" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="I233" s="42"/>
-      <c r="J233" s="43"/>
-    </row>
-    <row r="234" spans="2:10">
-      <c r="B234" s="44" t="s">
+      <c r="I233" s="43"/>
+      <c r="J233" s="40"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B234" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="48" t="s">
+      <c r="C234" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -5057,9 +5064,9 @@
       <c r="I234" s="2"/>
       <c r="J234" s="3"/>
     </row>
-    <row r="235" spans="2:10">
-      <c r="B235" s="44"/>
-      <c r="C235" s="48"/>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B235" s="36"/>
+      <c r="C235" s="44"/>
       <c r="D235" s="6" t="s">
         <v>138</v>
       </c>
@@ -5070,9 +5077,9 @@
       <c r="I235" s="4"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" spans="2:10">
-      <c r="B236" s="44"/>
-      <c r="C236" s="48"/>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B236" s="36"/>
+      <c r="C236" s="44"/>
       <c r="D236" s="6" t="s">
         <v>139</v>
       </c>
@@ -5083,9 +5090,9 @@
       <c r="I236" s="4"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" spans="2:10">
-      <c r="B237" s="44"/>
-      <c r="C237" s="48"/>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B237" s="36"/>
+      <c r="C237" s="44"/>
       <c r="D237" s="6" t="s">
         <v>140</v>
       </c>
@@ -5096,8 +5103,8 @@
       <c r="I237" s="4"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="2:10">
-      <c r="B238" s="44"/>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B238" s="36"/>
       <c r="C238" s="15" t="s">
         <v>5</v>
       </c>
@@ -5109,47 +5116,47 @@
       <c r="I238" s="13"/>
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="2:10">
-      <c r="B239" s="44"/>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B239" s="36"/>
       <c r="C239" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D239" s="41" t="s">
+      <c r="D239" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E239" s="43"/>
-      <c r="F239" s="47" t="s">
+      <c r="E239" s="40"/>
+      <c r="F239" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G239" s="39"/>
-      <c r="H239" s="41" t="s">
+      <c r="G239" s="42"/>
+      <c r="H239" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I239" s="42"/>
-      <c r="J239" s="43"/>
-    </row>
-    <row r="240" spans="2:10">
-      <c r="B240" s="44"/>
+      <c r="I239" s="43"/>
+      <c r="J239" s="40"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B240" s="36"/>
       <c r="C240" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="48" t="s">
+      <c r="F240" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G240" s="48"/>
-      <c r="H240" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I240" s="42"/>
-      <c r="J240" s="43"/>
-    </row>
-    <row r="242" spans="2:10">
-      <c r="B242" s="35" t="s">
+      <c r="G240" s="44"/>
+      <c r="H240" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I240" s="43"/>
+      <c r="J240" s="40"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B242" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="36"/>
+      <c r="C242" s="46"/>
       <c r="D242" s="10" t="s">
         <v>125</v>
       </c>
@@ -5160,28 +5167,28 @@
       <c r="I242" s="13"/>
       <c r="J242" s="11"/>
     </row>
-    <row r="243" spans="2:10">
-      <c r="B243" s="35" t="s">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B243" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C243" s="36"/>
-      <c r="D243" s="37"/>
-      <c r="E243" s="38"/>
-      <c r="F243" s="39" t="s">
+      <c r="C243" s="46"/>
+      <c r="D243" s="47"/>
+      <c r="E243" s="48"/>
+      <c r="F243" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G243" s="40"/>
-      <c r="H243" s="41" t="s">
+      <c r="G243" s="49"/>
+      <c r="H243" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="I243" s="42"/>
-      <c r="J243" s="43"/>
-    </row>
-    <row r="244" spans="2:10">
-      <c r="B244" s="44" t="s">
+      <c r="I243" s="43"/>
+      <c r="J243" s="40"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B244" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="48" t="s">
+      <c r="C244" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -5194,9 +5201,9 @@
       <c r="I244" s="2"/>
       <c r="J244" s="3"/>
     </row>
-    <row r="245" spans="2:10">
-      <c r="B245" s="44"/>
-      <c r="C245" s="48"/>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B245" s="36"/>
+      <c r="C245" s="44"/>
       <c r="D245" s="6" t="s">
         <v>143</v>
       </c>
@@ -5207,9 +5214,9 @@
       <c r="I245" s="4"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="2:10">
-      <c r="B246" s="44"/>
-      <c r="C246" s="48"/>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B246" s="36"/>
+      <c r="C246" s="44"/>
       <c r="D246" s="6" t="s">
         <v>144</v>
       </c>
@@ -5220,9 +5227,9 @@
       <c r="I246" s="4"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="2:10">
-      <c r="B247" s="44"/>
-      <c r="C247" s="48"/>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B247" s="36"/>
+      <c r="C247" s="44"/>
       <c r="D247" s="6" t="s">
         <v>151</v>
       </c>
@@ -5233,8 +5240,8 @@
       <c r="I247" s="4"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="2:10">
-      <c r="B248" s="44"/>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B248" s="36"/>
       <c r="C248" s="15" t="s">
         <v>5</v>
       </c>
@@ -5246,47 +5253,47 @@
       <c r="I248" s="13"/>
       <c r="J248" s="11"/>
     </row>
-    <row r="249" spans="2:10">
-      <c r="B249" s="44"/>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B249" s="36"/>
       <c r="C249" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D249" s="41" t="s">
+      <c r="D249" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E249" s="43"/>
-      <c r="F249" s="47" t="s">
+      <c r="E249" s="40"/>
+      <c r="F249" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G249" s="39"/>
-      <c r="H249" s="41" t="s">
+      <c r="G249" s="42"/>
+      <c r="H249" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I249" s="42"/>
-      <c r="J249" s="43"/>
-    </row>
-    <row r="250" spans="2:10">
-      <c r="B250" s="44"/>
+      <c r="I249" s="43"/>
+      <c r="J249" s="40"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B250" s="36"/>
       <c r="C250" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="8"/>
-      <c r="F250" s="48" t="s">
+      <c r="F250" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G250" s="48"/>
-      <c r="H250" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I250" s="42"/>
-      <c r="J250" s="43"/>
-    </row>
-    <row r="252" spans="2:10">
-      <c r="B252" s="35" t="s">
+      <c r="G250" s="44"/>
+      <c r="H250" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I250" s="43"/>
+      <c r="J250" s="40"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B252" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C252" s="36"/>
+      <c r="C252" s="46"/>
       <c r="D252" s="10" t="s">
         <v>125</v>
       </c>
@@ -5297,28 +5304,28 @@
       <c r="I252" s="13"/>
       <c r="J252" s="11"/>
     </row>
-    <row r="253" spans="2:10">
-      <c r="B253" s="35" t="s">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B253" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="38"/>
-      <c r="F253" s="39" t="s">
+      <c r="C253" s="46"/>
+      <c r="D253" s="47"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G253" s="40"/>
-      <c r="H253" s="41" t="s">
+      <c r="G253" s="49"/>
+      <c r="H253" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="I253" s="42"/>
-      <c r="J253" s="43"/>
-    </row>
-    <row r="254" spans="2:10">
-      <c r="B254" s="44" t="s">
+      <c r="I253" s="43"/>
+      <c r="J253" s="40"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B254" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C254" s="48" t="s">
+      <c r="C254" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -5331,9 +5338,9 @@
       <c r="I254" s="2"/>
       <c r="J254" s="3"/>
     </row>
-    <row r="255" spans="2:10">
-      <c r="B255" s="44"/>
-      <c r="C255" s="48"/>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B255" s="36"/>
+      <c r="C255" s="44"/>
       <c r="D255" s="6" t="s">
         <v>146</v>
       </c>
@@ -5344,9 +5351,9 @@
       <c r="I255" s="4"/>
       <c r="J255" s="5"/>
     </row>
-    <row r="256" spans="2:10">
-      <c r="B256" s="44"/>
-      <c r="C256" s="48"/>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B256" s="36"/>
+      <c r="C256" s="44"/>
       <c r="D256" s="6" t="s">
         <v>148</v>
       </c>
@@ -5357,9 +5364,9 @@
       <c r="I256" s="4"/>
       <c r="J256" s="5"/>
     </row>
-    <row r="257" spans="2:10">
-      <c r="B257" s="44"/>
-      <c r="C257" s="48"/>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B257" s="36"/>
+      <c r="C257" s="44"/>
       <c r="D257" s="6" t="s">
         <v>149</v>
       </c>
@@ -5370,9 +5377,9 @@
       <c r="I257" s="4"/>
       <c r="J257" s="5"/>
     </row>
-    <row r="258" spans="2:10">
-      <c r="B258" s="44"/>
-      <c r="C258" s="48"/>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B258" s="36"/>
+      <c r="C258" s="44"/>
       <c r="D258" s="7" t="s">
         <v>150</v>
       </c>
@@ -5383,8 +5390,8 @@
       <c r="I258" s="8"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="2:10">
-      <c r="B259" s="44"/>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B259" s="36"/>
       <c r="C259" s="15" t="s">
         <v>5</v>
       </c>
@@ -5396,47 +5403,47 @@
       <c r="I259" s="13"/>
       <c r="J259" s="11"/>
     </row>
-    <row r="260" spans="2:10">
-      <c r="B260" s="44"/>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B260" s="36"/>
       <c r="C260" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D260" s="41" t="s">
+      <c r="D260" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E260" s="43"/>
-      <c r="F260" s="47" t="s">
+      <c r="E260" s="40"/>
+      <c r="F260" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G260" s="39"/>
-      <c r="H260" s="41" t="s">
+      <c r="G260" s="42"/>
+      <c r="H260" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I260" s="42"/>
-      <c r="J260" s="43"/>
-    </row>
-    <row r="261" spans="2:10">
-      <c r="B261" s="44"/>
+      <c r="I260" s="43"/>
+      <c r="J260" s="40"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B261" s="36"/>
       <c r="C261" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="7"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="48" t="s">
+      <c r="F261" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G261" s="48"/>
-      <c r="H261" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I261" s="42"/>
-      <c r="J261" s="43"/>
-    </row>
-    <row r="263" spans="2:10">
-      <c r="B263" s="35" t="s">
+      <c r="G261" s="44"/>
+      <c r="H261" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I261" s="43"/>
+      <c r="J261" s="40"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B263" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C263" s="36"/>
+      <c r="C263" s="46"/>
       <c r="D263" s="10" t="s">
         <v>125</v>
       </c>
@@ -5447,28 +5454,28 @@
       <c r="I263" s="13"/>
       <c r="J263" s="11"/>
     </row>
-    <row r="264" spans="2:10">
-      <c r="B264" s="35" t="s">
+    <row r="264" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B264" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="36"/>
-      <c r="D264" s="37"/>
-      <c r="E264" s="38"/>
-      <c r="F264" s="39" t="s">
+      <c r="C264" s="46"/>
+      <c r="D264" s="47"/>
+      <c r="E264" s="48"/>
+      <c r="F264" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G264" s="40"/>
-      <c r="H264" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="I264" s="42"/>
-      <c r="J264" s="43"/>
-    </row>
-    <row r="265" spans="2:10">
-      <c r="B265" s="44" t="s">
+      <c r="G264" s="49"/>
+      <c r="H264" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="I264" s="43"/>
+      <c r="J264" s="40"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B265" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="48" t="s">
+      <c r="C265" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -5481,9 +5488,9 @@
       <c r="I265" s="2"/>
       <c r="J265" s="3"/>
     </row>
-    <row r="266" spans="2:10">
-      <c r="B266" s="44"/>
-      <c r="C266" s="48"/>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B266" s="36"/>
+      <c r="C266" s="44"/>
       <c r="D266" s="6" t="s">
         <v>153</v>
       </c>
@@ -5494,11 +5501,11 @@
       <c r="I266" s="4"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" spans="2:10">
-      <c r="B267" s="44"/>
-      <c r="C267" s="48"/>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B267" s="36"/>
+      <c r="C267" s="44"/>
       <c r="D267" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -5507,11 +5514,11 @@
       <c r="I267" s="4"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" spans="2:10">
-      <c r="B268" s="44"/>
-      <c r="C268" s="48"/>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B268" s="36"/>
+      <c r="C268" s="44"/>
       <c r="D268" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -5520,8 +5527,8 @@
       <c r="I268" s="4"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="2:10">
-      <c r="B269" s="44"/>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B269" s="36"/>
       <c r="C269" s="15" t="s">
         <v>5</v>
       </c>
@@ -5533,49 +5540,49 @@
       <c r="I269" s="13"/>
       <c r="J269" s="11"/>
     </row>
-    <row r="270" spans="2:10">
-      <c r="B270" s="44"/>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B270" s="36"/>
       <c r="C270" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D270" s="41" t="s">
+      <c r="D270" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E270" s="43"/>
-      <c r="F270" s="47" t="s">
+      <c r="E270" s="40"/>
+      <c r="F270" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G270" s="39"/>
-      <c r="H270" s="41" t="s">
+      <c r="G270" s="42"/>
+      <c r="H270" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I270" s="42"/>
-      <c r="J270" s="43"/>
-    </row>
-    <row r="271" spans="2:10">
-      <c r="B271" s="44"/>
+      <c r="I270" s="43"/>
+      <c r="J270" s="40"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B271" s="36"/>
       <c r="C271" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D271" s="7"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="48" t="s">
+      <c r="F271" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G271" s="48"/>
-      <c r="H271" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I271" s="42"/>
-      <c r="J271" s="43"/>
-    </row>
-    <row r="273" spans="2:10">
-      <c r="B273" s="35" t="s">
+      <c r="G271" s="44"/>
+      <c r="H271" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I271" s="43"/>
+      <c r="J271" s="40"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B273" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C273" s="36"/>
+      <c r="C273" s="46"/>
       <c r="D273" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
@@ -5584,32 +5591,32 @@
       <c r="I273" s="13"/>
       <c r="J273" s="11"/>
     </row>
-    <row r="274" spans="2:10">
-      <c r="B274" s="35" t="s">
+    <row r="274" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B274" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
-      <c r="E274" s="38"/>
-      <c r="F274" s="39" t="s">
+      <c r="C274" s="46"/>
+      <c r="D274" s="47"/>
+      <c r="E274" s="48"/>
+      <c r="F274" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G274" s="40"/>
-      <c r="H274" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="I274" s="42"/>
-      <c r="J274" s="43"/>
-    </row>
-    <row r="275" spans="2:10">
-      <c r="B275" s="44" t="s">
+      <c r="G274" s="49"/>
+      <c r="H274" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="I274" s="43"/>
+      <c r="J274" s="40"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B275" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C275" s="48" t="s">
+      <c r="C275" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -5618,11 +5625,11 @@
       <c r="I275" s="2"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="2:10">
-      <c r="B276" s="44"/>
-      <c r="C276" s="48"/>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B276" s="36"/>
+      <c r="C276" s="44"/>
       <c r="D276" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -5631,11 +5638,11 @@
       <c r="I276" s="4"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="2:10">
-      <c r="B277" s="44"/>
-      <c r="C277" s="48"/>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B277" s="36"/>
+      <c r="C277" s="44"/>
       <c r="D277" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -5644,11 +5651,11 @@
       <c r="I277" s="4"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="2:10">
-      <c r="B278" s="44"/>
-      <c r="C278" s="48"/>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B278" s="36"/>
+      <c r="C278" s="44"/>
       <c r="D278" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -5657,11 +5664,11 @@
       <c r="I278" s="4"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="2:10">
-      <c r="B279" s="44"/>
-      <c r="C279" s="48"/>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B279" s="36"/>
+      <c r="C279" s="44"/>
       <c r="D279" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
@@ -5670,8 +5677,8 @@
       <c r="I279" s="8"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="2:10">
-      <c r="B280" s="44"/>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B280" s="36"/>
       <c r="C280" s="15" t="s">
         <v>5</v>
       </c>
@@ -5683,49 +5690,49 @@
       <c r="I280" s="13"/>
       <c r="J280" s="11"/>
     </row>
-    <row r="281" spans="2:10">
-      <c r="B281" s="44"/>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B281" s="36"/>
       <c r="C281" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D281" s="41" t="s">
+      <c r="D281" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E281" s="43"/>
-      <c r="F281" s="47" t="s">
+      <c r="E281" s="40"/>
+      <c r="F281" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G281" s="39"/>
-      <c r="H281" s="41" t="s">
+      <c r="G281" s="42"/>
+      <c r="H281" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I281" s="42"/>
-      <c r="J281" s="43"/>
-    </row>
-    <row r="282" spans="2:10">
-      <c r="B282" s="44"/>
+      <c r="I281" s="43"/>
+      <c r="J281" s="40"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B282" s="36"/>
       <c r="C282" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="48" t="s">
+      <c r="F282" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G282" s="48"/>
-      <c r="H282" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I282" s="42"/>
-      <c r="J282" s="43"/>
-    </row>
-    <row r="284" spans="2:10">
-      <c r="B284" s="35" t="s">
+      <c r="G282" s="44"/>
+      <c r="H282" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I282" s="43"/>
+      <c r="J282" s="40"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B284" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C284" s="36"/>
+      <c r="C284" s="46"/>
       <c r="D284" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
@@ -5734,32 +5741,32 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
     </row>
-    <row r="285" spans="2:10">
-      <c r="B285" s="35" t="s">
+    <row r="285" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B285" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C285" s="36"/>
-      <c r="D285" s="37"/>
-      <c r="E285" s="38"/>
-      <c r="F285" s="39" t="s">
+      <c r="C285" s="46"/>
+      <c r="D285" s="47"/>
+      <c r="E285" s="48"/>
+      <c r="F285" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G285" s="40"/>
-      <c r="H285" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I285" s="42"/>
-      <c r="J285" s="43"/>
-    </row>
-    <row r="286" spans="2:10">
-      <c r="B286" s="44" t="s">
+      <c r="G285" s="49"/>
+      <c r="H285" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="I285" s="43"/>
+      <c r="J285" s="40"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B286" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C286" s="48" t="s">
+      <c r="C286" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -5768,11 +5775,11 @@
       <c r="I286" s="2"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="2:10">
-      <c r="B287" s="44"/>
-      <c r="C287" s="48"/>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B287" s="36"/>
+      <c r="C287" s="44"/>
       <c r="D287" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -5781,8 +5788,8 @@
       <c r="I287" s="4"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="2:10">
-      <c r="B288" s="44"/>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B288" s="36"/>
       <c r="C288" s="15" t="s">
         <v>5</v>
       </c>
@@ -5794,49 +5801,49 @@
       <c r="I288" s="13"/>
       <c r="J288" s="11"/>
     </row>
-    <row r="289" spans="2:10">
-      <c r="B289" s="44"/>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B289" s="36"/>
       <c r="C289" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="41" t="s">
+      <c r="D289" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E289" s="43"/>
-      <c r="F289" s="47" t="s">
+      <c r="E289" s="40"/>
+      <c r="F289" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G289" s="39"/>
-      <c r="H289" s="41" t="s">
+      <c r="G289" s="42"/>
+      <c r="H289" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I289" s="42"/>
-      <c r="J289" s="43"/>
-    </row>
-    <row r="290" spans="2:10">
-      <c r="B290" s="44"/>
+      <c r="I289" s="43"/>
+      <c r="J289" s="40"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B290" s="36"/>
       <c r="C290" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="7"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="48" t="s">
+      <c r="F290" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G290" s="48"/>
-      <c r="H290" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I290" s="42"/>
-      <c r="J290" s="43"/>
-    </row>
-    <row r="292" spans="2:10">
-      <c r="B292" s="35" t="s">
+      <c r="G290" s="44"/>
+      <c r="H290" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I290" s="43"/>
+      <c r="J290" s="40"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B292" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C292" s="36"/>
+      <c r="C292" s="46"/>
       <c r="D292" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E292" s="13"/>
       <c r="F292" s="13"/>
@@ -5845,32 +5852,32 @@
       <c r="I292" s="13"/>
       <c r="J292" s="11"/>
     </row>
-    <row r="293" spans="2:10">
-      <c r="B293" s="35" t="s">
+    <row r="293" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B293" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C293" s="36"/>
-      <c r="D293" s="37"/>
-      <c r="E293" s="38"/>
-      <c r="F293" s="39" t="s">
+      <c r="C293" s="46"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="48"/>
+      <c r="F293" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G293" s="40"/>
-      <c r="H293" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="I293" s="42"/>
-      <c r="J293" s="43"/>
-    </row>
-    <row r="294" spans="2:10">
-      <c r="B294" s="44" t="s">
+      <c r="G293" s="49"/>
+      <c r="H293" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I293" s="43"/>
+      <c r="J293" s="40"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B294" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="48" t="s">
+      <c r="C294" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
@@ -5879,11 +5886,11 @@
       <c r="I294" s="2"/>
       <c r="J294" s="3"/>
     </row>
-    <row r="295" spans="2:10">
-      <c r="B295" s="44"/>
-      <c r="C295" s="48"/>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B295" s="36"/>
+      <c r="C295" s="44"/>
       <c r="D295" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -5892,11 +5899,11 @@
       <c r="I295" s="4"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" spans="2:10">
-      <c r="B296" s="44"/>
-      <c r="C296" s="48"/>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B296" s="36"/>
+      <c r="C296" s="44"/>
       <c r="D296" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -5905,11 +5912,11 @@
       <c r="I296" s="4"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="2:10">
-      <c r="B297" s="44"/>
-      <c r="C297" s="48"/>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B297" s="36"/>
+      <c r="C297" s="44"/>
       <c r="D297" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -5918,8 +5925,8 @@
       <c r="I297" s="4"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" spans="2:10">
-      <c r="B298" s="44"/>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B298" s="36"/>
       <c r="C298" s="15" t="s">
         <v>5</v>
       </c>
@@ -5931,48 +5938,48 @@
       <c r="I298" s="13"/>
       <c r="J298" s="11"/>
     </row>
-    <row r="299" spans="2:10">
-      <c r="B299" s="44"/>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B299" s="36"/>
       <c r="C299" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D299" s="41" t="s">
+      <c r="D299" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E299" s="43"/>
-      <c r="F299" s="47" t="s">
+      <c r="E299" s="40"/>
+      <c r="F299" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G299" s="39"/>
-      <c r="H299" s="41" t="s">
+      <c r="G299" s="42"/>
+      <c r="H299" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I299" s="42"/>
-      <c r="J299" s="43"/>
-    </row>
-    <row r="300" spans="2:10">
-      <c r="B300" s="44"/>
+      <c r="I299" s="43"/>
+      <c r="J299" s="40"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B300" s="36"/>
       <c r="C300" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
-      <c r="F300" s="48" t="s">
+      <c r="F300" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G300" s="48"/>
-      <c r="H300" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I300" s="42"/>
-      <c r="J300" s="43"/>
-    </row>
-    <row r="302" spans="2:10">
-      <c r="B302" s="35" t="s">
+      <c r="G300" s="44"/>
+      <c r="H300" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I300" s="43"/>
+      <c r="J300" s="40"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B302" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C302" s="36"/>
-      <c r="D302" s="64" t="s">
+      <c r="C302" s="46"/>
+      <c r="D302" s="35" t="s">
         <v>29</v>
       </c>
       <c r="E302" s="13"/>
@@ -5982,32 +5989,32 @@
       <c r="I302" s="13"/>
       <c r="J302" s="11"/>
     </row>
-    <row r="303" spans="2:10">
-      <c r="B303" s="35" t="s">
+    <row r="303" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B303" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="36"/>
-      <c r="D303" s="37"/>
-      <c r="E303" s="38"/>
-      <c r="F303" s="39" t="s">
+      <c r="C303" s="46"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="48"/>
+      <c r="F303" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G303" s="40"/>
-      <c r="H303" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I303" s="42"/>
-      <c r="J303" s="43"/>
-    </row>
-    <row r="304" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B304" s="44" t="s">
+      <c r="G303" s="49"/>
+      <c r="H303" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="I303" s="43"/>
+      <c r="J303" s="40"/>
+    </row>
+    <row r="304" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B304" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C304" s="45" t="s">
+      <c r="C304" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
@@ -6016,48 +6023,48 @@
       <c r="I304" s="2"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="2:10">
-      <c r="B305" s="44"/>
-      <c r="C305" s="46"/>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B305" s="36"/>
+      <c r="C305" s="38"/>
       <c r="D305" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B306" s="36"/>
+      <c r="C306" s="38"/>
+      <c r="D306" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B307" s="36"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B308" s="36"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J305" s="5"/>
-    </row>
-    <row r="306" spans="2:10">
-      <c r="B306" s="44"/>
-      <c r="C306" s="46"/>
-      <c r="D306" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J306" s="5"/>
-    </row>
-    <row r="307" spans="2:10">
-      <c r="B307" s="44"/>
-      <c r="C307" s="46"/>
-      <c r="D307" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J307" s="5"/>
-    </row>
-    <row r="308" spans="2:10">
-      <c r="B308" s="44"/>
-      <c r="C308" s="46"/>
-      <c r="D308" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" spans="2:10">
-      <c r="B309" s="44"/>
-      <c r="C309" s="46"/>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B309" s="36"/>
+      <c r="C309" s="38"/>
       <c r="D309" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" spans="2:10">
-      <c r="B310" s="44"/>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B310" s="36"/>
       <c r="C310" s="29" t="s">
         <v>5</v>
       </c>
@@ -6069,47 +6076,47 @@
       <c r="I310" s="13"/>
       <c r="J310" s="11"/>
     </row>
-    <row r="311" spans="2:10">
-      <c r="B311" s="44"/>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B311" s="36"/>
       <c r="C311" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D311" s="41" t="s">
+      <c r="D311" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E311" s="43"/>
-      <c r="F311" s="47" t="s">
+      <c r="E311" s="40"/>
+      <c r="F311" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G311" s="39"/>
-      <c r="H311" s="41" t="s">
+      <c r="G311" s="42"/>
+      <c r="H311" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I311" s="42"/>
-      <c r="J311" s="43"/>
-    </row>
-    <row r="312" spans="2:10">
-      <c r="B312" s="44"/>
+      <c r="I311" s="43"/>
+      <c r="J311" s="40"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B312" s="36"/>
       <c r="C312" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="7"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="48" t="s">
+      <c r="F312" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G312" s="48"/>
-      <c r="H312" s="41" t="s">
+      <c r="G312" s="44"/>
+      <c r="H312" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I312" s="42"/>
-      <c r="J312" s="43"/>
-    </row>
-    <row r="314" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B314" s="35" t="s">
+      <c r="I312" s="43"/>
+      <c r="J312" s="40"/>
+    </row>
+    <row r="314" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B314" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C314" s="36"/>
+      <c r="C314" s="46"/>
       <c r="D314" s="10" t="s">
         <v>28</v>
       </c>
@@ -6120,32 +6127,32 @@
       <c r="I314" s="13"/>
       <c r="J314" s="11"/>
     </row>
-    <row r="315" spans="2:10">
-      <c r="B315" s="35" t="s">
+    <row r="315" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B315" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
-      <c r="E315" s="38"/>
-      <c r="F315" s="39" t="s">
+      <c r="C315" s="46"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="48"/>
+      <c r="F315" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G315" s="40"/>
-      <c r="H315" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="I315" s="42"/>
-      <c r="J315" s="43"/>
-    </row>
-    <row r="316" spans="2:10">
-      <c r="B316" s="44" t="s">
+      <c r="G315" s="49"/>
+      <c r="H315" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I315" s="43"/>
+      <c r="J315" s="40"/>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B316" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C316" s="45" t="s">
+      <c r="C316" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -6154,32 +6161,32 @@
       <c r="I316" s="2"/>
       <c r="J316" s="3"/>
     </row>
-    <row r="317" spans="2:10">
-      <c r="B317" s="44"/>
-      <c r="C317" s="46"/>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B317" s="36"/>
+      <c r="C317" s="38"/>
       <c r="D317" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J317" s="5"/>
     </row>
-    <row r="318" spans="2:10">
-      <c r="B318" s="44"/>
-      <c r="C318" s="46"/>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B318" s="36"/>
+      <c r="C318" s="38"/>
       <c r="D318" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J318" s="5"/>
     </row>
-    <row r="319" spans="2:10">
-      <c r="B319" s="44"/>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B319" s="36"/>
       <c r="C319" s="30"/>
       <c r="D319" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J319" s="5"/>
     </row>
-    <row r="320" spans="2:10">
-      <c r="B320" s="44"/>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B320" s="36"/>
       <c r="C320" s="33" t="s">
         <v>5</v>
       </c>
@@ -6191,47 +6198,47 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
     </row>
-    <row r="321" spans="2:10">
-      <c r="B321" s="44"/>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B321" s="36"/>
       <c r="C321" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D321" s="41" t="s">
+      <c r="D321" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E321" s="43"/>
-      <c r="F321" s="47" t="s">
+      <c r="E321" s="40"/>
+      <c r="F321" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G321" s="39"/>
-      <c r="H321" s="41" t="s">
+      <c r="G321" s="42"/>
+      <c r="H321" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I321" s="42"/>
-      <c r="J321" s="43"/>
-    </row>
-    <row r="322" spans="2:10">
-      <c r="B322" s="44"/>
+      <c r="I321" s="43"/>
+      <c r="J321" s="40"/>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B322" s="36"/>
       <c r="C322" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
-      <c r="F322" s="48" t="s">
+      <c r="F322" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G322" s="48"/>
-      <c r="H322" s="41" t="s">
+      <c r="G322" s="44"/>
+      <c r="H322" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I322" s="42"/>
-      <c r="J322" s="43"/>
-    </row>
-    <row r="324" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B324" s="35" t="s">
+      <c r="I322" s="43"/>
+      <c r="J322" s="40"/>
+    </row>
+    <row r="324" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B324" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="36"/>
+      <c r="C324" s="46"/>
       <c r="D324" s="10" t="s">
         <v>28</v>
       </c>
@@ -6242,32 +6249,32 @@
       <c r="I324" s="13"/>
       <c r="J324" s="11"/>
     </row>
-    <row r="325" spans="2:10">
-      <c r="B325" s="35" t="s">
+    <row r="325" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B325" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C325" s="36"/>
-      <c r="D325" s="37"/>
-      <c r="E325" s="38"/>
-      <c r="F325" s="39" t="s">
+      <c r="C325" s="46"/>
+      <c r="D325" s="47"/>
+      <c r="E325" s="48"/>
+      <c r="F325" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="40"/>
-      <c r="H325" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="I325" s="42"/>
-      <c r="J325" s="43"/>
-    </row>
-    <row r="326" spans="2:10">
-      <c r="B326" s="44" t="s">
+      <c r="G325" s="49"/>
+      <c r="H325" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="I325" s="43"/>
+      <c r="J325" s="40"/>
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B326" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C326" s="45" t="s">
+      <c r="C326" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -6276,11 +6283,11 @@
       <c r="I326" s="2"/>
       <c r="J326" s="3"/>
     </row>
-    <row r="327" spans="2:10">
-      <c r="B327" s="44"/>
-      <c r="C327" s="46"/>
+    <row r="327" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B327" s="36"/>
+      <c r="C327" s="38"/>
       <c r="D327" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -6289,11 +6296,11 @@
       <c r="I327" s="4"/>
       <c r="J327" s="5"/>
     </row>
-    <row r="328" spans="2:10">
-      <c r="B328" s="44"/>
-      <c r="C328" s="46"/>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B328" s="36"/>
+      <c r="C328" s="38"/>
       <c r="D328" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -6302,16 +6309,16 @@
       <c r="I328" s="4"/>
       <c r="J328" s="5"/>
     </row>
-    <row r="329" spans="2:10">
-      <c r="B329" s="44"/>
-      <c r="C329" s="46"/>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B329" s="36"/>
+      <c r="C329" s="38"/>
       <c r="D329" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J329" s="5"/>
     </row>
-    <row r="330" spans="2:10">
-      <c r="B330" s="44"/>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B330" s="36"/>
       <c r="C330" s="33" t="s">
         <v>5</v>
       </c>
@@ -6323,47 +6330,47 @@
       <c r="I330" s="13"/>
       <c r="J330" s="11"/>
     </row>
-    <row r="331" spans="2:10">
-      <c r="B331" s="44"/>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B331" s="36"/>
       <c r="C331" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D331" s="41" t="s">
+      <c r="D331" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E331" s="43"/>
-      <c r="F331" s="47" t="s">
+      <c r="E331" s="40"/>
+      <c r="F331" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G331" s="39"/>
-      <c r="H331" s="41" t="s">
+      <c r="G331" s="42"/>
+      <c r="H331" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I331" s="42"/>
-      <c r="J331" s="43"/>
-    </row>
-    <row r="332" spans="2:10">
-      <c r="B332" s="44"/>
+      <c r="I331" s="43"/>
+      <c r="J331" s="40"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B332" s="36"/>
       <c r="C332" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="48" t="s">
+      <c r="F332" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G332" s="48"/>
-      <c r="H332" s="41" t="s">
+      <c r="G332" s="44"/>
+      <c r="H332" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I332" s="42"/>
-      <c r="J332" s="43"/>
-    </row>
-    <row r="334" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B334" s="35" t="s">
+      <c r="I332" s="43"/>
+      <c r="J332" s="40"/>
+    </row>
+    <row r="334" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B334" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C334" s="36"/>
+      <c r="C334" s="46"/>
       <c r="D334" s="10" t="s">
         <v>28</v>
       </c>
@@ -6374,32 +6381,32 @@
       <c r="I334" s="13"/>
       <c r="J334" s="11"/>
     </row>
-    <row r="335" spans="2:10">
-      <c r="B335" s="35" t="s">
+    <row r="335" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B335" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C335" s="36"/>
-      <c r="D335" s="37"/>
-      <c r="E335" s="38"/>
-      <c r="F335" s="39" t="s">
+      <c r="C335" s="46"/>
+      <c r="D335" s="47"/>
+      <c r="E335" s="48"/>
+      <c r="F335" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G335" s="40"/>
-      <c r="H335" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="I335" s="42"/>
-      <c r="J335" s="43"/>
-    </row>
-    <row r="336" spans="2:10">
-      <c r="B336" s="44" t="s">
+      <c r="G335" s="49"/>
+      <c r="H335" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="I335" s="43"/>
+      <c r="J335" s="40"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B336" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C336" s="45" t="s">
+      <c r="C336" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
@@ -6408,24 +6415,24 @@
       <c r="I336" s="2"/>
       <c r="J336" s="3"/>
     </row>
-    <row r="337" spans="1:11">
-      <c r="B337" s="44"/>
-      <c r="C337" s="46"/>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B337" s="36"/>
+      <c r="C337" s="38"/>
       <c r="D337" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J337" s="5"/>
     </row>
-    <row r="338" spans="1:11">
-      <c r="B338" s="44"/>
-      <c r="C338" s="46"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B338" s="36"/>
+      <c r="C338" s="38"/>
       <c r="D338" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J338" s="5"/>
     </row>
-    <row r="339" spans="1:11">
-      <c r="B339" s="44"/>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B339" s="36"/>
       <c r="C339" s="33" t="s">
         <v>5</v>
       </c>
@@ -6437,43 +6444,43 @@
       <c r="I339" s="13"/>
       <c r="J339" s="11"/>
     </row>
-    <row r="340" spans="1:11">
-      <c r="B340" s="44"/>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B340" s="36"/>
       <c r="C340" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D340" s="41" t="s">
+      <c r="D340" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E340" s="43"/>
-      <c r="F340" s="47" t="s">
+      <c r="E340" s="40"/>
+      <c r="F340" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G340" s="39"/>
-      <c r="H340" s="41" t="s">
+      <c r="G340" s="42"/>
+      <c r="H340" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I340" s="42"/>
-      <c r="J340" s="43"/>
-    </row>
-    <row r="341" spans="1:11">
-      <c r="B341" s="44"/>
+      <c r="I340" s="43"/>
+      <c r="J340" s="40"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B341" s="36"/>
       <c r="C341" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D341" s="7"/>
       <c r="E341" s="8"/>
-      <c r="F341" s="48" t="s">
+      <c r="F341" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G341" s="48"/>
-      <c r="H341" s="41" t="s">
+      <c r="G341" s="44"/>
+      <c r="H341" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I341" s="42"/>
-      <c r="J341" s="43"/>
-    </row>
-    <row r="342" spans="1:11" s="21" customFormat="1">
+      <c r="I341" s="43"/>
+      <c r="J341" s="40"/>
+    </row>
+    <row r="342" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A342" s="22"/>
       <c r="B342" s="24"/>
       <c r="C342" s="19"/>
@@ -6486,11 +6493,11 @@
       <c r="J342" s="34"/>
       <c r="K342" s="22"/>
     </row>
-    <row r="343" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B343" s="35" t="s">
+    <row r="343" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B343" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C343" s="36"/>
+      <c r="C343" s="46"/>
       <c r="D343" s="10" t="s">
         <v>28</v>
       </c>
@@ -6501,32 +6508,32 @@
       <c r="I343" s="13"/>
       <c r="J343" s="11"/>
     </row>
-    <row r="344" spans="1:11">
-      <c r="B344" s="35" t="s">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B344" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C344" s="36"/>
-      <c r="D344" s="37"/>
-      <c r="E344" s="38"/>
-      <c r="F344" s="39" t="s">
+      <c r="C344" s="46"/>
+      <c r="D344" s="47"/>
+      <c r="E344" s="48"/>
+      <c r="F344" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G344" s="40"/>
-      <c r="H344" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I344" s="42"/>
-      <c r="J344" s="43"/>
-    </row>
-    <row r="345" spans="1:11">
-      <c r="B345" s="44" t="s">
+      <c r="G344" s="49"/>
+      <c r="H344" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="I344" s="43"/>
+      <c r="J344" s="40"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B345" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C345" s="45" t="s">
+      <c r="C345" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
@@ -6535,32 +6542,32 @@
       <c r="I345" s="2"/>
       <c r="J345" s="3"/>
     </row>
-    <row r="346" spans="1:11">
-      <c r="B346" s="44"/>
-      <c r="C346" s="46"/>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B346" s="36"/>
+      <c r="C346" s="38"/>
       <c r="D346" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B347" s="36"/>
+      <c r="C347" s="38"/>
+      <c r="D347" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B348" s="36"/>
+      <c r="C348" s="38"/>
+      <c r="D348" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J346" s="5"/>
-    </row>
-    <row r="347" spans="1:11">
-      <c r="B347" s="44"/>
-      <c r="C347" s="46"/>
-      <c r="D347" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J347" s="5"/>
-    </row>
-    <row r="348" spans="1:11">
-      <c r="B348" s="44"/>
-      <c r="C348" s="46"/>
-      <c r="D348" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="J348" s="5"/>
     </row>
-    <row r="349" spans="1:11">
-      <c r="B349" s="44"/>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B349" s="36"/>
       <c r="C349" s="33" t="s">
         <v>5</v>
       </c>
@@ -6572,49 +6579,49 @@
       <c r="I349" s="13"/>
       <c r="J349" s="11"/>
     </row>
-    <row r="350" spans="1:11">
-      <c r="B350" s="44"/>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B350" s="36"/>
       <c r="C350" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D350" s="41" t="s">
+      <c r="D350" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E350" s="43"/>
-      <c r="F350" s="47" t="s">
+      <c r="E350" s="40"/>
+      <c r="F350" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G350" s="39"/>
-      <c r="H350" s="41" t="s">
+      <c r="G350" s="42"/>
+      <c r="H350" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I350" s="42"/>
-      <c r="J350" s="43"/>
-    </row>
-    <row r="351" spans="1:11">
-      <c r="B351" s="44"/>
+      <c r="I350" s="43"/>
+      <c r="J350" s="40"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B351" s="36"/>
       <c r="C351" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
-      <c r="F351" s="48" t="s">
+      <c r="F351" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G351" s="48"/>
-      <c r="H351" s="41" t="s">
+      <c r="G351" s="44"/>
+      <c r="H351" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I351" s="42"/>
-      <c r="J351" s="43"/>
-    </row>
-    <row r="353" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B353" s="35" t="s">
+      <c r="I351" s="43"/>
+      <c r="J351" s="40"/>
+    </row>
+    <row r="353" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B353" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C353" s="36"/>
+      <c r="C353" s="46"/>
       <c r="D353" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E353" s="13"/>
       <c r="F353" s="13"/>
@@ -6623,32 +6630,32 @@
       <c r="I353" s="13"/>
       <c r="J353" s="11"/>
     </row>
-    <row r="354" spans="2:10">
-      <c r="B354" s="35" t="s">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B354" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C354" s="36"/>
-      <c r="D354" s="37"/>
-      <c r="E354" s="38"/>
-      <c r="F354" s="39" t="s">
+      <c r="C354" s="46"/>
+      <c r="D354" s="47"/>
+      <c r="E354" s="48"/>
+      <c r="F354" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G354" s="40"/>
-      <c r="H354" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="I354" s="42"/>
-      <c r="J354" s="43"/>
-    </row>
-    <row r="355" spans="2:10">
-      <c r="B355" s="44" t="s">
+      <c r="G354" s="49"/>
+      <c r="H354" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I354" s="43"/>
+      <c r="J354" s="40"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B355" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C355" s="45" t="s">
+      <c r="C355" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
@@ -6657,32 +6664,32 @@
       <c r="I355" s="2"/>
       <c r="J355" s="3"/>
     </row>
-    <row r="356" spans="2:10">
-      <c r="B356" s="44"/>
-      <c r="C356" s="46"/>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B356" s="36"/>
+      <c r="C356" s="38"/>
       <c r="D356" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B357" s="36"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="J356" s="5"/>
-    </row>
-    <row r="357" spans="2:10">
-      <c r="B357" s="44"/>
-      <c r="C357" s="46"/>
-      <c r="D357" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="J357" s="5"/>
     </row>
-    <row r="358" spans="2:10">
-      <c r="B358" s="44"/>
-      <c r="C358" s="46"/>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B358" s="36"/>
+      <c r="C358" s="38"/>
       <c r="D358" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J358" s="5"/>
     </row>
-    <row r="359" spans="2:10">
-      <c r="B359" s="44"/>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B359" s="36"/>
       <c r="C359" s="33" t="s">
         <v>5</v>
       </c>
@@ -6694,49 +6701,49 @@
       <c r="I359" s="13"/>
       <c r="J359" s="11"/>
     </row>
-    <row r="360" spans="2:10">
-      <c r="B360" s="44"/>
+    <row r="360" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B360" s="36"/>
       <c r="C360" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D360" s="41" t="s">
+      <c r="D360" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E360" s="43"/>
-      <c r="F360" s="47" t="s">
+      <c r="E360" s="40"/>
+      <c r="F360" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G360" s="39"/>
-      <c r="H360" s="41" t="s">
+      <c r="G360" s="42"/>
+      <c r="H360" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I360" s="42"/>
-      <c r="J360" s="43"/>
-    </row>
-    <row r="361" spans="2:10">
-      <c r="B361" s="44"/>
+      <c r="I360" s="43"/>
+      <c r="J360" s="40"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B361" s="36"/>
       <c r="C361" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
-      <c r="F361" s="48" t="s">
+      <c r="F361" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G361" s="48"/>
-      <c r="H361" s="41" t="s">
+      <c r="G361" s="44"/>
+      <c r="H361" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I361" s="42"/>
-      <c r="J361" s="43"/>
-    </row>
-    <row r="363" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B363" s="35" t="s">
+      <c r="I361" s="43"/>
+      <c r="J361" s="40"/>
+    </row>
+    <row r="363" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B363" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C363" s="36"/>
+      <c r="C363" s="46"/>
       <c r="D363" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E363" s="13"/>
       <c r="F363" s="13"/>
@@ -6745,32 +6752,32 @@
       <c r="I363" s="13"/>
       <c r="J363" s="11"/>
     </row>
-    <row r="364" spans="2:10">
-      <c r="B364" s="35" t="s">
+    <row r="364" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B364" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C364" s="36"/>
-      <c r="D364" s="37"/>
-      <c r="E364" s="38"/>
-      <c r="F364" s="39" t="s">
+      <c r="C364" s="46"/>
+      <c r="D364" s="47"/>
+      <c r="E364" s="48"/>
+      <c r="F364" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G364" s="40"/>
-      <c r="H364" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I364" s="42"/>
-      <c r="J364" s="43"/>
-    </row>
-    <row r="365" spans="2:10">
-      <c r="B365" s="44" t="s">
+      <c r="G364" s="49"/>
+      <c r="H364" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I364" s="43"/>
+      <c r="J364" s="40"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B365" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C365" s="45" t="s">
+      <c r="C365" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
@@ -6779,32 +6786,32 @@
       <c r="I365" s="2"/>
       <c r="J365" s="3"/>
     </row>
-    <row r="366" spans="2:10">
-      <c r="B366" s="44"/>
-      <c r="C366" s="46"/>
+    <row r="366" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B366" s="36"/>
+      <c r="C366" s="38"/>
       <c r="D366" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J366" s="5"/>
+    </row>
+    <row r="367" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B367" s="36"/>
+      <c r="C367" s="38"/>
+      <c r="D367" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J367" s="5"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B368" s="36"/>
+      <c r="C368" s="38"/>
+      <c r="D368" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J366" s="5"/>
-    </row>
-    <row r="367" spans="2:10">
-      <c r="B367" s="44"/>
-      <c r="C367" s="46"/>
-      <c r="D367" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J367" s="5"/>
-    </row>
-    <row r="368" spans="2:10">
-      <c r="B368" s="44"/>
-      <c r="C368" s="46"/>
-      <c r="D368" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="J368" s="5"/>
     </row>
-    <row r="369" spans="2:10">
-      <c r="B369" s="44"/>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B369" s="36"/>
       <c r="C369" s="33" t="s">
         <v>5</v>
       </c>
@@ -6816,49 +6823,49 @@
       <c r="I369" s="13"/>
       <c r="J369" s="11"/>
     </row>
-    <row r="370" spans="2:10">
-      <c r="B370" s="44"/>
+    <row r="370" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B370" s="36"/>
       <c r="C370" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D370" s="41" t="s">
+      <c r="D370" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E370" s="43"/>
-      <c r="F370" s="47" t="s">
+      <c r="E370" s="40"/>
+      <c r="F370" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G370" s="39"/>
-      <c r="H370" s="41" t="s">
+      <c r="G370" s="42"/>
+      <c r="H370" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I370" s="42"/>
-      <c r="J370" s="43"/>
-    </row>
-    <row r="371" spans="2:10">
-      <c r="B371" s="44"/>
+      <c r="I370" s="43"/>
+      <c r="J370" s="40"/>
+    </row>
+    <row r="371" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B371" s="36"/>
       <c r="C371" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D371" s="7"/>
       <c r="E371" s="8"/>
-      <c r="F371" s="48" t="s">
+      <c r="F371" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G371" s="48"/>
-      <c r="H371" s="41" t="s">
+      <c r="G371" s="44"/>
+      <c r="H371" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I371" s="42"/>
-      <c r="J371" s="43"/>
-    </row>
-    <row r="373" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B373" s="35" t="s">
+      <c r="I371" s="43"/>
+      <c r="J371" s="40"/>
+    </row>
+    <row r="373" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B373" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C373" s="36"/>
+      <c r="C373" s="46"/>
       <c r="D373" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
@@ -6867,32 +6874,32 @@
       <c r="I373" s="13"/>
       <c r="J373" s="11"/>
     </row>
-    <row r="374" spans="2:10">
-      <c r="B374" s="35" t="s">
+    <row r="374" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B374" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C374" s="36"/>
-      <c r="D374" s="37"/>
-      <c r="E374" s="38"/>
-      <c r="F374" s="39" t="s">
+      <c r="C374" s="46"/>
+      <c r="D374" s="47"/>
+      <c r="E374" s="48"/>
+      <c r="F374" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G374" s="40"/>
-      <c r="H374" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I374" s="42"/>
-      <c r="J374" s="43"/>
-    </row>
-    <row r="375" spans="2:10">
-      <c r="B375" s="44" t="s">
+      <c r="G374" s="49"/>
+      <c r="H374" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I374" s="43"/>
+      <c r="J374" s="40"/>
+    </row>
+    <row r="375" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B375" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C375" s="45" t="s">
+      <c r="C375" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
@@ -6901,16 +6908,16 @@
       <c r="I375" s="2"/>
       <c r="J375" s="3"/>
     </row>
-    <row r="376" spans="2:10">
-      <c r="B376" s="44"/>
-      <c r="C376" s="46"/>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B376" s="36"/>
+      <c r="C376" s="38"/>
       <c r="D376" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J376" s="5"/>
     </row>
-    <row r="377" spans="2:10">
-      <c r="B377" s="44"/>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B377" s="36"/>
       <c r="C377" s="33" t="s">
         <v>5</v>
       </c>
@@ -6922,49 +6929,49 @@
       <c r="I377" s="13"/>
       <c r="J377" s="11"/>
     </row>
-    <row r="378" spans="2:10">
-      <c r="B378" s="44"/>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B378" s="36"/>
       <c r="C378" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D378" s="41" t="s">
+      <c r="D378" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E378" s="43"/>
-      <c r="F378" s="47" t="s">
+      <c r="E378" s="40"/>
+      <c r="F378" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G378" s="39"/>
-      <c r="H378" s="41" t="s">
+      <c r="G378" s="42"/>
+      <c r="H378" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I378" s="42"/>
-      <c r="J378" s="43"/>
-    </row>
-    <row r="379" spans="2:10">
-      <c r="B379" s="44"/>
+      <c r="I378" s="43"/>
+      <c r="J378" s="40"/>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B379" s="36"/>
       <c r="C379" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D379" s="7"/>
       <c r="E379" s="8"/>
-      <c r="F379" s="48" t="s">
+      <c r="F379" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G379" s="48"/>
-      <c r="H379" s="41" t="s">
+      <c r="G379" s="44"/>
+      <c r="H379" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I379" s="42"/>
-      <c r="J379" s="43"/>
-    </row>
-    <row r="381" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B381" s="35" t="s">
+      <c r="I379" s="43"/>
+      <c r="J379" s="40"/>
+    </row>
+    <row r="381" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B381" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C381" s="36"/>
+      <c r="C381" s="46"/>
       <c r="D381" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E381" s="13"/>
       <c r="F381" s="13"/>
@@ -6973,32 +6980,32 @@
       <c r="I381" s="13"/>
       <c r="J381" s="11"/>
     </row>
-    <row r="382" spans="2:10">
-      <c r="B382" s="35" t="s">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B382" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C382" s="36"/>
-      <c r="D382" s="37"/>
-      <c r="E382" s="38"/>
-      <c r="F382" s="39" t="s">
+      <c r="C382" s="46"/>
+      <c r="D382" s="47"/>
+      <c r="E382" s="48"/>
+      <c r="F382" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G382" s="40"/>
-      <c r="H382" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="I382" s="42"/>
-      <c r="J382" s="43"/>
-    </row>
-    <row r="383" spans="2:10">
-      <c r="B383" s="44" t="s">
+      <c r="G382" s="49"/>
+      <c r="H382" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="I382" s="43"/>
+      <c r="J382" s="40"/>
+    </row>
+    <row r="383" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B383" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C383" s="45" t="s">
+      <c r="C383" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
@@ -7007,24 +7014,24 @@
       <c r="I383" s="2"/>
       <c r="J383" s="3"/>
     </row>
-    <row r="384" spans="2:10">
-      <c r="B384" s="44"/>
-      <c r="C384" s="46"/>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B384" s="36"/>
+      <c r="C384" s="38"/>
       <c r="D384" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J384" s="5"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B385" s="36"/>
+      <c r="C385" s="38"/>
+      <c r="D385" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J384" s="5"/>
-    </row>
-    <row r="385" spans="2:10">
-      <c r="B385" s="44"/>
-      <c r="C385" s="46"/>
-      <c r="D385" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="J385" s="5"/>
     </row>
-    <row r="386" spans="2:10">
-      <c r="B386" s="44"/>
+    <row r="386" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B386" s="36"/>
       <c r="C386" s="33" t="s">
         <v>5</v>
       </c>
@@ -7036,49 +7043,49 @@
       <c r="I386" s="13"/>
       <c r="J386" s="11"/>
     </row>
-    <row r="387" spans="2:10">
-      <c r="B387" s="44"/>
+    <row r="387" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B387" s="36"/>
       <c r="C387" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D387" s="41" t="s">
+      <c r="D387" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E387" s="43"/>
-      <c r="F387" s="47" t="s">
+      <c r="E387" s="40"/>
+      <c r="F387" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G387" s="39"/>
-      <c r="H387" s="41" t="s">
+      <c r="G387" s="42"/>
+      <c r="H387" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I387" s="42"/>
-      <c r="J387" s="43"/>
-    </row>
-    <row r="388" spans="2:10">
-      <c r="B388" s="44"/>
+      <c r="I387" s="43"/>
+      <c r="J387" s="40"/>
+    </row>
+    <row r="388" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B388" s="36"/>
       <c r="C388" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
-      <c r="F388" s="48" t="s">
+      <c r="F388" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G388" s="48"/>
-      <c r="H388" s="41" t="s">
+      <c r="G388" s="44"/>
+      <c r="H388" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I388" s="42"/>
-      <c r="J388" s="43"/>
-    </row>
-    <row r="390" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B390" s="35" t="s">
+      <c r="I388" s="43"/>
+      <c r="J388" s="40"/>
+    </row>
+    <row r="390" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B390" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C390" s="36"/>
+      <c r="C390" s="46"/>
       <c r="D390" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
@@ -7087,32 +7094,32 @@
       <c r="I390" s="13"/>
       <c r="J390" s="11"/>
     </row>
-    <row r="391" spans="2:10">
-      <c r="B391" s="35" t="s">
+    <row r="391" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B391" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
-      <c r="E391" s="38"/>
-      <c r="F391" s="39" t="s">
+      <c r="C391" s="46"/>
+      <c r="D391" s="47"/>
+      <c r="E391" s="48"/>
+      <c r="F391" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G391" s="40"/>
-      <c r="H391" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="I391" s="42"/>
-      <c r="J391" s="43"/>
-    </row>
-    <row r="392" spans="2:10">
-      <c r="B392" s="44" t="s">
+      <c r="G391" s="49"/>
+      <c r="H391" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="I391" s="43"/>
+      <c r="J391" s="40"/>
+    </row>
+    <row r="392" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B392" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C392" s="45" t="s">
+      <c r="C392" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
@@ -7121,24 +7128,24 @@
       <c r="I392" s="2"/>
       <c r="J392" s="3"/>
     </row>
-    <row r="393" spans="2:10">
-      <c r="B393" s="44"/>
-      <c r="C393" s="46"/>
+    <row r="393" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B393" s="36"/>
+      <c r="C393" s="38"/>
       <c r="D393" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J393" s="5"/>
     </row>
-    <row r="394" spans="2:10">
-      <c r="B394" s="44"/>
-      <c r="C394" s="46"/>
+    <row r="394" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B394" s="36"/>
+      <c r="C394" s="38"/>
       <c r="D394" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J394" s="5"/>
     </row>
-    <row r="395" spans="2:10">
-      <c r="B395" s="44"/>
+    <row r="395" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B395" s="36"/>
       <c r="C395" s="33" t="s">
         <v>5</v>
       </c>
@@ -7150,49 +7157,49 @@
       <c r="I395" s="13"/>
       <c r="J395" s="11"/>
     </row>
-    <row r="396" spans="2:10">
-      <c r="B396" s="44"/>
+    <row r="396" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B396" s="36"/>
       <c r="C396" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D396" s="41" t="s">
+      <c r="D396" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E396" s="43"/>
-      <c r="F396" s="47" t="s">
+      <c r="E396" s="40"/>
+      <c r="F396" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G396" s="39"/>
-      <c r="H396" s="41" t="s">
+      <c r="G396" s="42"/>
+      <c r="H396" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I396" s="42"/>
-      <c r="J396" s="43"/>
-    </row>
-    <row r="397" spans="2:10">
-      <c r="B397" s="44"/>
+      <c r="I396" s="43"/>
+      <c r="J396" s="40"/>
+    </row>
+    <row r="397" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B397" s="36"/>
       <c r="C397" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
-      <c r="F397" s="48" t="s">
+      <c r="F397" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G397" s="48"/>
-      <c r="H397" s="41" t="s">
+      <c r="G397" s="44"/>
+      <c r="H397" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I397" s="42"/>
-      <c r="J397" s="43"/>
-    </row>
-    <row r="399" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B399" s="35" t="s">
+      <c r="I397" s="43"/>
+      <c r="J397" s="40"/>
+    </row>
+    <row r="399" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B399" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C399" s="36"/>
+      <c r="C399" s="46"/>
       <c r="D399" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E399" s="13"/>
       <c r="F399" s="13"/>
@@ -7201,32 +7208,32 @@
       <c r="I399" s="13"/>
       <c r="J399" s="11"/>
     </row>
-    <row r="400" spans="2:10">
-      <c r="B400" s="35" t="s">
+    <row r="400" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B400" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C400" s="36"/>
-      <c r="D400" s="37"/>
-      <c r="E400" s="38"/>
-      <c r="F400" s="39" t="s">
+      <c r="C400" s="46"/>
+      <c r="D400" s="47"/>
+      <c r="E400" s="48"/>
+      <c r="F400" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G400" s="40"/>
-      <c r="H400" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="I400" s="42"/>
-      <c r="J400" s="43"/>
-    </row>
-    <row r="401" spans="2:10">
-      <c r="B401" s="44" t="s">
+      <c r="G400" s="49"/>
+      <c r="H400" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I400" s="43"/>
+      <c r="J400" s="40"/>
+    </row>
+    <row r="401" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B401" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C401" s="45" t="s">
+      <c r="C401" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
@@ -7235,24 +7242,24 @@
       <c r="I401" s="2"/>
       <c r="J401" s="3"/>
     </row>
-    <row r="402" spans="2:10">
-      <c r="B402" s="44"/>
-      <c r="C402" s="46"/>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B402" s="36"/>
+      <c r="C402" s="38"/>
       <c r="D402" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J402" s="5"/>
+    </row>
+    <row r="403" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B403" s="36"/>
+      <c r="C403" s="38"/>
+      <c r="D403" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J402" s="5"/>
-    </row>
-    <row r="403" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B403" s="44"/>
-      <c r="C403" s="46"/>
-      <c r="D403" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="J403" s="5"/>
     </row>
-    <row r="404" spans="2:10">
-      <c r="B404" s="44"/>
+    <row r="404" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B404" s="36"/>
       <c r="C404" s="33" t="s">
         <v>5</v>
       </c>
@@ -7264,49 +7271,49 @@
       <c r="I404" s="13"/>
       <c r="J404" s="11"/>
     </row>
-    <row r="405" spans="2:10">
-      <c r="B405" s="44"/>
+    <row r="405" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B405" s="36"/>
       <c r="C405" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D405" s="41" t="s">
+      <c r="D405" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E405" s="43"/>
-      <c r="F405" s="47" t="s">
+      <c r="E405" s="40"/>
+      <c r="F405" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G405" s="39"/>
-      <c r="H405" s="41" t="s">
+      <c r="G405" s="42"/>
+      <c r="H405" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I405" s="42"/>
-      <c r="J405" s="43"/>
-    </row>
-    <row r="406" spans="2:10">
-      <c r="B406" s="44"/>
+      <c r="I405" s="43"/>
+      <c r="J405" s="40"/>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B406" s="36"/>
       <c r="C406" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D406" s="7"/>
       <c r="E406" s="8"/>
-      <c r="F406" s="48" t="s">
+      <c r="F406" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G406" s="48"/>
-      <c r="H406" s="41" t="s">
+      <c r="G406" s="44"/>
+      <c r="H406" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I406" s="42"/>
-      <c r="J406" s="43"/>
-    </row>
-    <row r="408" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B408" s="35" t="s">
+      <c r="I406" s="43"/>
+      <c r="J406" s="40"/>
+    </row>
+    <row r="408" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B408" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C408" s="36"/>
+      <c r="C408" s="46"/>
       <c r="D408" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E408" s="13"/>
       <c r="F408" s="13"/>
@@ -7315,32 +7322,32 @@
       <c r="I408" s="13"/>
       <c r="J408" s="11"/>
     </row>
-    <row r="409" spans="2:10">
-      <c r="B409" s="35" t="s">
+    <row r="409" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B409" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C409" s="36"/>
-      <c r="D409" s="37"/>
-      <c r="E409" s="38"/>
-      <c r="F409" s="39" t="s">
+      <c r="C409" s="46"/>
+      <c r="D409" s="47"/>
+      <c r="E409" s="48"/>
+      <c r="F409" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G409" s="40"/>
-      <c r="H409" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="I409" s="42"/>
-      <c r="J409" s="43"/>
-    </row>
-    <row r="410" spans="2:10">
-      <c r="B410" s="44" t="s">
+      <c r="G409" s="49"/>
+      <c r="H409" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I409" s="43"/>
+      <c r="J409" s="40"/>
+    </row>
+    <row r="410" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B410" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C410" s="45" t="s">
+      <c r="C410" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
@@ -7349,32 +7356,32 @@
       <c r="I410" s="2"/>
       <c r="J410" s="3"/>
     </row>
-    <row r="411" spans="2:10">
-      <c r="B411" s="44"/>
-      <c r="C411" s="46"/>
+    <row r="411" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B411" s="36"/>
+      <c r="C411" s="38"/>
       <c r="D411" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J411" s="5"/>
     </row>
-    <row r="412" spans="2:10">
-      <c r="B412" s="44"/>
-      <c r="C412" s="46"/>
+    <row r="412" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B412" s="36"/>
+      <c r="C412" s="38"/>
       <c r="D412" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J412" s="5"/>
+    </row>
+    <row r="413" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B413" s="36"/>
+      <c r="C413" s="38"/>
+      <c r="D413" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J412" s="5"/>
-    </row>
-    <row r="413" spans="2:10">
-      <c r="B413" s="44"/>
-      <c r="C413" s="46"/>
-      <c r="D413" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="J413" s="5"/>
     </row>
-    <row r="414" spans="2:10">
-      <c r="B414" s="44"/>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B414" s="36"/>
       <c r="C414" s="32" t="s">
         <v>5</v>
       </c>
@@ -7386,49 +7393,49 @@
       <c r="I414" s="13"/>
       <c r="J414" s="11"/>
     </row>
-    <row r="415" spans="2:10">
-      <c r="B415" s="44"/>
+    <row r="415" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B415" s="36"/>
       <c r="C415" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D415" s="41" t="s">
+      <c r="D415" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E415" s="43"/>
-      <c r="F415" s="47" t="s">
+      <c r="E415" s="40"/>
+      <c r="F415" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G415" s="39"/>
-      <c r="H415" s="41" t="s">
+      <c r="G415" s="42"/>
+      <c r="H415" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I415" s="42"/>
-      <c r="J415" s="43"/>
-    </row>
-    <row r="416" spans="2:10">
-      <c r="B416" s="44"/>
+      <c r="I415" s="43"/>
+      <c r="J415" s="40"/>
+    </row>
+    <row r="416" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B416" s="36"/>
       <c r="C416" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D416" s="7"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="48" t="s">
+      <c r="F416" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G416" s="48"/>
-      <c r="H416" s="41" t="s">
+      <c r="G416" s="44"/>
+      <c r="H416" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I416" s="42"/>
-      <c r="J416" s="43"/>
-    </row>
-    <row r="418" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B418" s="35" t="s">
+      <c r="I416" s="43"/>
+      <c r="J416" s="40"/>
+    </row>
+    <row r="418" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B418" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C418" s="36"/>
+      <c r="C418" s="46"/>
       <c r="D418" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E418" s="13"/>
       <c r="F418" s="13"/>
@@ -7437,32 +7444,32 @@
       <c r="I418" s="13"/>
       <c r="J418" s="11"/>
     </row>
-    <row r="419" spans="2:10">
-      <c r="B419" s="35" t="s">
+    <row r="419" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B419" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
-      <c r="E419" s="38"/>
-      <c r="F419" s="39" t="s">
+      <c r="C419" s="46"/>
+      <c r="D419" s="47"/>
+      <c r="E419" s="48"/>
+      <c r="F419" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G419" s="40"/>
-      <c r="H419" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="I419" s="42"/>
-      <c r="J419" s="43"/>
-    </row>
-    <row r="420" spans="2:10">
-      <c r="B420" s="44" t="s">
+      <c r="G419" s="49"/>
+      <c r="H419" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="I419" s="43"/>
+      <c r="J419" s="40"/>
+    </row>
+    <row r="420" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B420" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C420" s="45" t="s">
+      <c r="C420" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
@@ -7471,43 +7478,43 @@
       <c r="I420" s="2"/>
       <c r="J420" s="3"/>
     </row>
-    <row r="421" spans="2:10">
-      <c r="B421" s="44"/>
-      <c r="C421" s="46"/>
+    <row r="421" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B421" s="36"/>
+      <c r="C421" s="38"/>
       <c r="D421" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J421" s="5"/>
     </row>
-    <row r="422" spans="2:10">
-      <c r="B422" s="44"/>
-      <c r="C422" s="46"/>
+    <row r="422" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B422" s="36"/>
+      <c r="C422" s="38"/>
       <c r="D422" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J422" s="5"/>
     </row>
-    <row r="423" spans="2:10">
-      <c r="B423" s="44"/>
-      <c r="C423" s="46"/>
+    <row r="423" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B423" s="36"/>
+      <c r="C423" s="38"/>
       <c r="D423" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J423" s="5"/>
     </row>
-    <row r="424" spans="2:10">
-      <c r="B424" s="44"/>
-      <c r="C424" s="46"/>
+    <row r="424" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B424" s="36"/>
+      <c r="C424" s="38"/>
       <c r="D424" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J424" s="5"/>
     </row>
-    <row r="425" spans="2:10">
-      <c r="B425" s="44"/>
-      <c r="C425" s="46"/>
+    <row r="425" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B425" s="36"/>
+      <c r="C425" s="38"/>
       <c r="D425" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
@@ -7516,8 +7523,8 @@
       <c r="I425" s="8"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="2:10">
-      <c r="B426" s="44"/>
+    <row r="426" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B426" s="36"/>
       <c r="C426" s="33" t="s">
         <v>5</v>
       </c>
@@ -7529,49 +7536,49 @@
       <c r="I426" s="13"/>
       <c r="J426" s="11"/>
     </row>
-    <row r="427" spans="2:10">
-      <c r="B427" s="44"/>
+    <row r="427" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B427" s="36"/>
       <c r="C427" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D427" s="41" t="s">
+      <c r="D427" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E427" s="43"/>
-      <c r="F427" s="47" t="s">
+      <c r="E427" s="40"/>
+      <c r="F427" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G427" s="39"/>
-      <c r="H427" s="41" t="s">
+      <c r="G427" s="42"/>
+      <c r="H427" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I427" s="42"/>
-      <c r="J427" s="43"/>
-    </row>
-    <row r="428" spans="2:10">
-      <c r="B428" s="44"/>
+      <c r="I427" s="43"/>
+      <c r="J427" s="40"/>
+    </row>
+    <row r="428" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B428" s="36"/>
       <c r="C428" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D428" s="7"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="48" t="s">
+      <c r="F428" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G428" s="48"/>
-      <c r="H428" s="41" t="s">
+      <c r="G428" s="44"/>
+      <c r="H428" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I428" s="42"/>
-      <c r="J428" s="43"/>
-    </row>
-    <row r="430" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B430" s="35" t="s">
+      <c r="I428" s="43"/>
+      <c r="J428" s="40"/>
+    </row>
+    <row r="430" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B430" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C430" s="36"/>
+      <c r="C430" s="46"/>
       <c r="D430" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E430" s="13"/>
       <c r="F430" s="13"/>
@@ -7580,32 +7587,32 @@
       <c r="I430" s="13"/>
       <c r="J430" s="11"/>
     </row>
-    <row r="431" spans="2:10">
-      <c r="B431" s="35" t="s">
+    <row r="431" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B431" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C431" s="36"/>
-      <c r="D431" s="37"/>
-      <c r="E431" s="38"/>
-      <c r="F431" s="39" t="s">
+      <c r="C431" s="46"/>
+      <c r="D431" s="47"/>
+      <c r="E431" s="48"/>
+      <c r="F431" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G431" s="40"/>
-      <c r="H431" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="I431" s="42"/>
-      <c r="J431" s="43"/>
-    </row>
-    <row r="432" spans="2:10">
-      <c r="B432" s="44" t="s">
+      <c r="G431" s="49"/>
+      <c r="H431" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="I431" s="43"/>
+      <c r="J431" s="40"/>
+    </row>
+    <row r="432" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B432" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C432" s="45" t="s">
+      <c r="C432" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
@@ -7614,24 +7621,24 @@
       <c r="I432" s="2"/>
       <c r="J432" s="3"/>
     </row>
-    <row r="433" spans="2:10">
-      <c r="B433" s="44"/>
-      <c r="C433" s="46"/>
+    <row r="433" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B433" s="36"/>
+      <c r="C433" s="38"/>
       <c r="D433" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J433" s="5"/>
     </row>
-    <row r="434" spans="2:10">
-      <c r="B434" s="44"/>
-      <c r="C434" s="46"/>
+    <row r="434" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B434" s="36"/>
+      <c r="C434" s="38"/>
       <c r="D434" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J434" s="5"/>
     </row>
-    <row r="435" spans="2:10">
-      <c r="B435" s="44"/>
+    <row r="435" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B435" s="36"/>
       <c r="C435" s="33" t="s">
         <v>5</v>
       </c>
@@ -7643,49 +7650,49 @@
       <c r="I435" s="13"/>
       <c r="J435" s="11"/>
     </row>
-    <row r="436" spans="2:10">
-      <c r="B436" s="44"/>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B436" s="36"/>
       <c r="C436" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D436" s="41" t="s">
+      <c r="D436" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E436" s="43"/>
-      <c r="F436" s="47" t="s">
+      <c r="E436" s="40"/>
+      <c r="F436" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G436" s="39"/>
-      <c r="H436" s="41" t="s">
+      <c r="G436" s="42"/>
+      <c r="H436" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I436" s="42"/>
-      <c r="J436" s="43"/>
-    </row>
-    <row r="437" spans="2:10">
-      <c r="B437" s="44"/>
+      <c r="I436" s="43"/>
+      <c r="J436" s="40"/>
+    </row>
+    <row r="437" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B437" s="36"/>
       <c r="C437" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D437" s="7"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="48" t="s">
+      <c r="F437" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G437" s="48"/>
-      <c r="H437" s="41" t="s">
+      <c r="G437" s="44"/>
+      <c r="H437" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I437" s="42"/>
-      <c r="J437" s="43"/>
-    </row>
-    <row r="439" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B439" s="35" t="s">
+      <c r="I437" s="43"/>
+      <c r="J437" s="40"/>
+    </row>
+    <row r="439" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B439" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C439" s="36"/>
+      <c r="C439" s="46"/>
       <c r="D439" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E439" s="13"/>
       <c r="F439" s="13"/>
@@ -7694,32 +7701,32 @@
       <c r="I439" s="13"/>
       <c r="J439" s="11"/>
     </row>
-    <row r="440" spans="2:10">
-      <c r="B440" s="35" t="s">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B440" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C440" s="36"/>
-      <c r="D440" s="37"/>
-      <c r="E440" s="38"/>
-      <c r="F440" s="39" t="s">
+      <c r="C440" s="46"/>
+      <c r="D440" s="47"/>
+      <c r="E440" s="48"/>
+      <c r="F440" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G440" s="40"/>
-      <c r="H440" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="I440" s="42"/>
-      <c r="J440" s="43"/>
-    </row>
-    <row r="441" spans="2:10">
-      <c r="B441" s="44" t="s">
+      <c r="G440" s="49"/>
+      <c r="H440" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="I440" s="43"/>
+      <c r="J440" s="40"/>
+    </row>
+    <row r="441" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B441" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C441" s="45" t="s">
+      <c r="C441" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
@@ -7728,43 +7735,43 @@
       <c r="I441" s="2"/>
       <c r="J441" s="3"/>
     </row>
-    <row r="442" spans="2:10">
-      <c r="B442" s="44"/>
-      <c r="C442" s="46"/>
+    <row r="442" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B442" s="36"/>
+      <c r="C442" s="38"/>
       <c r="D442" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J442" s="5"/>
+    </row>
+    <row r="443" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B443" s="36"/>
+      <c r="C443" s="38"/>
+      <c r="D443" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J443" s="5"/>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B444" s="36"/>
+      <c r="C444" s="38"/>
+      <c r="D444" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="J442" s="5"/>
-    </row>
-    <row r="443" spans="2:10">
-      <c r="B443" s="44"/>
-      <c r="C443" s="46"/>
-      <c r="D443" s="6" t="s">
+      <c r="J444" s="5"/>
+    </row>
+    <row r="445" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B445" s="36"/>
+      <c r="C445" s="38"/>
+      <c r="D445" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J443" s="5"/>
-    </row>
-    <row r="444" spans="2:10">
-      <c r="B444" s="44"/>
-      <c r="C444" s="46"/>
-      <c r="D444" s="6" t="s">
+      <c r="J445" s="5"/>
+    </row>
+    <row r="446" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B446" s="36"/>
+      <c r="C446" s="38"/>
+      <c r="D446" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="J444" s="5"/>
-    </row>
-    <row r="445" spans="2:10">
-      <c r="B445" s="44"/>
-      <c r="C445" s="46"/>
-      <c r="D445" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J445" s="5"/>
-    </row>
-    <row r="446" spans="2:10">
-      <c r="B446" s="44"/>
-      <c r="C446" s="46"/>
-      <c r="D446" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
@@ -7773,8 +7780,8 @@
       <c r="I446" s="8"/>
       <c r="J446" s="9"/>
     </row>
-    <row r="447" spans="2:10">
-      <c r="B447" s="44"/>
+    <row r="447" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B447" s="36"/>
       <c r="C447" s="33" t="s">
         <v>5</v>
       </c>
@@ -7786,49 +7793,49 @@
       <c r="I447" s="13"/>
       <c r="J447" s="11"/>
     </row>
-    <row r="448" spans="2:10">
-      <c r="B448" s="44"/>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B448" s="36"/>
       <c r="C448" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D448" s="41" t="s">
+      <c r="D448" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E448" s="43"/>
-      <c r="F448" s="47" t="s">
+      <c r="E448" s="40"/>
+      <c r="F448" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G448" s="39"/>
-      <c r="H448" s="41" t="s">
+      <c r="G448" s="42"/>
+      <c r="H448" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I448" s="42"/>
-      <c r="J448" s="43"/>
-    </row>
-    <row r="449" spans="2:10">
-      <c r="B449" s="44"/>
+      <c r="I448" s="43"/>
+      <c r="J448" s="40"/>
+    </row>
+    <row r="449" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B449" s="36"/>
       <c r="C449" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D449" s="7"/>
       <c r="E449" s="8"/>
-      <c r="F449" s="48" t="s">
+      <c r="F449" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G449" s="48"/>
-      <c r="H449" s="41" t="s">
+      <c r="G449" s="44"/>
+      <c r="H449" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I449" s="42"/>
-      <c r="J449" s="43"/>
-    </row>
-    <row r="451" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B451" s="35" t="s">
+      <c r="I449" s="43"/>
+      <c r="J449" s="40"/>
+    </row>
+    <row r="451" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B451" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C451" s="36"/>
+      <c r="C451" s="46"/>
       <c r="D451" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E451" s="13"/>
       <c r="F451" s="13"/>
@@ -7837,32 +7844,32 @@
       <c r="I451" s="13"/>
       <c r="J451" s="11"/>
     </row>
-    <row r="452" spans="2:10">
-      <c r="B452" s="35" t="s">
+    <row r="452" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B452" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C452" s="36"/>
-      <c r="D452" s="37"/>
-      <c r="E452" s="38"/>
-      <c r="F452" s="39" t="s">
+      <c r="C452" s="46"/>
+      <c r="D452" s="47"/>
+      <c r="E452" s="48"/>
+      <c r="F452" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G452" s="40"/>
-      <c r="H452" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="I452" s="42"/>
-      <c r="J452" s="43"/>
-    </row>
-    <row r="453" spans="2:10">
-      <c r="B453" s="44" t="s">
+      <c r="G452" s="49"/>
+      <c r="H452" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="I452" s="43"/>
+      <c r="J452" s="40"/>
+    </row>
+    <row r="453" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B453" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C453" s="45" t="s">
+      <c r="C453" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
@@ -7871,16 +7878,16 @@
       <c r="I453" s="2"/>
       <c r="J453" s="3"/>
     </row>
-    <row r="454" spans="2:10">
-      <c r="B454" s="44"/>
-      <c r="C454" s="46"/>
+    <row r="454" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B454" s="36"/>
+      <c r="C454" s="38"/>
       <c r="D454" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J454" s="5"/>
     </row>
-    <row r="455" spans="2:10">
-      <c r="B455" s="44"/>
+    <row r="455" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B455" s="36"/>
       <c r="C455" s="33" t="s">
         <v>5</v>
       </c>
@@ -7892,49 +7899,49 @@
       <c r="I455" s="13"/>
       <c r="J455" s="11"/>
     </row>
-    <row r="456" spans="2:10">
-      <c r="B456" s="44"/>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B456" s="36"/>
       <c r="C456" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D456" s="41" t="s">
+      <c r="D456" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E456" s="43"/>
-      <c r="F456" s="47" t="s">
+      <c r="E456" s="40"/>
+      <c r="F456" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G456" s="39"/>
-      <c r="H456" s="41" t="s">
+      <c r="G456" s="42"/>
+      <c r="H456" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I456" s="42"/>
-      <c r="J456" s="43"/>
-    </row>
-    <row r="457" spans="2:10">
-      <c r="B457" s="44"/>
+      <c r="I456" s="43"/>
+      <c r="J456" s="40"/>
+    </row>
+    <row r="457" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B457" s="36"/>
       <c r="C457" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D457" s="7"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="48" t="s">
+      <c r="F457" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G457" s="48"/>
-      <c r="H457" s="41" t="s">
+      <c r="G457" s="44"/>
+      <c r="H457" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I457" s="42"/>
-      <c r="J457" s="43"/>
-    </row>
-    <row r="459" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B459" s="35" t="s">
+      <c r="I457" s="43"/>
+      <c r="J457" s="40"/>
+    </row>
+    <row r="459" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B459" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C459" s="36"/>
+      <c r="C459" s="46"/>
       <c r="D459" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E459" s="13"/>
       <c r="F459" s="13"/>
@@ -7943,32 +7950,32 @@
       <c r="I459" s="13"/>
       <c r="J459" s="11"/>
     </row>
-    <row r="460" spans="2:10">
-      <c r="B460" s="35" t="s">
+    <row r="460" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B460" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C460" s="36"/>
-      <c r="D460" s="37"/>
-      <c r="E460" s="38"/>
-      <c r="F460" s="39" t="s">
+      <c r="C460" s="46"/>
+      <c r="D460" s="47"/>
+      <c r="E460" s="48"/>
+      <c r="F460" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G460" s="40"/>
-      <c r="H460" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="I460" s="42"/>
-      <c r="J460" s="43"/>
-    </row>
-    <row r="461" spans="2:10">
-      <c r="B461" s="44" t="s">
+      <c r="G460" s="49"/>
+      <c r="H460" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="I460" s="43"/>
+      <c r="J460" s="40"/>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B461" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C461" s="45" t="s">
+      <c r="C461" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
@@ -7977,24 +7984,24 @@
       <c r="I461" s="2"/>
       <c r="J461" s="3"/>
     </row>
-    <row r="462" spans="2:10">
-      <c r="B462" s="44"/>
-      <c r="C462" s="46"/>
+    <row r="462" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B462" s="36"/>
+      <c r="C462" s="38"/>
       <c r="D462" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J462" s="5"/>
     </row>
-    <row r="463" spans="2:10">
-      <c r="B463" s="44"/>
-      <c r="C463" s="46"/>
+    <row r="463" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B463" s="36"/>
+      <c r="C463" s="38"/>
       <c r="D463" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J463" s="5"/>
     </row>
-    <row r="464" spans="2:10">
-      <c r="B464" s="44"/>
+    <row r="464" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B464" s="36"/>
       <c r="C464" s="33" t="s">
         <v>5</v>
       </c>
@@ -8006,49 +8013,49 @@
       <c r="I464" s="13"/>
       <c r="J464" s="11"/>
     </row>
-    <row r="465" spans="2:10">
-      <c r="B465" s="44"/>
+    <row r="465" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B465" s="36"/>
       <c r="C465" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D465" s="41" t="s">
+      <c r="D465" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E465" s="43"/>
-      <c r="F465" s="47" t="s">
+      <c r="E465" s="40"/>
+      <c r="F465" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G465" s="39"/>
-      <c r="H465" s="41" t="s">
+      <c r="G465" s="42"/>
+      <c r="H465" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I465" s="42"/>
-      <c r="J465" s="43"/>
-    </row>
-    <row r="466" spans="2:10">
-      <c r="B466" s="44"/>
+      <c r="I465" s="43"/>
+      <c r="J465" s="40"/>
+    </row>
+    <row r="466" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B466" s="36"/>
       <c r="C466" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D466" s="7"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="48" t="s">
+      <c r="F466" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G466" s="48"/>
-      <c r="H466" s="41" t="s">
+      <c r="G466" s="44"/>
+      <c r="H466" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I466" s="42"/>
-      <c r="J466" s="43"/>
-    </row>
-    <row r="468" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B468" s="35" t="s">
+      <c r="I466" s="43"/>
+      <c r="J466" s="40"/>
+    </row>
+    <row r="468" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B468" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C468" s="36"/>
+      <c r="C468" s="46"/>
       <c r="D468" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E468" s="13"/>
       <c r="F468" s="13"/>
@@ -8057,32 +8064,32 @@
       <c r="I468" s="13"/>
       <c r="J468" s="11"/>
     </row>
-    <row r="469" spans="2:10">
-      <c r="B469" s="35" t="s">
+    <row r="469" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B469" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
-      <c r="E469" s="38"/>
-      <c r="F469" s="39" t="s">
+      <c r="C469" s="46"/>
+      <c r="D469" s="47"/>
+      <c r="E469" s="48"/>
+      <c r="F469" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G469" s="40"/>
-      <c r="H469" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I469" s="42"/>
-      <c r="J469" s="43"/>
-    </row>
-    <row r="470" spans="2:10">
-      <c r="B470" s="44" t="s">
+      <c r="G469" s="49"/>
+      <c r="H469" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="I469" s="43"/>
+      <c r="J469" s="40"/>
+    </row>
+    <row r="470" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B470" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C470" s="45" t="s">
+      <c r="C470" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
@@ -8091,35 +8098,35 @@
       <c r="I470" s="2"/>
       <c r="J470" s="3"/>
     </row>
-    <row r="471" spans="2:10">
-      <c r="B471" s="44"/>
-      <c r="C471" s="46"/>
+    <row r="471" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B471" s="36"/>
+      <c r="C471" s="38"/>
       <c r="D471" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J471" s="5"/>
+    </row>
+    <row r="472" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B472" s="36"/>
+      <c r="C472" s="38"/>
+      <c r="D472" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J472" s="5"/>
+    </row>
+    <row r="473" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B473" s="36"/>
+      <c r="C473" s="38"/>
+      <c r="D473" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J471" s="5"/>
-    </row>
-    <row r="472" spans="2:10">
-      <c r="B472" s="44"/>
-      <c r="C472" s="46"/>
-      <c r="D472" s="6" t="s">
+      <c r="J473" s="5"/>
+    </row>
+    <row r="474" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B474" s="36"/>
+      <c r="C474" s="38"/>
+      <c r="D474" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="J472" s="5"/>
-    </row>
-    <row r="473" spans="2:10">
-      <c r="B473" s="44"/>
-      <c r="C473" s="46"/>
-      <c r="D473" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J473" s="5"/>
-    </row>
-    <row r="474" spans="2:10">
-      <c r="B474" s="44"/>
-      <c r="C474" s="46"/>
-      <c r="D474" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
@@ -8128,8 +8135,8 @@
       <c r="I474" s="8"/>
       <c r="J474" s="9"/>
     </row>
-    <row r="475" spans="2:10">
-      <c r="B475" s="44"/>
+    <row r="475" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B475" s="36"/>
       <c r="C475" s="33" t="s">
         <v>5</v>
       </c>
@@ -8141,49 +8148,49 @@
       <c r="I475" s="13"/>
       <c r="J475" s="11"/>
     </row>
-    <row r="476" spans="2:10">
-      <c r="B476" s="44"/>
+    <row r="476" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B476" s="36"/>
       <c r="C476" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D476" s="41" t="s">
+      <c r="D476" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E476" s="43"/>
-      <c r="F476" s="47" t="s">
+      <c r="E476" s="40"/>
+      <c r="F476" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G476" s="39"/>
-      <c r="H476" s="41" t="s">
+      <c r="G476" s="42"/>
+      <c r="H476" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I476" s="42"/>
-      <c r="J476" s="43"/>
-    </row>
-    <row r="477" spans="2:10">
-      <c r="B477" s="44"/>
+      <c r="I476" s="43"/>
+      <c r="J476" s="40"/>
+    </row>
+    <row r="477" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B477" s="36"/>
       <c r="C477" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D477" s="7"/>
       <c r="E477" s="8"/>
-      <c r="F477" s="48" t="s">
+      <c r="F477" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G477" s="48"/>
-      <c r="H477" s="41" t="s">
+      <c r="G477" s="44"/>
+      <c r="H477" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I477" s="42"/>
-      <c r="J477" s="43"/>
-    </row>
-    <row r="479" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B479" s="35" t="s">
+      <c r="I477" s="43"/>
+      <c r="J477" s="40"/>
+    </row>
+    <row r="479" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B479" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C479" s="36"/>
+      <c r="C479" s="46"/>
       <c r="D479" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E479" s="13"/>
       <c r="F479" s="13"/>
@@ -8192,32 +8199,32 @@
       <c r="I479" s="13"/>
       <c r="J479" s="11"/>
     </row>
-    <row r="480" spans="2:10">
-      <c r="B480" s="35" t="s">
+    <row r="480" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B480" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C480" s="36"/>
-      <c r="D480" s="37"/>
-      <c r="E480" s="38"/>
-      <c r="F480" s="39" t="s">
+      <c r="C480" s="46"/>
+      <c r="D480" s="47"/>
+      <c r="E480" s="48"/>
+      <c r="F480" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G480" s="40"/>
-      <c r="H480" s="41" t="s">
+      <c r="G480" s="49"/>
+      <c r="H480" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I480" s="43"/>
+      <c r="J480" s="40"/>
+    </row>
+    <row r="481" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B481" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C481" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="I480" s="42"/>
-      <c r="J480" s="43"/>
-    </row>
-    <row r="481" spans="2:10">
-      <c r="B481" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C481" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -8226,32 +8233,32 @@
       <c r="I481" s="2"/>
       <c r="J481" s="3"/>
     </row>
-    <row r="482" spans="2:10">
-      <c r="B482" s="44"/>
-      <c r="C482" s="46"/>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B482" s="36"/>
+      <c r="C482" s="38"/>
       <c r="D482" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J482" s="5"/>
+    </row>
+    <row r="483" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B483" s="36"/>
+      <c r="C483" s="38"/>
+      <c r="D483" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J482" s="5"/>
-    </row>
-    <row r="483" spans="2:10">
-      <c r="B483" s="44"/>
-      <c r="C483" s="46"/>
-      <c r="D483" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="J483" s="5"/>
     </row>
-    <row r="484" spans="2:10">
-      <c r="B484" s="44"/>
-      <c r="C484" s="46"/>
+    <row r="484" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B484" s="36"/>
+      <c r="C484" s="38"/>
       <c r="D484" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J484" s="5"/>
     </row>
-    <row r="485" spans="2:10">
-      <c r="B485" s="44"/>
+    <row r="485" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B485" s="36"/>
       <c r="C485" s="33" t="s">
         <v>5</v>
       </c>
@@ -8263,494 +8270,158 @@
       <c r="I485" s="13"/>
       <c r="J485" s="11"/>
     </row>
-    <row r="486" spans="2:10">
-      <c r="B486" s="44"/>
+    <row r="486" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B486" s="36"/>
       <c r="C486" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D486" s="41" t="s">
+      <c r="D486" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E486" s="43"/>
-      <c r="F486" s="47" t="s">
+      <c r="E486" s="40"/>
+      <c r="F486" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G486" s="39"/>
-      <c r="H486" s="41" t="s">
+      <c r="G486" s="42"/>
+      <c r="H486" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I486" s="42"/>
-      <c r="J486" s="43"/>
-    </row>
-    <row r="487" spans="2:10">
-      <c r="B487" s="44"/>
+      <c r="I486" s="43"/>
+      <c r="J486" s="40"/>
+    </row>
+    <row r="487" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B487" s="36"/>
       <c r="C487" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D487" s="7"/>
       <c r="E487" s="8"/>
-      <c r="F487" s="48" t="s">
+      <c r="F487" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G487" s="48"/>
-      <c r="H487" s="41" t="s">
+      <c r="G487" s="44"/>
+      <c r="H487" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I487" s="42"/>
-      <c r="J487" s="43"/>
+      <c r="I487" s="43"/>
+      <c r="J487" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="612">
-    <mergeCell ref="B481:B487"/>
-    <mergeCell ref="C481:C484"/>
-    <mergeCell ref="D486:E486"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="H486:J486"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="H487:J487"/>
-    <mergeCell ref="B470:B477"/>
-    <mergeCell ref="C470:C474"/>
-    <mergeCell ref="D476:E476"/>
-    <mergeCell ref="F476:G476"/>
-    <mergeCell ref="H476:J476"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="H477:J477"/>
-    <mergeCell ref="B479:C479"/>
-    <mergeCell ref="B480:C480"/>
-    <mergeCell ref="D480:E480"/>
-    <mergeCell ref="F480:G480"/>
-    <mergeCell ref="H480:J480"/>
-    <mergeCell ref="B461:B466"/>
-    <mergeCell ref="C461:C463"/>
-    <mergeCell ref="D465:E465"/>
-    <mergeCell ref="F465:G465"/>
-    <mergeCell ref="H465:J465"/>
-    <mergeCell ref="F466:G466"/>
-    <mergeCell ref="H466:J466"/>
-    <mergeCell ref="B468:C468"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="D469:E469"/>
-    <mergeCell ref="F469:G469"/>
-    <mergeCell ref="H469:J469"/>
-    <mergeCell ref="B453:B457"/>
-    <mergeCell ref="C453:C454"/>
-    <mergeCell ref="D456:E456"/>
-    <mergeCell ref="F456:G456"/>
-    <mergeCell ref="H456:J456"/>
-    <mergeCell ref="F457:G457"/>
-    <mergeCell ref="H457:J457"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="B460:C460"/>
-    <mergeCell ref="D460:E460"/>
-    <mergeCell ref="F460:G460"/>
-    <mergeCell ref="H460:J460"/>
-    <mergeCell ref="B441:B449"/>
-    <mergeCell ref="C441:C446"/>
-    <mergeCell ref="D448:E448"/>
-    <mergeCell ref="F448:G448"/>
-    <mergeCell ref="H448:J448"/>
-    <mergeCell ref="F449:G449"/>
-    <mergeCell ref="H449:J449"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="B452:C452"/>
-    <mergeCell ref="D452:E452"/>
-    <mergeCell ref="F452:G452"/>
-    <mergeCell ref="H452:J452"/>
-    <mergeCell ref="B432:B437"/>
-    <mergeCell ref="C432:C434"/>
-    <mergeCell ref="D436:E436"/>
-    <mergeCell ref="F436:G436"/>
-    <mergeCell ref="H436:J436"/>
-    <mergeCell ref="F437:G437"/>
-    <mergeCell ref="H437:J437"/>
-    <mergeCell ref="B439:C439"/>
-    <mergeCell ref="B440:C440"/>
-    <mergeCell ref="D440:E440"/>
-    <mergeCell ref="F440:G440"/>
-    <mergeCell ref="H440:J440"/>
-    <mergeCell ref="B420:B428"/>
-    <mergeCell ref="C420:C425"/>
-    <mergeCell ref="D427:E427"/>
-    <mergeCell ref="F427:G427"/>
-    <mergeCell ref="H427:J427"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="H428:J428"/>
-    <mergeCell ref="B430:C430"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:E431"/>
-    <mergeCell ref="F431:G431"/>
-    <mergeCell ref="H431:J431"/>
-    <mergeCell ref="B410:B416"/>
-    <mergeCell ref="C410:C413"/>
-    <mergeCell ref="D415:E415"/>
-    <mergeCell ref="F415:G415"/>
-    <mergeCell ref="H415:J415"/>
-    <mergeCell ref="F416:G416"/>
-    <mergeCell ref="H416:J416"/>
-    <mergeCell ref="B418:C418"/>
-    <mergeCell ref="B419:C419"/>
-    <mergeCell ref="D419:E419"/>
-    <mergeCell ref="F419:G419"/>
-    <mergeCell ref="H419:J419"/>
-    <mergeCell ref="B345:B351"/>
-    <mergeCell ref="C345:C348"/>
-    <mergeCell ref="D350:E350"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="H350:J350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="H351:J351"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="D409:E409"/>
-    <mergeCell ref="F409:G409"/>
-    <mergeCell ref="H409:J409"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="D321:E321"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="H321:J321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="H322:J322"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="D344:E344"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="H344:J344"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="H303:J303"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="H315:J315"/>
-    <mergeCell ref="B304:B312"/>
-    <mergeCell ref="C304:C309"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="H311:J311"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="H312:J312"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="D315:E315"/>
-    <mergeCell ref="B294:B300"/>
-    <mergeCell ref="C294:C297"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="B286:B290"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="H285:J285"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="C275:C279"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="H281:J281"/>
-    <mergeCell ref="F282:G282"/>
-    <mergeCell ref="H282:J282"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="H274:J274"/>
-    <mergeCell ref="B265:B271"/>
-    <mergeCell ref="C265:C268"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="H270:J270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="H271:J271"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="H264:J264"/>
-    <mergeCell ref="B254:B261"/>
-    <mergeCell ref="C254:C258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="H260:J260"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="H261:J261"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:J253"/>
-    <mergeCell ref="B244:B250"/>
-    <mergeCell ref="C244:C247"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="H250:J250"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="H243:J243"/>
-    <mergeCell ref="B234:B240"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:J239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:J240"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="H233:J233"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="C223:C227"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="H229:J229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="H218:J218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="H219:J219"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="H205:J205"/>
-    <mergeCell ref="B195:B202"/>
-    <mergeCell ref="C195:C199"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="H194:J194"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="H167:J167"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:J157"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="B96:B102"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B399:C399"/>
+    <mergeCell ref="B400:C400"/>
+    <mergeCell ref="D400:E400"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="H400:J400"/>
+    <mergeCell ref="B401:B406"/>
+    <mergeCell ref="C401:C403"/>
+    <mergeCell ref="D405:E405"/>
+    <mergeCell ref="F405:G405"/>
+    <mergeCell ref="H405:J405"/>
+    <mergeCell ref="F406:G406"/>
+    <mergeCell ref="H406:J406"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="B391:C391"/>
+    <mergeCell ref="D391:E391"/>
+    <mergeCell ref="F391:G391"/>
+    <mergeCell ref="H391:J391"/>
+    <mergeCell ref="B392:B397"/>
+    <mergeCell ref="C392:C394"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="H396:J396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="H397:J397"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="F382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="B383:B388"/>
+    <mergeCell ref="C383:C385"/>
+    <mergeCell ref="D387:E387"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="H387:J387"/>
+    <mergeCell ref="F388:G388"/>
+    <mergeCell ref="H388:J388"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="H374:J374"/>
+    <mergeCell ref="B375:B379"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="B363:C363"/>
+    <mergeCell ref="B364:C364"/>
+    <mergeCell ref="D364:E364"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="H364:J364"/>
+    <mergeCell ref="B365:B371"/>
+    <mergeCell ref="C365:C368"/>
+    <mergeCell ref="D370:E370"/>
+    <mergeCell ref="F370:G370"/>
+    <mergeCell ref="H370:J370"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="H371:J371"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:E335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="B336:B341"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="D38:E38"/>
@@ -8775,48 +8446,353 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B3:G5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="B161:B167"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="B195:B202"/>
+    <mergeCell ref="C195:C199"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="H194:J194"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:J210"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:J211"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="C223:C227"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="H229:J229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="H230:J230"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="H222:J222"/>
+    <mergeCell ref="B234:B240"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:J239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:J240"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="H233:J233"/>
+    <mergeCell ref="B244:B250"/>
+    <mergeCell ref="C244:C247"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:J249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="H250:J250"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="H243:J243"/>
+    <mergeCell ref="B254:B261"/>
+    <mergeCell ref="C254:C258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:J261"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:J253"/>
+    <mergeCell ref="B265:B271"/>
+    <mergeCell ref="C265:C268"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="H270:J270"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="H271:J271"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:J264"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="C275:C279"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="H281:J281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="H282:J282"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="H274:J274"/>
+    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="H285:J285"/>
+    <mergeCell ref="B294:B300"/>
+    <mergeCell ref="C294:C297"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="H303:J303"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="H315:J315"/>
+    <mergeCell ref="B304:B312"/>
+    <mergeCell ref="C304:C309"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="H311:J311"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:J312"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="B316:B322"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="D321:E321"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="H321:J321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="D344:E344"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:J344"/>
     <mergeCell ref="B324:C324"/>
     <mergeCell ref="B325:C325"/>
     <mergeCell ref="D325:E325"/>
@@ -8829,18 +8805,18 @@
     <mergeCell ref="H331:J331"/>
     <mergeCell ref="F332:G332"/>
     <mergeCell ref="H332:J332"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:E335"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="H335:J335"/>
-    <mergeCell ref="B336:B341"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="H340:J340"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="B345:B351"/>
+    <mergeCell ref="C345:C348"/>
+    <mergeCell ref="D350:E350"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="H350:J350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="H351:J351"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="D409:E409"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="H409:J409"/>
     <mergeCell ref="B353:C353"/>
     <mergeCell ref="B354:C354"/>
     <mergeCell ref="D354:E354"/>
@@ -8853,66 +8829,97 @@
     <mergeCell ref="H360:J360"/>
     <mergeCell ref="F361:G361"/>
     <mergeCell ref="H361:J361"/>
-    <mergeCell ref="B363:C363"/>
-    <mergeCell ref="B364:C364"/>
-    <mergeCell ref="D364:E364"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="H364:J364"/>
-    <mergeCell ref="B365:B371"/>
-    <mergeCell ref="C365:C368"/>
-    <mergeCell ref="D370:E370"/>
-    <mergeCell ref="F370:G370"/>
-    <mergeCell ref="H370:J370"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="H371:J371"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="D374:E374"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="H374:J374"/>
-    <mergeCell ref="B375:B379"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="D378:E378"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="F379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="F382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="B383:B388"/>
-    <mergeCell ref="C383:C385"/>
-    <mergeCell ref="D387:E387"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="H387:J387"/>
-    <mergeCell ref="F388:G388"/>
-    <mergeCell ref="H388:J388"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="B391:C391"/>
-    <mergeCell ref="D391:E391"/>
-    <mergeCell ref="F391:G391"/>
-    <mergeCell ref="H391:J391"/>
-    <mergeCell ref="B392:B397"/>
-    <mergeCell ref="C392:C394"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="H396:J396"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="H397:J397"/>
-    <mergeCell ref="B399:C399"/>
-    <mergeCell ref="B400:C400"/>
-    <mergeCell ref="D400:E400"/>
-    <mergeCell ref="F400:G400"/>
-    <mergeCell ref="H400:J400"/>
-    <mergeCell ref="B401:B406"/>
-    <mergeCell ref="C401:C403"/>
-    <mergeCell ref="D405:E405"/>
-    <mergeCell ref="F405:G405"/>
-    <mergeCell ref="H405:J405"/>
-    <mergeCell ref="F406:G406"/>
-    <mergeCell ref="H406:J406"/>
+    <mergeCell ref="B410:B416"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="D415:E415"/>
+    <mergeCell ref="F415:G415"/>
+    <mergeCell ref="H415:J415"/>
+    <mergeCell ref="F416:G416"/>
+    <mergeCell ref="H416:J416"/>
+    <mergeCell ref="B418:C418"/>
+    <mergeCell ref="B419:C419"/>
+    <mergeCell ref="D419:E419"/>
+    <mergeCell ref="F419:G419"/>
+    <mergeCell ref="H419:J419"/>
+    <mergeCell ref="B420:B428"/>
+    <mergeCell ref="C420:C425"/>
+    <mergeCell ref="D427:E427"/>
+    <mergeCell ref="F427:G427"/>
+    <mergeCell ref="H427:J427"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="H428:J428"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:E431"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="H431:J431"/>
+    <mergeCell ref="B432:B437"/>
+    <mergeCell ref="C432:C434"/>
+    <mergeCell ref="D436:E436"/>
+    <mergeCell ref="F436:G436"/>
+    <mergeCell ref="H436:J436"/>
+    <mergeCell ref="F437:G437"/>
+    <mergeCell ref="H437:J437"/>
+    <mergeCell ref="B439:C439"/>
+    <mergeCell ref="B440:C440"/>
+    <mergeCell ref="D440:E440"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="H440:J440"/>
+    <mergeCell ref="B441:B449"/>
+    <mergeCell ref="C441:C446"/>
+    <mergeCell ref="D448:E448"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="H448:J448"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="H449:J449"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="D452:E452"/>
+    <mergeCell ref="F452:G452"/>
+    <mergeCell ref="H452:J452"/>
+    <mergeCell ref="B453:B457"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="D456:E456"/>
+    <mergeCell ref="F456:G456"/>
+    <mergeCell ref="H456:J456"/>
+    <mergeCell ref="F457:G457"/>
+    <mergeCell ref="H457:J457"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="B460:C460"/>
+    <mergeCell ref="D460:E460"/>
+    <mergeCell ref="F460:G460"/>
+    <mergeCell ref="H460:J460"/>
+    <mergeCell ref="B461:B466"/>
+    <mergeCell ref="C461:C463"/>
+    <mergeCell ref="D465:E465"/>
+    <mergeCell ref="F465:G465"/>
+    <mergeCell ref="H465:J465"/>
+    <mergeCell ref="F466:G466"/>
+    <mergeCell ref="H466:J466"/>
+    <mergeCell ref="B468:C468"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="D469:E469"/>
+    <mergeCell ref="F469:G469"/>
+    <mergeCell ref="H469:J469"/>
+    <mergeCell ref="B481:B487"/>
+    <mergeCell ref="C481:C484"/>
+    <mergeCell ref="D486:E486"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="H486:J486"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="H487:J487"/>
+    <mergeCell ref="B470:B477"/>
+    <mergeCell ref="C470:C474"/>
+    <mergeCell ref="D476:E476"/>
+    <mergeCell ref="F476:G476"/>
+    <mergeCell ref="H476:J476"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="H477:J477"/>
+    <mergeCell ref="B479:C479"/>
+    <mergeCell ref="B480:C480"/>
+    <mergeCell ref="D480:E480"/>
+    <mergeCell ref="F480:G480"/>
+    <mergeCell ref="H480:J480"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8921,12 +8928,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8934,14 +8941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
